--- a/output/250812_all_costs.xlsx
+++ b/output/250812_all_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ischillebeeckx/Development/solar/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF88FF47-19D7-9148-9CF1-5C92696E9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F156844A-BC97-7649-8DE2-482D7D0F2970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="2700" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
+    <workbookView xWindow="9460" yWindow="3360" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="250812_all_costs" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>1 battery</t>
   </si>
@@ -72,9 +72,6 @@
     <t>batteries</t>
   </si>
   <si>
-    <t>annual return</t>
-  </si>
-  <si>
     <t>cost w/o solar</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   <si>
     <t>savings at year</t>
   </si>
+  <si>
+    <t>car charge</t>
+  </si>
+  <si>
+    <t>period return</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -592,7 +595,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -970,19 +973,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F96193-E8D3-004D-AB57-E6723CF263D7}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="23" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -990,19 +994,25 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>4.5</v>
       </c>
@@ -1048,19 +1058,28 @@
       <c r="X2">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="AA2">
+        <v>4.5</v>
+      </c>
+      <c r="AB2">
+        <v>5.5</v>
+      </c>
+      <c r="AC2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>428.55508130481297</v>
+        <v>348.50498370051798</v>
       </c>
       <c r="C3">
-        <v>338.48096483404402</v>
+        <v>231.30272913532801</v>
       </c>
       <c r="D3">
-        <v>284.147830358779</v>
+        <v>152.744071364826</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1080,61 +1099,76 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f>($B$35-B3)/G3</f>
-        <v>5.7617796747807482E-2</v>
-      </c>
-      <c r="M3">
+        <v>6.0819800651979276E-2</v>
+      </c>
+      <c r="M3" s="2">
         <f t="shared" ref="M3:N10" si="1">($B$35-C3)/H3</f>
-        <v>5.8416757067402902E-2</v>
-      </c>
-      <c r="N3">
+        <v>6.250752942231573E-2</v>
+      </c>
+      <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>5.8095754019106341E-2</v>
+        <v>6.2912607354661809E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" s="4">
         <f>LN(1+(G3*$B$36/($B$35-B3)))/LN(1+$B$36)</f>
-        <v>12.299512993615533</v>
+        <v>11.828569739955233</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:S10" si="2">LN(1+(H3*$B$36/($B$35-C3)))/LN(1+$B$36)</f>
-        <v>12.178387020454997</v>
+        <v>11.595088333446929</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="2"/>
-        <v>12.226752993348894</v>
+        <v>11.540464152725319</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" s="6" cm="1">
         <f t="array" ref="V3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G3</f>
-        <v>8273.4885087076909</v>
+        <v>10122.60190984363</v>
       </c>
       <c r="W3" s="6" cm="1">
         <f t="array" ref="W3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H3</f>
-        <v>9154.1512542412092</v>
+        <v>11629.909783859388</v>
       </c>
       <c r="X3" s="6" cm="1">
         <f t="array" ref="X3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I3</f>
-        <v>9329.2168955171146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>12364.57174188421</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6" cm="1">
+        <f t="array" ref="AA3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G3</f>
+        <v>57255.817563480494</v>
+      </c>
+      <c r="AB3" s="6" cm="1">
+        <f t="array" ref="AB3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H3</f>
+        <v>62396.231156552094</v>
+      </c>
+      <c r="AC3" s="6" cm="1">
+        <f t="array" ref="AC3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I3</f>
+        <v>65566.101463479557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>361.257808806676</v>
+        <v>284.14190411602601</v>
       </c>
       <c r="C4">
-        <v>269.027260155058</v>
+        <v>165.00704467265601</v>
       </c>
       <c r="D4">
-        <v>208.96799619616101</v>
+        <v>81.205408724010297</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1154,61 +1188,76 @@
       <c r="K4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:L10" si="4">($B$35-B4)/G4</f>
-        <v>6.0309687647732965E-2</v>
-      </c>
-      <c r="M4">
+        <v>6.3394323835358951E-2</v>
+      </c>
+      <c r="M4" s="2">
         <f t="shared" si="1"/>
-        <v>6.1067661826142823E-2</v>
-      </c>
-      <c r="N4">
+        <v>6.5037899058295573E-2</v>
+      </c>
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
-        <v>6.0851613042662719E-2</v>
+        <v>6.5534992348826607E-2</v>
       </c>
       <c r="P4">
         <v>10</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" ref="Q4:Q10" si="5">LN(1+(G4*$B$36/($B$35-B4)))/LN(1+$B$36)</f>
-        <v>11.901072633535273</v>
+        <v>11.476195421693886</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="2"/>
-        <v>11.793670946809598</v>
+        <v>11.262385412408321</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="2"/>
-        <v>11.824078575398335</v>
+        <v>11.199332909607907</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
       <c r="V4" s="6" cm="1">
         <f t="array" ref="V4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G4</f>
-        <v>9828.0186362203021</v>
+        <v>11609.353788478154</v>
       </c>
       <c r="W4" s="6" cm="1">
         <f t="array" ref="W4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H4</f>
-        <v>10758.493783781858</v>
+        <v>13161.303776448716</v>
       </c>
       <c r="X4" s="6" cm="1">
         <f t="array" ref="X4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I4</f>
-        <v>11065.829879207166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>14017.075658148984</v>
+      </c>
+      <c r="Z4">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="6" cm="1">
+        <f t="array" ref="AA4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G4</f>
+        <v>60737.734751877884</v>
+      </c>
+      <c r="AB4" s="6" cm="1">
+        <f t="array" ref="AB4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H4</f>
+        <v>65982.698503008374</v>
+      </c>
+      <c r="AC4" s="6" cm="1">
+        <f t="array" ref="AC4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I4</f>
+        <v>69436.203712969116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>312.62061760267602</v>
+        <v>240.69839149606</v>
       </c>
       <c r="C5">
-        <v>216.52007903353601</v>
+        <v>117.70516472256099</v>
       </c>
       <c r="D5">
-        <v>163.51670407492401</v>
+        <v>39.352896438821404</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1228,61 +1277,76 @@
       <c r="K5">
         <v>20</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f t="shared" si="4"/>
-        <v>6.2255175295892959E-2</v>
-      </c>
-      <c r="M5">
+        <v>6.51320643401576E-2</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="1"/>
-        <v>6.3071752708643666E-2</v>
-      </c>
-      <c r="N5">
+        <v>6.6843314323566369E-2</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" si="1"/>
-        <v>6.2517716126285774E-2</v>
+        <v>6.7069175350483082E-2</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="5"/>
-        <v>11.629389757443642</v>
+        <v>11.250384938900833</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="2"/>
-        <v>11.519149258149143</v>
+        <v>11.03681765914342</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="2"/>
-        <v>11.593708101690812</v>
+        <v>11.009253884163872</v>
       </c>
       <c r="U5">
         <v>20</v>
       </c>
       <c r="V5" s="6" cm="1">
         <f t="array" ref="V5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G5</f>
-        <v>10951.511108315703</v>
+        <v>12612.87513051444</v>
       </c>
       <c r="W5" s="6" cm="1">
         <f t="array" ref="W5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H5</f>
-        <v>11971.380902891004</v>
+        <v>14253.951290097117</v>
       </c>
       <c r="X5" s="6" cm="1">
         <f t="array" ref="X5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I5</f>
-        <v>12115.729827809038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>14983.845764043232</v>
+      </c>
+      <c r="Z5">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="6" cm="1">
+        <f t="array" ref="AA5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G5</f>
+        <v>63087.944131111319</v>
+      </c>
+      <c r="AB5" s="6" cm="1">
+        <f t="array" ref="AB5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H5</f>
+        <v>68541.638036433549</v>
+      </c>
+      <c r="AC5" s="6" cm="1">
+        <f t="array" ref="AC5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I5</f>
+        <v>71700.343074295219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
       <c r="B6">
-        <v>282.32767778661702</v>
+        <v>216.430172350898</v>
       </c>
       <c r="C6">
-        <v>186.60085385224701</v>
+        <v>95.186186205874094</v>
       </c>
       <c r="D6">
-        <v>142.51089759346999</v>
+        <v>22.506067658953899</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -1302,61 +1366,76 @@
       <c r="K6">
         <v>30</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>6.3466892888535326E-2</v>
-      </c>
-      <c r="M6">
+        <v>6.6102793105964078E-2</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
-        <v>6.4213707868234854E-2</v>
-      </c>
-      <c r="N6">
+        <v>6.7702817320386494E-2</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="1"/>
-        <v>6.3287723695254039E-2</v>
+        <v>6.7686727725111653E-2</v>
       </c>
       <c r="P6">
         <v>30</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="5"/>
-        <v>11.466577746619285</v>
+        <v>11.128198885807679</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="2"/>
-        <v>11.368562522596969</v>
+        <v>10.932678605758907</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="2"/>
-        <v>11.490353627244387</v>
+        <v>10.934609412194733</v>
       </c>
       <c r="U6">
         <v>30</v>
       </c>
       <c r="V6" s="6" cm="1">
         <f t="array" ref="V6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G6</f>
-        <v>11651.261422807191</v>
+        <v>13173.457698006721</v>
       </c>
       <c r="W6" s="6" cm="1">
         <f t="array" ref="W6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H6</f>
-        <v>12662.498614049873</v>
+        <v>14774.127357351084</v>
       </c>
       <c r="X6" s="6" cm="1">
         <f t="array" ref="X6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I6</f>
-        <v>12600.952450004064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>15372.998279727668</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="6" cm="1">
+        <f t="array" ref="AA6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G6</f>
+        <v>64400.807498104317</v>
+      </c>
+      <c r="AB6" s="6" cm="1">
+        <f t="array" ref="AB6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H6</f>
+        <v>69759.870893975327</v>
+      </c>
+      <c r="AC6" s="6" cm="1">
+        <f t="array" ref="AC6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I6</f>
+        <v>72611.723683757882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
       <c r="B7">
-        <v>269.202160697088</v>
+        <v>212.32790632726099</v>
       </c>
       <c r="C7">
-        <v>171.63344707882101</v>
+        <v>90.071446030303505</v>
       </c>
       <c r="D7">
-        <v>136.87619338035199</v>
+        <v>25.748762016457299</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -1376,61 +1455,76 @@
       <c r="K7">
         <v>40</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f t="shared" si="4"/>
-        <v>6.3991913572116477E-2</v>
-      </c>
-      <c r="M7">
+        <v>6.6266883746909561E-2</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>6.4784982935922858E-2</v>
-      </c>
-      <c r="N7">
+        <v>6.7898036411057114E-2</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>6.3494274436204104E-2</v>
+        <v>6.7567860629895268E-2</v>
       </c>
       <c r="P7">
         <v>40</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="5"/>
-        <v>11.397490199067287</v>
+        <v>11.107815261271979</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>11.294748674357555</v>
+        <v>10.909307614576283</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>11.462953169963958</v>
+        <v>10.948895718544703</v>
       </c>
       <c r="U7">
         <v>40</v>
       </c>
       <c r="V7" s="6" cm="1">
         <f t="array" ref="V7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G7</f>
-        <v>11954.453677076031</v>
+        <v>13268.217795824821</v>
       </c>
       <c r="W7" s="6" cm="1">
         <f t="array" ref="W7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H7</f>
-        <v>13008.237510981708</v>
+        <v>14892.275053419202</v>
       </c>
       <c r="X7" s="6" cm="1">
         <f t="array" ref="X7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I7</f>
-        <v>12731.11103048973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>15298.093816501554</v>
+      </c>
+      <c r="Z7">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="6" cm="1">
+        <f t="array" ref="AA7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G7</f>
+        <v>64622.732096356776</v>
+      </c>
+      <c r="AB7" s="6" cm="1">
+        <f t="array" ref="AB7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H7</f>
+        <v>70036.568370952431</v>
+      </c>
+      <c r="AC7" s="6" cm="1">
+        <f t="array" ref="AC7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I7</f>
+        <v>72436.300237692209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="B8">
-        <v>274.56158364739701</v>
+        <v>227.67570194637699</v>
       </c>
       <c r="C8">
-        <v>174.71889476899699</v>
+        <v>105.20930495038</v>
       </c>
       <c r="D8">
-        <v>138.44959226446201</v>
+        <v>40.666234150020301</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -1450,61 +1544,76 @@
       <c r="K8">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>6.3777536654104114E-2</v>
-      </c>
-      <c r="M8">
+        <v>6.565297192214492E-2</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>6.4667217756908507E-2</v>
-      </c>
-      <c r="N8">
+        <v>6.732025553624503E-2</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>6.3436598524029983E-2</v>
+        <v>6.7021032472506584E-2</v>
       </c>
       <c r="P8">
         <v>50</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="5"/>
-        <v>11.425595695668944</v>
+        <v>11.184475147099118</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="2"/>
-        <v>11.309883721859149</v>
+        <v>10.978778828001003</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="2"/>
-        <v>11.47059066890146</v>
+        <v>11.015117243049076</v>
       </c>
       <c r="U8">
         <v>50</v>
       </c>
       <c r="V8" s="6" cm="1">
         <f t="array" ref="V8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G8</f>
-        <v>11830.653942955025</v>
+        <v>12913.692124944435</v>
       </c>
       <c r="W8" s="6" cm="1">
         <f t="array" ref="W8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H8</f>
-        <v>12936.965359627065</v>
+        <v>14542.598805277856</v>
       </c>
       <c r="X8" s="6" cm="1">
         <f t="array" ref="X8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I8</f>
-        <v>12694.76637821558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>14953.508382395063</v>
+      </c>
+      <c r="Z8">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="6" cm="1">
+        <f t="array" ref="AA8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G8</f>
+        <v>63792.446259892735</v>
+      </c>
+      <c r="AB8" s="6" cm="1">
+        <f t="array" ref="AB8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H8</f>
+        <v>69217.639700826301</v>
+      </c>
+      <c r="AC8" s="6" cm="1">
+        <f t="array" ref="AC8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I8</f>
+        <v>71629.294063273439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
       <c r="B9">
-        <v>301.99225867855802</v>
+        <v>264.44575797169398</v>
       </c>
       <c r="C9">
-        <v>189.217354807703</v>
+        <v>133.46562806209101</v>
       </c>
       <c r="D9">
-        <v>149.20448248018201</v>
+        <v>67.899706915627405</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -1524,61 +1633,76 @@
       <c r="K9">
         <v>60</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
-        <v>6.2680309652857674E-2</v>
-      </c>
-      <c r="M9">
+        <v>6.4182169681132231E-2</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>6.4113841419553314E-2</v>
-      </c>
-      <c r="N9">
+        <v>6.6241769921294227E-2</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>6.3042357680345232E-2</v>
+        <v>6.6022738016289315E-2</v>
       </c>
       <c r="P9">
         <v>60</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="5"/>
-        <v>11.571723753468861</v>
+        <v>11.372666638892303</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="2"/>
-        <v>11.381568838908889</v>
+        <v>11.110929940626836</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="2"/>
-        <v>11.523080092724046</v>
+        <v>11.138171561801459</v>
       </c>
       <c r="U9">
         <v>60</v>
       </c>
       <c r="V9" s="6" cm="1">
         <f t="array" ref="V9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G9</f>
-        <v>11197.020376971675</v>
+        <v>12064.323974351631</v>
       </c>
       <c r="W9" s="6" cm="1">
         <f t="array" ref="W9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H9</f>
-        <v>12602.058875366041</v>
+        <v>13889.893220945261</v>
       </c>
       <c r="X9" s="6" cm="1">
         <f t="array" ref="X9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I9</f>
-        <v>12446.334306040728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>14324.430080713486</v>
+      </c>
+      <c r="Z9">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="6" cm="1">
+        <f t="array" ref="AA9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G9</f>
+        <v>61803.257878612494</v>
+      </c>
+      <c r="AB9" s="6" cm="1">
+        <f t="array" ref="AB9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H9</f>
+        <v>67689.027680414496</v>
+      </c>
+      <c r="AC9" s="6" cm="1">
+        <f t="array" ref="AC9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I9</f>
+        <v>70156.016253471942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
       <c r="B10">
-        <v>359.65422522876401</v>
+        <v>330.23111627159801</v>
       </c>
       <c r="C10">
-        <v>227.45541039812201</v>
+        <v>186.560287706151</v>
       </c>
       <c r="D10">
-        <v>171.812246323794</v>
+        <v>110.197744440671</v>
       </c>
       <c r="F10">
         <v>70</v>
@@ -1598,50 +1722,65 @@
       <c r="K10">
         <v>70</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>6.0373830990849441E-2</v>
-      </c>
-      <c r="M10">
+        <v>6.155075534913608E-2</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>6.2654373648926634E-2</v>
-      </c>
-      <c r="N10">
+        <v>6.4215256194421713E-2</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>6.2213627334171774E-2</v>
+        <v>6.4472223444256932E-2</v>
       </c>
       <c r="P10">
         <v>70</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="5"/>
-        <v>11.891905180309129</v>
+        <v>11.726261920498374</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="2"/>
-        <v>11.575224778585717</v>
+        <v>11.368361115317519</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="2"/>
-        <v>11.635057378522022</v>
+        <v>11.335036676572404</v>
       </c>
       <c r="U10">
         <v>70</v>
       </c>
       <c r="V10" s="6" cm="1">
         <f t="array" ref="V10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G10</f>
-        <v>9865.0605383853181</v>
+        <v>10544.718236552326</v>
       </c>
       <c r="W10" s="6" cm="1">
         <f t="array" ref="W10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H10</f>
-        <v>11718.780739027687</v>
+        <v>12663.435669801504</v>
       </c>
       <c r="X10" s="6" cm="1">
         <f t="array" ref="X10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I10</f>
-        <v>11924.107346373712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>13347.36858584889</v>
+      </c>
+      <c r="Z10">
+        <v>70</v>
+      </c>
+      <c r="AA10" s="6" cm="1">
+        <f t="array" ref="AA10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G10</f>
+        <v>58244.39818314655</v>
+      </c>
+      <c r="AB10" s="6" cm="1">
+        <f t="array" ref="AB10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H10</f>
+        <v>64816.710053286763</v>
+      </c>
+      <c r="AC10" s="6" cm="1">
+        <f t="array" ref="AC10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I10</f>
+        <v>67867.774844814849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>4.5</v>
@@ -1696,19 +1835,28 @@
       <c r="X12">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>4.5</v>
+      </c>
+      <c r="AB12">
+        <v>5.5</v>
+      </c>
+      <c r="AC12">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="1">
-        <v>488.08770220000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>403.41912430000002</v>
-      </c>
-      <c r="D13" s="1">
-        <v>353.67261009999999</v>
+      <c r="B13">
+        <v>402.39581604809899</v>
+      </c>
+      <c r="C13">
+        <v>290.29298109553798</v>
+      </c>
+      <c r="D13">
+        <v>214.88456485730799</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1728,61 +1876,76 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <f>($B$35-B13)/G13</f>
-        <v>9.0849493276315793E-2</v>
-      </c>
-      <c r="M13">
+        <v>9.6487117365256642E-2</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" ref="M13:M20" si="7">($B$35-C13)/H13</f>
-        <v>8.9364687542682925E-2</v>
-      </c>
-      <c r="N13">
+        <v>9.626262310393062E-2</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" ref="N13:N20" si="8">($B$35-D13)/I13</f>
-        <v>8.6689209948512591E-2</v>
+        <v>9.4629029470405718E-2</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <f>LN(1+(G13*$B$36/($B$35-B13)))/LN(1+$B$36)</f>
-        <v>8.7296400072326801</v>
+        <v>8.3236428524917407</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13:R20" si="9">LN(1+(H13*$B$36/($B$35-C13)))/LN(1+$B$36)</f>
-        <v>8.843386803216843</v>
+        <v>8.3390729437913578</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ref="S13:S20" si="10">LN(1+(I13*$B$36/($B$35-D13)))/LN(1+$B$36)</f>
-        <v>9.0561818961228457</v>
+        <v>8.4531345702715015</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13" s="4" cm="1">
+      <c r="V13" s="6" cm="1">
         <f t="array" ref="V13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G13</f>
-        <v>16698.317579545335</v>
-      </c>
-      <c r="W13" s="4" cm="1">
+        <v>18677.753205412628</v>
+      </c>
+      <c r="W13" s="6" cm="1">
         <f t="array" ref="W13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H13</f>
-        <v>17454.115345388556</v>
-      </c>
-      <c r="X13" s="4" cm="1">
+        <v>20067.267279971224</v>
+      </c>
+      <c r="X13" s="6" cm="1">
         <f t="array" ref="X13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I13</f>
-        <v>17523.232570975597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>20729.160384384704</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6" cm="1">
+        <f t="array" ref="AA13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G13</f>
+        <v>64140.428544504859</v>
+      </c>
+      <c r="AB13" s="6" cm="1">
+        <f t="array" ref="AB13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H13</f>
+        <v>69004.973473201011</v>
+      </c>
+      <c r="AC13" s="6" cm="1">
+        <f t="array" ref="AC13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I13</f>
+        <v>72004.421851755338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
-        <v>428.37250649999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>353.49635050000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>316.8766991</v>
+      <c r="B14">
+        <v>344.47030026312399</v>
+      </c>
+      <c r="C14">
+        <v>240.18294573265101</v>
+      </c>
+      <c r="D14">
+        <v>175.052667632083</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1802,61 +1965,76 @@
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <f t="shared" ref="L14:L20" si="12">($B$35-B14)/G14</f>
-        <v>9.4778124572368436E-2</v>
-      </c>
-      <c r="M14">
+        <v>0.10029800656163658</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="7"/>
-        <v>9.2408759115853653E-2</v>
-      </c>
-      <c r="N14">
+        <v>9.9318113065082259E-2</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="8"/>
-        <v>8.8794239181922197E-2</v>
+        <v>9.6907742126311036E-2</v>
       </c>
       <c r="P14">
         <v>10</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ref="Q14:Q20" si="13">LN(1+(G14*$B$36/($B$35-B14)))/LN(1+$B$36)</f>
-        <v>8.4425926278127221</v>
+        <v>8.0703069420209861</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="9"/>
-        <v>8.6133597883465107</v>
+        <v>8.1339359605549717</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="10"/>
-        <v>8.8878964625345755</v>
+        <v>8.294888255919517</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="V14" s="4" cm="1">
+      <c r="V14" s="6" cm="1">
         <f t="array" ref="V14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G14</f>
-        <v>18077.705886679651</v>
-      </c>
-      <c r="W14" s="4" cm="1">
+        <v>20015.800886943012</v>
+      </c>
+      <c r="W14" s="6" cm="1">
         <f t="array" ref="W14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H14</f>
-        <v>18607.304071176011</v>
-      </c>
-      <c r="X14" s="4" cm="1">
+        <v>21224.781645274612</v>
+      </c>
+      <c r="X14" s="6" cm="1">
         <f t="array" ref="X14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I14</f>
-        <v>18373.197957319549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>21649.255389339218</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="6" cm="1">
+        <f t="array" ref="AA14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G14</f>
+        <v>67274.086075507861</v>
+      </c>
+      <c r="AB14" s="6" cm="1">
+        <f t="array" ref="AB14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H14</f>
+        <v>71715.828742520331</v>
+      </c>
+      <c r="AC14" s="6" cm="1">
+        <f t="array" ref="AC14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I14</f>
+        <v>74159.249875683599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20</v>
       </c>
-      <c r="B15" s="1">
-        <v>394.21668249999999</v>
-      </c>
-      <c r="C15" s="1">
-        <v>334.02470829999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>306.37182689999997</v>
+      <c r="B15">
+        <v>313.06513116860702</v>
+      </c>
+      <c r="C15">
+        <v>220.165993309546</v>
+      </c>
+      <c r="D15">
+        <v>161.811646215439</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1876,61 +2054,76 @@
       <c r="K15">
         <v>20</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <f t="shared" si="12"/>
-        <v>9.7025218256578949E-2</v>
-      </c>
-      <c r="M15">
+        <v>0.10236413610732849</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="7"/>
-        <v>9.3596054371951218E-2</v>
-      </c>
-      <c r="N15">
+        <v>0.10053865894453988</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="8"/>
-        <v>8.9395204410755144E-2</v>
+        <v>9.7665237630695706E-2</v>
       </c>
       <c r="P15">
         <v>20</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="13"/>
-        <v>8.2868935171094016</v>
+        <v>7.9394082731689934</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="9"/>
-        <v>8.5269161097932979</v>
+        <v>8.0548349311527172</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="10"/>
-        <v>8.8410185282983242</v>
+        <v>8.2436118068994144</v>
       </c>
       <c r="U15">
         <v>20</v>
       </c>
-      <c r="V15" s="4" cm="1">
+      <c r="V15" s="6" cm="1">
         <f t="array" ref="V15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G15</f>
-        <v>18866.686709631853</v>
-      </c>
-      <c r="W15" s="4" cm="1">
+        <v>20741.243088458781</v>
+      </c>
+      <c r="W15" s="6" cm="1">
         <f t="array" ref="W15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H15</f>
-        <v>19057.088338924514</v>
-      </c>
-      <c r="X15" s="4" cm="1">
+        <v>21687.162280441735</v>
+      </c>
+      <c r="X15" s="6" cm="1">
         <f t="array" ref="X15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I15</f>
-        <v>18615.854750297622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>21955.11573028814</v>
+      </c>
+      <c r="Z15">
+        <v>20</v>
+      </c>
+      <c r="AA15" s="6" cm="1">
+        <f t="array" ref="AA15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G15</f>
+        <v>68973.044527786013</v>
+      </c>
+      <c r="AB15" s="6" cm="1">
+        <f t="array" ref="AB15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H15</f>
+        <v>72798.706863817264</v>
+      </c>
+      <c r="AC15" s="6" cm="1">
+        <f t="array" ref="AC15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I15</f>
+        <v>74875.563333028811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>30</v>
       </c>
-      <c r="B16" s="1">
-        <v>382.0780087</v>
-      </c>
-      <c r="C16" s="1">
-        <v>330.47095030000003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>302.79773390000003</v>
+      <c r="B16">
+        <v>303.21734076172498</v>
+      </c>
+      <c r="C16">
+        <v>220.10625080158999</v>
+      </c>
+      <c r="D16">
+        <v>160.05753879151899</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -1950,61 +2143,76 @@
       <c r="K16">
         <v>30</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <f t="shared" si="12"/>
-        <v>9.7823815217105259E-2</v>
-      </c>
-      <c r="M16">
+        <v>0.10301201705514967</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="7"/>
-        <v>9.3812746932926835E-2</v>
-      </c>
-      <c r="N16">
+        <v>0.10054230178039085</v>
+      </c>
+      <c r="N16" s="2">
         <f t="shared" si="8"/>
-        <v>8.9599671973684222E-2</v>
+        <v>9.7765587025656811E-2</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="13"/>
-        <v>8.2329589864317008</v>
+        <v>7.8992469904828431</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="9"/>
-        <v>8.5113299081318967</v>
+        <v>8.054601189993015</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="10"/>
-        <v>8.8251840897128186</v>
+        <v>8.2368673419805738</v>
       </c>
       <c r="U16">
         <v>30</v>
       </c>
-      <c r="V16" s="4" cm="1">
+      <c r="V16" s="6" cm="1">
         <f t="array" ref="V16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G16</f>
-        <v>19147.08342453096</v>
-      </c>
-      <c r="W16" s="4" cm="1">
+        <v>20968.721651982312</v>
+      </c>
+      <c r="W16" s="6" cm="1">
         <f t="array" ref="W16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H16</f>
-        <v>19139.178201883551</v>
-      </c>
-      <c r="X16" s="4" cm="1">
+        <v>21688.542299647022</v>
+      </c>
+      <c r="X16" s="6" cm="1">
         <f t="array" ref="X16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I16</f>
-        <v>18698.414340616619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>21995.634650835076</v>
+      </c>
+      <c r="Z16">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="6" cm="1">
+        <f t="array" ref="AA16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G16</f>
+        <v>69505.790799512266</v>
+      </c>
+      <c r="AB16" s="6" cm="1">
+        <f t="array" ref="AB16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H16</f>
+        <v>72801.938817084185</v>
+      </c>
+      <c r="AC16" s="6" cm="1">
+        <f t="array" ref="AC16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I16</f>
+        <v>74970.457126630237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40</v>
       </c>
-      <c r="B17" s="1">
-        <v>385.87056680000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>333.01902360000003</v>
-      </c>
-      <c r="D17" s="1">
-        <v>304.59996890000002</v>
+      <c r="B17">
+        <v>312.24957418687501</v>
+      </c>
+      <c r="C17">
+        <v>228.45362120177001</v>
+      </c>
+      <c r="D17">
+        <v>170.79751470113399</v>
       </c>
       <c r="F17">
         <v>40</v>
@@ -2024,61 +2232,76 @@
       <c r="K17">
         <v>40</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <f t="shared" si="12"/>
-        <v>9.7574304815789478E-2</v>
-      </c>
-      <c r="M17">
+        <v>0.10241779117191613</v>
+      </c>
+      <c r="M17" s="2">
         <f t="shared" si="7"/>
-        <v>9.3657376609756093E-2</v>
-      </c>
-      <c r="N17">
+        <v>0.10003331578037988</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="8"/>
-        <v>8.9496569284897021E-2</v>
+        <v>9.7151171927852747E-2</v>
       </c>
       <c r="P17">
         <v>40</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="13"/>
-        <v>8.2497331084040102</v>
+        <v>7.9360664971300459</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="9"/>
-        <v>8.5224994380489925</v>
+        <v>8.0873944421751389</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="10"/>
-        <v>8.833161352372116</v>
+        <v>8.2783392676610372</v>
       </c>
       <c r="U17">
         <v>40</v>
       </c>
-      <c r="V17" s="4" cm="1">
+      <c r="V17" s="6" cm="1">
         <f t="array" ref="V17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G17</f>
-        <v>19059.477410082822</v>
-      </c>
-      <c r="W17" s="4" cm="1">
+        <v>20760.08200795349</v>
+      </c>
+      <c r="W17" s="6" cm="1">
         <f t="array" ref="W17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H17</f>
-        <v>19080.319104554306</v>
-      </c>
-      <c r="X17" s="4" cm="1">
+        <v>21495.722616309242</v>
+      </c>
+      <c r="X17" s="6" cm="1">
         <f t="array" ref="X17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I17</f>
-        <v>18656.783699427782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>21747.547090960805</v>
+      </c>
+      <c r="Z17">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="6" cm="1">
+        <f t="array" ref="AA17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G17</f>
+        <v>69017.164571313187</v>
+      </c>
+      <c r="AB17" s="6" cm="1">
+        <f t="array" ref="AB17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H17</f>
+        <v>72350.362344020105</v>
+      </c>
+      <c r="AC17" s="6" cm="1">
+        <f t="array" ref="AC17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I17</f>
+        <v>74389.445357708057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
-      <c r="B18" s="1">
-        <v>401.04625759999999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>342.99077069999998</v>
-      </c>
-      <c r="D18" s="1">
-        <v>312.29986730000002</v>
+      <c r="B18">
+        <v>335.44302617197502</v>
+      </c>
+      <c r="C18">
+        <v>248.55994698239701</v>
+      </c>
+      <c r="D18">
+        <v>190.785787914954</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -2098,61 +2321,76 @@
       <c r="K18">
         <v>50</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <f t="shared" si="12"/>
-        <v>9.6575904105263163E-2</v>
-      </c>
-      <c r="M18">
+        <v>0.10089190617289638</v>
+      </c>
+      <c r="M18" s="2">
         <f t="shared" si="7"/>
-        <v>9.304934325E-2</v>
-      </c>
-      <c r="N18">
+        <v>9.8807320305951407E-2</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="8"/>
-        <v>8.9056071664759734E-2</v>
+        <v>9.6007678036901953E-2</v>
       </c>
       <c r="P18">
         <v>50</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="13"/>
-        <v>8.3175563455499848</v>
+        <v>8.0322330149786598</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="9"/>
-        <v>8.5664997660216837</v>
+        <v>8.1675108385367459</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="10"/>
-        <v>8.8674100970660312</v>
+        <v>8.3566668448076307</v>
       </c>
       <c r="U18">
         <v>50</v>
       </c>
-      <c r="V18" s="4" cm="1">
+      <c r="V18" s="6" cm="1">
         <f t="array" ref="V18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G18</f>
-        <v>18708.927266240527</v>
-      </c>
-      <c r="W18" s="4" cm="1">
+        <v>20224.325973073275</v>
+      </c>
+      <c r="W18" s="6" cm="1">
         <f t="array" ref="W18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H18</f>
-        <v>18849.977209326447</v>
-      </c>
-      <c r="X18" s="4" cm="1">
+        <v>21031.277505544407</v>
+      </c>
+      <c r="X18" s="6" cm="1">
         <f t="array" ref="X18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I18</f>
-        <v>18478.920264592176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>21285.828929816955</v>
+      </c>
+      <c r="Z18">
+        <v>50</v>
+      </c>
+      <c r="AA18" s="6" cm="1">
+        <f t="array" ref="AA18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G18</f>
+        <v>67762.444013401167</v>
+      </c>
+      <c r="AB18" s="6" cm="1">
+        <f t="array" ref="AB18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H18</f>
+        <v>71262.649298233053</v>
+      </c>
+      <c r="AC18" s="6" cm="1">
+        <f t="array" ref="AC18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I18</f>
+        <v>73308.118725749446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>60</v>
       </c>
-      <c r="B19" s="1">
-        <v>429.78701960000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>362.7700845</v>
-      </c>
-      <c r="D19" s="1">
-        <v>325.77062439999997</v>
+      <c r="B19">
+        <v>372.76243824518002</v>
+      </c>
+      <c r="C19">
+        <v>281.17963178988902</v>
+      </c>
+      <c r="D19">
+        <v>219.43849980248399</v>
       </c>
       <c r="F19">
         <v>60</v>
@@ -2172,61 +2410,76 @@
       <c r="K19">
         <v>60</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <f t="shared" si="12"/>
-        <v>9.4685064500000013E-2</v>
-      </c>
-      <c r="M19">
+        <v>9.8436681694396053E-2</v>
+      </c>
+      <c r="M19" s="2">
         <f t="shared" si="7"/>
-        <v>9.1843287530487802E-2</v>
-      </c>
-      <c r="N19">
+        <v>9.6818315134762856E-2</v>
+      </c>
+      <c r="N19" s="2">
         <f t="shared" si="8"/>
-        <v>8.8285433386727688E-2</v>
+        <v>9.4368506876288102E-2</v>
       </c>
       <c r="P19">
         <v>60</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="13"/>
-        <v>8.4491694018368566</v>
+        <v>8.1920504955538398</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>8.6551620088789818</v>
+        <v>8.3009846772112752</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="10"/>
-        <v>8.9279844102892021</v>
+        <v>8.4716196932484849</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
-      <c r="V19" s="4" cm="1">
+      <c r="V19" s="6" cm="1">
         <f t="array" ref="V19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G19</f>
-        <v>18045.031408976676</v>
-      </c>
-      <c r="W19" s="4" cm="1">
+        <v>19362.26799872578</v>
+      </c>
+      <c r="W19" s="6" cm="1">
         <f t="array" ref="W19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H19</f>
-        <v>18393.085896168443</v>
-      </c>
-      <c r="X19" s="4" cm="1">
+        <v>20277.780656402181</v>
+      </c>
+      <c r="X19" s="6" cm="1">
         <f t="array" ref="X19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I19</f>
-        <v>18167.7531552129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>20623.966981915015</v>
+      </c>
+      <c r="Z19">
+        <v>60</v>
+      </c>
+      <c r="AA19" s="6" cm="1">
+        <f t="array" ref="AA19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G19</f>
+        <v>65743.536540398782</v>
+      </c>
+      <c r="AB19" s="6" cm="1">
+        <f t="array" ref="AB19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H19</f>
+        <v>69497.987912473633</v>
+      </c>
+      <c r="AC19" s="6" cm="1">
+        <f t="array" ref="AC19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I19</f>
+        <v>71758.062844964224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>70</v>
       </c>
-      <c r="B20" s="1">
-        <v>478.41793949999999</v>
-      </c>
-      <c r="C20" s="1">
-        <v>398.3796466</v>
-      </c>
-      <c r="D20" s="1">
-        <v>351.72035490000002</v>
+      <c r="B20">
+        <v>431.06280760341298</v>
+      </c>
+      <c r="C20">
+        <v>331.28572573624098</v>
+      </c>
+      <c r="D20">
+        <v>264.57486354943899</v>
       </c>
       <c r="F20">
         <v>70</v>
@@ -2246,50 +2499,65 @@
       <c r="K20">
         <v>70</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <f t="shared" si="12"/>
-        <v>9.1485661874999999E-2</v>
-      </c>
-      <c r="M20">
+        <v>9.4601131078722839E-2</v>
+      </c>
+      <c r="M20" s="2">
         <f t="shared" si="7"/>
-        <v>8.9671972768292696E-2</v>
-      </c>
-      <c r="N20">
+        <v>9.3763065503887744E-2</v>
+      </c>
+      <c r="N20" s="2">
         <f t="shared" si="8"/>
-        <v>8.6800895028604108E-2</v>
+        <v>9.1786335037217448E-2</v>
       </c>
       <c r="P20">
         <v>70</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="13"/>
-        <v>8.6818137314936337</v>
+        <v>8.4551101401816062</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="9"/>
-        <v>8.8195988031204156</v>
+        <v>8.514898243982099</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="10"/>
-        <v>9.0470897965068229</v>
+        <v>8.6593951570639973</v>
       </c>
       <c r="U20">
         <v>70</v>
       </c>
-      <c r="V20" s="4" cm="1">
+      <c r="V20" s="6" cm="1">
         <f t="array" ref="V20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G20</f>
-        <v>16921.683800568091</v>
-      </c>
-      <c r="W20" s="4" cm="1">
+        <v>18015.561405007655</v>
+      </c>
+      <c r="W20" s="6" cm="1">
         <f t="array" ref="W20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H20</f>
-        <v>17570.524519501741</v>
-      </c>
-      <c r="X20" s="4" cm="1">
+        <v>19120.357335661538</v>
+      </c>
+      <c r="X20" s="6" cm="1">
         <f t="array" ref="X20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I20</f>
-        <v>17568.328596599473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>19581.341706233121</v>
+      </c>
+      <c r="Z20">
+        <v>70</v>
+      </c>
+      <c r="AA20" s="6" cm="1">
+        <f t="array" ref="AA20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G20</f>
+        <v>62589.600161517694</v>
+      </c>
+      <c r="AB20" s="6" cm="1">
+        <f t="array" ref="AB20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H20</f>
+        <v>66787.345866108706</v>
+      </c>
+      <c r="AC20" s="6" cm="1">
+        <f t="array" ref="AC20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I20</f>
+        <v>69316.273518430084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2570,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4.5</v>
       </c>
@@ -2348,19 +2616,28 @@
       <c r="X22">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>4.5</v>
+      </c>
+      <c r="AB22">
+        <v>5.5</v>
+      </c>
+      <c r="AC22">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>1142.95371675715</v>
+        <v>1079.2965670645001</v>
       </c>
       <c r="C23">
-        <v>1080.3370169454499</v>
+        <v>1018.07782436601</v>
       </c>
       <c r="D23">
-        <v>1029.21792654556</v>
+        <v>967.90829483211996</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2380,61 +2657,76 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <f>($B$35-B23)/G23</f>
-        <v>0.1344530154153426</v>
-      </c>
-      <c r="M23">
+        <v>0.14624137646953703</v>
+      </c>
+      <c r="M23" s="2">
         <f t="shared" ref="M23:M30" si="15">($B$35-C23)/H23</f>
-        <v>0.11949439137190153</v>
-      </c>
-      <c r="N23">
+        <v>0.12892760236878636</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" ref="N23:N30" si="16">($B$35-D23)/I23</f>
-        <v>0.10934662414771354</v>
+        <v>0.11732964911040104</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" s="4">
         <f>LN(1+(G23*$B$36/($B$35-B23)))/LN(1+$B$36)</f>
-        <v>6.3466103016545521</v>
+        <v>5.9123910814362599</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ref="R23:R30" si="17">LN(1+(H23*$B$36/($B$35-C23)))/LN(1+$B$36)</f>
-        <v>7.0002141709099082</v>
+        <v>6.5731414236558479</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ref="S23:S30" si="18">LN(1+(I23*$B$36/($B$35-D23)))/LN(1+$B$36)</f>
-        <v>7.527286815638278</v>
+        <v>7.1062763058603258</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23" s="4" cm="1">
+      <c r="V23" s="6" cm="1">
         <f t="array" ref="V23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G23</f>
-        <v>11371.271395892232</v>
-      </c>
-      <c r="W23" s="4" cm="1">
+        <v>12841.716680751942</v>
+      </c>
+      <c r="W23" s="6" cm="1">
         <f t="array" ref="W23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H23</f>
-        <v>11617.682858487482</v>
-      </c>
-      <c r="X23" s="4" cm="1">
+        <v>13055.836099869266</v>
+      </c>
+      <c r="X23" s="6" cm="1">
         <f t="array" ref="X23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I23</f>
-        <v>11718.505842359074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>13134.724747930384</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6" cm="1">
+        <f t="array" ref="AA23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G23</f>
+        <v>37321.416915188653</v>
+      </c>
+      <c r="AB23" s="6" cm="1">
+        <f t="array" ref="AB23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H23</f>
+        <v>39433.231605070432</v>
+      </c>
+      <c r="AC23" s="6" cm="1">
+        <f t="array" ref="AC23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I23</f>
+        <v>41067.305393111383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24">
-        <v>1134.93830991252</v>
+        <v>1071.3579501229201</v>
       </c>
       <c r="C24">
-        <v>1071.86887987249</v>
+        <v>1009.6558868031</v>
       </c>
       <c r="D24">
-        <v>1019.84050439232</v>
+        <v>958.57235446906702</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -2454,61 +2746,76 @@
       <c r="K24">
         <v>10</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <f t="shared" ref="L24:L30" si="20">($B$35-B24)/G24</f>
-        <v>0.1359373500162</v>
-      </c>
-      <c r="M24">
+        <v>0.14771149071797776</v>
+      </c>
+      <c r="M24" s="2">
         <f t="shared" si="15"/>
-        <v>0.12077744244356213</v>
-      </c>
-      <c r="N24">
+        <v>0.13020365351468183</v>
+      </c>
+      <c r="N24" s="2">
         <f t="shared" si="16"/>
-        <v>0.11056764265725</v>
+        <v>0.11854526634517357</v>
       </c>
       <c r="P24">
         <v>10</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" ref="Q24:Q30" si="21">LN(1+(G24*$B$36/($B$35-B24)))/LN(1+$B$36)</f>
-        <v>6.2884202021837359</v>
+        <v>5.8624104959342009</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="17"/>
-        <v>6.9388514509150943</v>
+        <v>6.5193849503105801</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="18"/>
-        <v>7.4596413007690545</v>
+        <v>7.0463191720432334</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
-      <c r="V24" s="4" cm="1">
+      <c r="V24" s="6" cm="1">
         <f t="array" ref="V24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G24</f>
-        <v>11556.422902955059</v>
-      </c>
-      <c r="W24" s="4" cm="1">
+        <v>13025.094383121825</v>
+      </c>
+      <c r="W24" s="6" cm="1">
         <f t="array" ref="W24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H24</f>
-        <v>11813.292185807353</v>
-      </c>
-      <c r="X24" s="4" cm="1">
+        <v>13250.378243816282</v>
+      </c>
+      <c r="X24" s="6" cm="1">
         <f t="array" ref="X24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I24</f>
-        <v>11935.119156903427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>13350.379855846215</v>
+      </c>
+      <c r="Z24">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="6" cm="1">
+        <f t="array" ref="AA24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G24</f>
+        <v>37750.880622634533</v>
+      </c>
+      <c r="AB24" s="6" cm="1">
+        <f t="array" ref="AB24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H24</f>
+        <v>39888.842016337512</v>
+      </c>
+      <c r="AC24" s="6" cm="1">
+        <f t="array" ref="AC24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I24</f>
+        <v>41572.361574851304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25">
-        <v>1135.5638164361501</v>
+        <v>1071.8074857813899</v>
       </c>
       <c r="C25">
-        <v>1073.2736351865699</v>
+        <v>1010.80982066353</v>
       </c>
       <c r="D25">
-        <v>1021.50469699462</v>
+        <v>959.95653000581206</v>
       </c>
       <c r="F25">
         <v>20</v>
@@ -2528,61 +2835,76 @@
       <c r="K25">
         <v>20</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <f t="shared" si="20"/>
-        <v>0.13582151547478702</v>
-      </c>
-      <c r="M25">
+        <v>0.14762824337381669</v>
+      </c>
+      <c r="M25" s="2">
         <f t="shared" si="15"/>
-        <v>0.12056460072930759</v>
-      </c>
-      <c r="N25">
+        <v>0.1300288150509803</v>
+      </c>
+      <c r="N25" s="2">
         <f t="shared" si="16"/>
-        <v>0.11035095091215887</v>
+        <v>0.11836503515549322</v>
       </c>
       <c r="P25">
         <v>20</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="21"/>
-        <v>6.2929224132656811</v>
+        <v>5.8652179251316143</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="17"/>
-        <v>6.9489552198123556</v>
+        <v>6.5266977599624667</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="18"/>
-        <v>7.4715559819557429</v>
+        <v>7.0551437716736798</v>
       </c>
       <c r="U25">
         <v>20</v>
       </c>
-      <c r="V25" s="4" cm="1">
+      <c r="V25" s="6" cm="1">
         <f t="array" ref="V25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G25</f>
-        <v>11541.974044927934</v>
-      </c>
-      <c r="W25" s="4" cm="1">
+        <v>13014.710355678486</v>
+      </c>
+      <c r="W25" s="6" cm="1">
         <f t="array" ref="W25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H25</f>
-        <v>11780.843107613568</v>
-      </c>
-      <c r="X25" s="4" cm="1">
+        <v>13223.723003795298</v>
+      </c>
+      <c r="X25" s="6" cm="1">
         <f t="array" ref="X25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I25</f>
-        <v>11896.677219478239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>13318.406159234724</v>
+      </c>
+      <c r="Z25">
+        <v>20</v>
+      </c>
+      <c r="AA25" s="6" cm="1">
+        <f t="array" ref="AA25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G25</f>
+        <v>37726.561619471111</v>
+      </c>
+      <c r="AB25" s="6" cm="1">
+        <f t="array" ref="AB25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H25</f>
+        <v>39826.416443029913</v>
+      </c>
+      <c r="AC25" s="6" cm="1">
+        <f t="array" ref="AC25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I25</f>
+        <v>41497.480375501218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1142.71474699537</v>
+        <v>1078.6432326015399</v>
       </c>
       <c r="C26">
-        <v>1081.98480151383</v>
+        <v>1019.1387802197499</v>
       </c>
       <c r="D26">
-        <v>1031.3147335717099</v>
+        <v>969.34202963804296</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -2602,61 +2924,76 @@
       <c r="K26">
         <v>30</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <f t="shared" si="20"/>
-        <v>0.13449726907493148</v>
-      </c>
-      <c r="M26">
+        <v>0.14636236433304817</v>
+      </c>
+      <c r="M26" s="2">
         <f t="shared" si="15"/>
-        <v>0.11924472704335909</v>
-      </c>
-      <c r="N26">
+        <v>0.12876685148185607</v>
+      </c>
+      <c r="N26" s="2">
         <f t="shared" si="16"/>
-        <v>0.10907360239951694</v>
+        <v>0.11714296489087982</v>
       </c>
       <c r="P26">
         <v>30</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="21"/>
-        <v>6.344859691449134</v>
+        <v>5.9082452988619485</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="17"/>
-        <v>7.0122825778317877</v>
+        <v>6.5799770934996857</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="18"/>
-        <v>7.5425832495355154</v>
+        <v>7.1155757658924932</v>
       </c>
       <c r="U26">
         <v>30</v>
       </c>
-      <c r="V26" s="4" cm="1">
+      <c r="V26" s="6" cm="1">
         <f t="array" ref="V26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G26</f>
-        <v>11376.791466475504</v>
-      </c>
-      <c r="W26" s="4" cm="1">
+        <v>12856.808348932733</v>
+      </c>
+      <c r="W26" s="6" cm="1">
         <f t="array" ref="W26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H26</f>
-        <v>11579.619937657098</v>
-      </c>
-      <c r="X26" s="4" cm="1">
+        <v>13031.328600867062</v>
+      </c>
+      <c r="X26" s="6" cm="1">
         <f t="array" ref="X26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I26</f>
-        <v>11670.070748740378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>13101.606259350738</v>
+      </c>
+      <c r="Z26">
+        <v>30</v>
+      </c>
+      <c r="AA26" s="6" cm="1">
+        <f t="array" ref="AA26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G26</f>
+        <v>37356.761036555115</v>
+      </c>
+      <c r="AB26" s="6" cm="1">
+        <f t="array" ref="AB26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H26</f>
+        <v>39375.835960748933</v>
+      </c>
+      <c r="AC26" s="6" cm="1">
+        <f t="array" ref="AC26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I26</f>
+        <v>40989.74313386935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
       <c r="B27">
-        <v>1157.1282521401699</v>
+        <v>1092.5747991635001</v>
       </c>
       <c r="C27">
-        <v>1098.1939400235699</v>
+        <v>1034.84553978592</v>
       </c>
       <c r="D27">
-        <v>1049.0137757980101</v>
+        <v>986.525066375336</v>
       </c>
       <c r="F27">
         <v>40</v>
@@ -2676,61 +3013,76 @@
       <c r="K27">
         <v>40</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <f t="shared" si="20"/>
-        <v>0.13182810145552409</v>
-      </c>
-      <c r="M27">
+        <v>0.14378244459935183</v>
+      </c>
+      <c r="M27" s="2">
         <f t="shared" si="15"/>
-        <v>0.11678879696612578</v>
-      </c>
-      <c r="N27">
+        <v>0.12638703942637575</v>
+      </c>
+      <c r="N27" s="2">
         <f t="shared" si="16"/>
-        <v>0.1067690396096341</v>
+        <v>0.11490559031571146</v>
       </c>
       <c r="P27">
         <v>40</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="21"/>
-        <v>6.4522248300431944</v>
+        <v>5.9979406459358824</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="17"/>
-        <v>7.133286220335596</v>
+        <v>6.6828845913806729</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="18"/>
-        <v>7.6742605748128065</v>
+        <v>7.2289794777291823</v>
       </c>
       <c r="U27">
         <v>40</v>
       </c>
-      <c r="V27" s="4" cm="1">
+      <c r="V27" s="6" cm="1">
         <f t="array" ref="V27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G27</f>
-        <v>11043.847393723227</v>
-      </c>
-      <c r="W27" s="4" cm="1">
+        <v>12534.996793425576</v>
+      </c>
+      <c r="W27" s="6" cm="1">
         <f t="array" ref="W27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H27</f>
-        <v>11205.19771786932</v>
-      </c>
-      <c r="X27" s="4" cm="1">
+        <v>12668.511059459506</v>
+      </c>
+      <c r="X27" s="6" cm="1">
         <f t="array" ref="X27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I27</f>
-        <v>11261.232569308017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>12704.68752403323</v>
+      </c>
+      <c r="Z27">
+        <v>40</v>
+      </c>
+      <c r="AA27" s="6" cm="1">
+        <f t="array" ref="AA27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G27</f>
+        <v>36603.090432436285</v>
+      </c>
+      <c r="AB27" s="6" cm="1">
+        <f t="array" ref="AB27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H27</f>
+        <v>38526.130874222123</v>
+      </c>
+      <c r="AC27" s="6" cm="1">
+        <f t="array" ref="AC27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I27</f>
+        <v>40060.174329040747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
       <c r="B28">
-        <v>1177.8778558296499</v>
+        <v>1112.6919986630701</v>
       </c>
       <c r="C28">
-        <v>1120.98218764065</v>
+        <v>1057.0230347209799</v>
       </c>
       <c r="D28">
-        <v>1073.61909139968</v>
+        <v>1010.53788541441</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -2750,61 +3102,76 @@
       <c r="K28">
         <v>50</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <f t="shared" si="20"/>
-        <v>0.12798558225376855</v>
-      </c>
-      <c r="M28">
+        <v>0.14005703728461666</v>
+      </c>
+      <c r="M28" s="2">
         <f t="shared" si="15"/>
-        <v>0.1133360321756591</v>
-      </c>
-      <c r="N28">
+        <v>0.12302681292106364</v>
+      </c>
+      <c r="N28" s="2">
         <f t="shared" si="16"/>
-        <v>0.103565222474</v>
+        <v>0.1117789211699987</v>
       </c>
       <c r="P28">
         <v>50</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="21"/>
-        <v>6.6134052179988405</v>
+        <v>6.1324246981848267</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="17"/>
-        <v>7.3107477941836851</v>
+        <v>6.8338634427718317</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="18"/>
-        <v>7.8652801268379724</v>
+        <v>7.3937438533429027</v>
       </c>
       <c r="U28">
         <v>50</v>
       </c>
-      <c r="V28" s="4" cm="1">
+      <c r="V28" s="6" cm="1">
         <f t="array" ref="V28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G28</f>
-        <v>10564.542915668242</v>
-      </c>
-      <c r="W28" s="4" cm="1">
+        <v>12070.300505710067</v>
+      </c>
+      <c r="W28" s="6" cm="1">
         <f t="array" ref="W28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H28</f>
-        <v>10678.801681908881</v>
-      </c>
-      <c r="X28" s="4" cm="1">
+        <v>12156.223075867547</v>
+      </c>
+      <c r="X28" s="6" cm="1">
         <f t="array" ref="X28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I28</f>
-        <v>10692.863258340611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>12150.004559076777</v>
+      </c>
+      <c r="Z28">
+        <v>50</v>
+      </c>
+      <c r="AA28" s="6" cm="1">
+        <f t="array" ref="AA28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G28</f>
+        <v>35514.789139642817</v>
+      </c>
+      <c r="AB28" s="6" cm="1">
+        <f t="array" ref="AB28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H28</f>
+        <v>37326.371613035568</v>
+      </c>
+      <c r="AC28" s="6" cm="1">
+        <f t="array" ref="AC28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I28</f>
+        <v>38761.127610117539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>60</v>
       </c>
       <c r="B29">
-        <v>1203.6657073374699</v>
+        <v>1137.7105905984499</v>
       </c>
       <c r="C29">
-        <v>1149.0862276980499</v>
+        <v>1084.3937667770199</v>
       </c>
       <c r="D29">
-        <v>1103.7970729705801</v>
+        <v>1040.0231709887</v>
       </c>
       <c r="F29">
         <v>60</v>
@@ -2824,61 +3191,76 @@
       <c r="K29">
         <v>60</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="2">
         <f t="shared" si="20"/>
-        <v>0.12321005419676483</v>
-      </c>
-      <c r="M29">
+        <v>0.13542396470399076</v>
+      </c>
+      <c r="M29" s="2">
         <f t="shared" si="15"/>
-        <v>0.10907784428817426</v>
-      </c>
-      <c r="N29">
+        <v>0.11887973230651214</v>
+      </c>
+      <c r="N29" s="2">
         <f t="shared" si="16"/>
-        <v>9.9635797790289055E-2</v>
+        <v>0.10793969127751302</v>
       </c>
       <c r="P29">
         <v>60</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="21"/>
-        <v>6.8254523207454953</v>
+        <v>6.3084239453975748</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="17"/>
-        <v>7.5423451088399789</v>
+        <v>7.0300019751615421</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="18"/>
-        <v>8.1131956182681826</v>
+        <v>7.6067937776514869</v>
       </c>
       <c r="U29">
         <v>60</v>
       </c>
-      <c r="V29" s="4" cm="1">
+      <c r="V29" s="6" cm="1">
         <f t="array" ref="V29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G29</f>
-        <v>9968.8576730926579</v>
-      </c>
-      <c r="W29" s="4" cm="1">
+        <v>11492.38473783747</v>
+      </c>
+      <c r="W29" s="6" cm="1">
         <f t="array" ref="W29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H29</f>
-        <v>10029.613752706267</v>
-      </c>
-      <c r="X29" s="4" cm="1">
+        <v>11523.974159771169</v>
+      </c>
+      <c r="X29" s="6" cm="1">
         <f t="array" ref="X29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I29</f>
-        <v>9995.7684163351878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+        <v>11468.91061511618</v>
+      </c>
+      <c r="Z29">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="6" cm="1">
+        <f t="array" ref="AA29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G29</f>
+        <v>34161.332066866438</v>
+      </c>
+      <c r="AB29" s="6" cm="1">
+        <f t="array" ref="AB29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H29</f>
+        <v>35845.66834308346</v>
+      </c>
+      <c r="AC29" s="6" cm="1">
+        <f t="array" ref="AC29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I29</f>
+        <v>37166.031115221675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>70</v>
       </c>
       <c r="B30">
-        <v>1234.1982817021101</v>
+        <v>1167.3791554115301</v>
       </c>
       <c r="C30">
-        <v>1182.5675887049399</v>
+        <v>1117.0363910849201</v>
       </c>
       <c r="D30">
-        <v>1139.9017256526699</v>
+        <v>1075.3121226656201</v>
       </c>
       <c r="F30">
         <v>70</v>
@@ -2898,55 +3280,70 @@
       <c r="K30">
         <v>70</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <f t="shared" si="20"/>
-        <v>0.1175558737588685</v>
-      </c>
-      <c r="M30">
+        <v>0.12992978603490185</v>
+      </c>
+      <c r="M30" s="2">
         <f t="shared" si="15"/>
-        <v>0.10400491080228183</v>
-      </c>
-      <c r="N30">
+        <v>0.11393388013864847</v>
+      </c>
+      <c r="N30" s="2">
         <f t="shared" si="16"/>
-        <v>9.4934671138975274E-2</v>
+        <v>0.10334477569458071</v>
       </c>
       <c r="P30">
         <v>70</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="21"/>
-        <v>7.0950401553420761</v>
+        <v>6.5308471238240182</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="17"/>
-        <v>7.8384943480198954</v>
+        <v>7.2793817604635978</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="18"/>
-        <v>8.4315526297129058</v>
+        <v>7.8787799157066365</v>
       </c>
       <c r="U30">
         <v>70</v>
       </c>
-      <c r="V30" s="4" cm="1">
+      <c r="V30" s="6" cm="1">
         <f t="array" ref="V30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G30</f>
-        <v>9263.5719318069823</v>
-      </c>
-      <c r="W30" s="4" cm="1">
+        <v>10807.05714386595</v>
+      </c>
+      <c r="W30" s="6" cm="1">
         <f t="array" ref="W30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H30</f>
-        <v>9256.2126554065562</v>
-      </c>
-      <c r="X30" s="4" cm="1">
+        <v>10769.947420736371</v>
+      </c>
+      <c r="X30" s="6" cm="1">
         <f t="array" ref="X30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I30</f>
-        <v>9161.7707184456958</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+        <v>10653.755163583908</v>
+      </c>
+      <c r="Z30">
+        <v>70</v>
+      </c>
+      <c r="AA30" s="6" cm="1">
+        <f t="array" ref="AA30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G30</f>
+        <v>32556.320522287759</v>
+      </c>
+      <c r="AB30" s="6" cm="1">
+        <f t="array" ref="AB30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H30</f>
+        <v>34079.76597505161</v>
+      </c>
+      <c r="AC30" s="6" cm="1">
+        <f t="array" ref="AC30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I30</f>
+        <v>35256.967593127571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2973,7 +3370,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3">
         <v>1869</v>
@@ -2981,27 +3378,24 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <f>50*7</f>
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:D10 B13:D26 B11">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I10">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3013,7 +3407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I21 G23:I30">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3025,7 +3419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:N10">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3037,7 +3431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:N21 L23:N30">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3049,7 +3443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S10">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3061,7 +3455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:S21 Q23:S30">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3073,7 +3467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23:X30 V13:X20 V3:X10">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3084,6 +3478,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AC10 AA13:AC20 AA23:AC30">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D10 B13:D20 B23:D30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/250812_all_costs.xlsx
+++ b/output/250812_all_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ischillebeeckx/Development/solar/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F156844A-BC97-7649-8DE2-482D7D0F2970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F755B-6EC1-4944-B69B-04B7C8B85D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="3360" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
+    <workbookView xWindow="5780" yWindow="3380" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="250812_all_costs" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -588,14 +589,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -976,11 +979,13 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.1640625" customWidth="1"/>
     <col min="23" max="24" width="20" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -1072,712 +1077,712 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>348.50498370051798</v>
-      </c>
-      <c r="C3">
-        <v>231.30272913532801</v>
-      </c>
-      <c r="D3">
-        <v>152.744071364826</v>
+      <c r="B3" s="1">
+        <v>206.432433</v>
+      </c>
+      <c r="C3" s="1">
+        <v>122.29416399999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>49.727231000000003</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <f>$B$1*$B$32+$B$34*G$2</f>
-        <v>25000</v>
-      </c>
-      <c r="H3">
+        <v>23722</v>
+      </c>
+      <c r="H3" s="7">
         <f t="shared" ref="H3:I3" si="0">$B$1*$B$32+$B$34*H$2</f>
-        <v>26200</v>
-      </c>
-      <c r="I3">
+        <v>25538</v>
+      </c>
+      <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="6">
         <f>($B$35-B3)/G3</f>
-        <v>6.0819800651979276E-2</v>
-      </c>
-      <c r="M3" s="2">
+        <v>7.0085472009105476E-2</v>
+      </c>
+      <c r="M3" s="6">
         <f t="shared" ref="M3:N10" si="1">($B$35-C3)/H3</f>
-        <v>6.250752942231573E-2</v>
-      </c>
-      <c r="N3" s="2">
+        <v>6.8396344114652674E-2</v>
+      </c>
+      <c r="N3" s="6">
         <f t="shared" si="1"/>
-        <v>6.2912607354661809E-2</v>
+        <v>6.6952965840337983E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" s="4">
         <f>LN(1+(G3*$B$36/($B$35-B3)))/LN(1+$B$36)</f>
-        <v>11.828569739955233</v>
+        <v>10.654313527892731</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:S10" si="2">LN(1+(H3*$B$36/($B$35-C3)))/LN(1+$B$36)</f>
-        <v>11.595088333446929</v>
+        <v>10.850116863467074</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="2"/>
-        <v>11.540464152725319</v>
+        <v>11.023418149500952</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" s="6" cm="1">
+      <c r="V3" s="5" cm="1">
         <f t="array" ref="V3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G3</f>
-        <v>10122.60190984363</v>
-      </c>
-      <c r="W3" s="6" cm="1">
+        <v>14682.399999991096</v>
+      </c>
+      <c r="W3" s="5" cm="1">
         <f t="array" ref="W3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H3</f>
-        <v>11629.909783859388</v>
-      </c>
-      <c r="X3" s="6" cm="1">
+        <v>14809.947920761311</v>
+      </c>
+      <c r="X3" s="5" cm="1">
         <f t="array" ref="X3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I3</f>
-        <v>12364.57174188421</v>
+        <v>14851.804319010029</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3" s="6" cm="1">
+      <c r="AA3" s="5" cm="1">
         <f t="array" ref="AA3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G3</f>
-        <v>57255.817563480494</v>
-      </c>
-      <c r="AB3" s="6" cm="1">
+        <v>66219.665715513111</v>
+      </c>
+      <c r="AB3" s="5" cm="1">
         <f t="array" ref="AB3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H3</f>
-        <v>62396.231156552094</v>
-      </c>
-      <c r="AC3" s="6" cm="1">
+        <v>68955.382117592977</v>
+      </c>
+      <c r="AC3" s="5" cm="1">
         <f t="array" ref="AC3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I3</f>
-        <v>65566.101463479557</v>
+        <v>71246.711789839144</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>284.14190411602601</v>
-      </c>
-      <c r="C4">
-        <v>165.00704467265601</v>
-      </c>
-      <c r="D4">
-        <v>81.205408724010297</v>
+      <c r="B4" s="1">
+        <v>153.46873099999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>59.969808499999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-12.201634</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:I10" si="3">$B$1*$B$32+$B$34*G$2</f>
-        <v>25000</v>
-      </c>
-      <c r="H4">
+        <v>23722</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="3"/>
-        <v>26200</v>
-      </c>
-      <c r="I4">
+        <v>25538</v>
+      </c>
+      <c r="I4" s="7">
         <f t="shared" si="3"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="6">
         <f t="shared" ref="L4:L10" si="4">($B$35-B4)/G4</f>
-        <v>6.3394323835358951E-2</v>
-      </c>
-      <c r="M4" s="2">
+        <v>7.2318154835174106E-2</v>
+      </c>
+      <c r="M4" s="6">
         <f t="shared" si="1"/>
-        <v>6.5037899058295573E-2</v>
-      </c>
-      <c r="N4" s="2">
+        <v>7.0836799729814395E-2</v>
+      </c>
+      <c r="N4" s="6">
         <f t="shared" si="1"/>
-        <v>6.5534992348826607E-2</v>
+        <v>6.9232074973134494E-2</v>
       </c>
       <c r="P4">
         <v>10</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" ref="Q4:Q10" si="5">LN(1+(G4*$B$36/($B$35-B4)))/LN(1+$B$36)</f>
-        <v>11.476195421693886</v>
+        <v>10.406404648904884</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="2"/>
-        <v>11.262385412408321</v>
+        <v>10.569540952598446</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="2"/>
-        <v>11.199332909607907</v>
+        <v>10.752319673295499</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
-      <c r="V4" s="6" cm="1">
+      <c r="V4" s="5" cm="1">
         <f t="array" ref="V4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G4</f>
-        <v>11609.353788478154</v>
-      </c>
-      <c r="W4" s="6" cm="1">
+        <v>15905.832501299068</v>
+      </c>
+      <c r="W4" s="5" cm="1">
         <f t="array" ref="W4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H4</f>
-        <v>13161.303776448716</v>
-      </c>
-      <c r="X4" s="6" cm="1">
+        <v>16249.606389910092</v>
+      </c>
+      <c r="X4" s="5" cm="1">
         <f t="array" ref="X4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I4</f>
-        <v>14017.075658148984</v>
+        <v>16282.327174268787</v>
       </c>
       <c r="Z4">
         <v>10</v>
       </c>
-      <c r="AA4" s="6" cm="1">
+      <c r="AA4" s="5" cm="1">
         <f t="array" ref="AA4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G4</f>
-        <v>60737.734751877884</v>
-      </c>
-      <c r="AB4" s="6" cm="1">
+        <v>69084.898789279687</v>
+      </c>
+      <c r="AB4" s="5" cm="1">
         <f t="array" ref="AB4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H4</f>
-        <v>65982.698503008374</v>
-      </c>
-      <c r="AC4" s="6" cm="1">
+        <v>72327.008305652605</v>
+      </c>
+      <c r="AC4" s="5" cm="1">
         <f t="array" ref="AC4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I4</f>
-        <v>69436.203712969116</v>
+        <v>74596.942712496792</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>240.69839149606</v>
-      </c>
-      <c r="C5">
-        <v>117.70516472256099</v>
-      </c>
-      <c r="D5">
-        <v>39.352896438821404</v>
+      <c r="B5" s="1">
+        <v>113.480777</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21.446580399999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-40.694122999999998</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-      <c r="H5">
+        <v>23722</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="3"/>
-        <v>26200</v>
-      </c>
-      <c r="I5">
+        <v>25538</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="3"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="6">
         <f t="shared" si="4"/>
-        <v>6.51320643401576E-2</v>
-      </c>
-      <c r="M5" s="2">
+        <v>7.4003845502065596E-2</v>
+      </c>
+      <c r="M5" s="6">
         <f t="shared" si="1"/>
-        <v>6.6843314323566369E-2</v>
-      </c>
-      <c r="N5" s="2">
+        <v>7.2345266645782752E-2</v>
+      </c>
+      <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>6.7069175350483082E-2</v>
+        <v>7.0280656953379164E-2</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="5"/>
-        <v>11.250384938900833</v>
+        <v>10.226956859008041</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="2"/>
-        <v>11.03681765914342</v>
+        <v>10.403467218156322</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="2"/>
-        <v>11.009253884163872</v>
+        <v>10.632156252115085</v>
       </c>
       <c r="U5">
         <v>20</v>
       </c>
-      <c r="V5" s="6" cm="1">
+      <c r="V5" s="5" cm="1">
         <f t="array" ref="V5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G5</f>
-        <v>12612.87513051444</v>
-      </c>
-      <c r="W5" s="6" cm="1">
+        <v>16829.532332258925</v>
+      </c>
+      <c r="W5" s="5" cm="1">
         <f t="array" ref="W5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H5</f>
-        <v>14253.951290097117</v>
-      </c>
-      <c r="X5" s="6" cm="1">
+        <v>17139.471854994852</v>
+      </c>
+      <c r="X5" s="5" cm="1">
         <f t="array" ref="X5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I5</f>
-        <v>14983.845764043232</v>
+        <v>16940.488061243042</v>
       </c>
       <c r="Z5">
         <v>20</v>
       </c>
-      <c r="AA5" s="6" cm="1">
+      <c r="AA5" s="5" cm="1">
         <f t="array" ref="AA5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G5</f>
-        <v>63087.944131111319</v>
-      </c>
-      <c r="AB5" s="6" cm="1">
+        <v>71248.169180632933</v>
+      </c>
+      <c r="AB5" s="5" cm="1">
         <f t="array" ref="AB5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H5</f>
-        <v>68541.638036433549</v>
-      </c>
-      <c r="AC5" s="6" cm="1">
+        <v>74411.039879963137</v>
+      </c>
+      <c r="AC5" s="5" cm="1">
         <f t="array" ref="AC5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I5</f>
-        <v>71700.343074295219</v>
+        <v>76138.330847275065</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6">
-        <v>216.430172350898</v>
-      </c>
-      <c r="C6">
-        <v>95.186186205874094</v>
-      </c>
-      <c r="D6">
-        <v>22.506067658953899</v>
+      <c r="B6" s="1">
+        <v>88.322656699999996</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.9276398800000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-46.978507</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-      <c r="H6">
+        <v>23722</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="3"/>
-        <v>26200</v>
-      </c>
-      <c r="I6">
+        <v>25538</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="3"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K6">
         <v>30</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="6">
         <f t="shared" si="4"/>
-        <v>6.6102793105964078E-2</v>
-      </c>
-      <c r="M6" s="2">
+        <v>7.5064385098221068E-2</v>
+      </c>
+      <c r="M6" s="6">
         <f t="shared" si="1"/>
-        <v>6.7702817320386494E-2</v>
-      </c>
-      <c r="N6" s="2">
+        <v>7.2992104319837103E-2</v>
+      </c>
+      <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>6.7686727725111653E-2</v>
+        <v>7.0511935162149819E-2</v>
       </c>
       <c r="P6">
         <v>30</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="5"/>
-        <v>11.128198885807679</v>
+        <v>10.117283613021128</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="2"/>
-        <v>10.932678605758907</v>
+        <v>10.33388820420411</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="2"/>
-        <v>10.934609412194733</v>
+        <v>10.606024337925726</v>
       </c>
       <c r="U6">
         <v>30</v>
       </c>
-      <c r="V6" s="6" cm="1">
+      <c r="V6" s="5" cm="1">
         <f t="array" ref="V6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G6</f>
-        <v>13173.457698006721</v>
-      </c>
-      <c r="W6" s="6" cm="1">
+        <v>17410.671128916983</v>
+      </c>
+      <c r="W6" s="5" cm="1">
         <f t="array" ref="W6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H6</f>
-        <v>14774.127357351084</v>
-      </c>
-      <c r="X6" s="6" cm="1">
+        <v>17521.050331502054</v>
+      </c>
+      <c r="X6" s="5" cm="1">
         <f t="array" ref="X6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I6</f>
-        <v>15372.998279727668</v>
+        <v>17085.653888894209</v>
       </c>
       <c r="Z6">
         <v>30</v>
       </c>
-      <c r="AA6" s="6" cm="1">
+      <c r="AA6" s="5" cm="1">
         <f t="array" ref="AA6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G6</f>
-        <v>64400.807498104317</v>
-      </c>
-      <c r="AB6" s="6" cm="1">
+        <v>72609.174466051976</v>
+      </c>
+      <c r="AB6" s="5" cm="1">
         <f t="array" ref="AB6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H6</f>
-        <v>69759.870893975327</v>
-      </c>
-      <c r="AC6" s="6" cm="1">
+        <v>75304.68237348611</v>
+      </c>
+      <c r="AC6" s="5" cm="1">
         <f t="array" ref="AC6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I6</f>
-        <v>72611.723683757882</v>
+        <v>76478.303775999899</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
-      <c r="B7">
-        <v>212.32790632726099</v>
-      </c>
-      <c r="C7">
-        <v>90.071446030303505</v>
-      </c>
-      <c r="D7">
-        <v>25.748762016457299</v>
+      <c r="B7" s="1">
+        <v>80.195430400000006</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.2776308800000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-41.859730999999996</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-      <c r="H7">
+        <v>23722</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="3"/>
-        <v>26200</v>
-      </c>
-      <c r="I7">
+        <v>25538</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="3"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K7">
         <v>40</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="6">
         <f t="shared" si="4"/>
-        <v>6.6266883746909561E-2</v>
-      </c>
-      <c r="M7" s="2">
+        <v>7.5406988011128911E-2</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" si="1"/>
-        <v>6.7898036411057114E-2</v>
-      </c>
-      <c r="N7" s="2">
+        <v>7.2939242271125374E-2</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>6.7567860629895268E-2</v>
+        <v>7.0323553716270915E-2</v>
       </c>
       <c r="P7">
         <v>40</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="5"/>
-        <v>11.107815261271979</v>
+        <v>10.082368936338812</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>10.909307614576283</v>
+        <v>10.3395385092795</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>10.948895718544703</v>
+        <v>10.627299364420749</v>
       </c>
       <c r="U7">
         <v>40</v>
       </c>
-      <c r="V7" s="6" cm="1">
+      <c r="V7" s="5" cm="1">
         <f t="array" ref="V7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G7</f>
-        <v>13268.217795824821</v>
-      </c>
-      <c r="W7" s="6" cm="1">
+        <v>17598.405604141262</v>
+      </c>
+      <c r="W7" s="5" cm="1">
         <f t="array" ref="W7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H7</f>
-        <v>14892.275053419202</v>
-      </c>
-      <c r="X7" s="6" cm="1">
+        <v>17489.866278962203</v>
+      </c>
+      <c r="X7" s="5" cm="1">
         <f t="array" ref="X7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I7</f>
-        <v>15298.093816501554</v>
+        <v>16967.412967492688</v>
       </c>
       <c r="Z7">
         <v>40</v>
       </c>
-      <c r="AA7" s="6" cm="1">
+      <c r="AA7" s="5" cm="1">
         <f t="array" ref="AA7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G7</f>
-        <v>64622.732096356776</v>
-      </c>
-      <c r="AB7" s="6" cm="1">
+        <v>73048.84157226645</v>
+      </c>
+      <c r="AB7" s="5" cm="1">
         <f t="array" ref="AB7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H7</f>
-        <v>70036.568370952431</v>
-      </c>
-      <c r="AC7" s="6" cm="1">
+        <v>75231.650490962347</v>
+      </c>
+      <c r="AC7" s="5" cm="1">
         <f t="array" ref="AC7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I7</f>
-        <v>72436.300237692209</v>
+        <v>76201.387968785333</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
-      <c r="B8">
-        <v>227.67570194637699</v>
-      </c>
-      <c r="C8">
-        <v>105.20930495038</v>
-      </c>
-      <c r="D8">
-        <v>40.666234150020301</v>
+      <c r="B8" s="1">
+        <v>85.289489900000007</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16.259692399999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-29.748246999999999</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-      <c r="H8">
+        <v>23722</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="3"/>
-        <v>26200</v>
-      </c>
-      <c r="I8">
+        <v>25538</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="3"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="6">
         <f t="shared" si="4"/>
-        <v>6.565297192214492E-2</v>
-      </c>
-      <c r="M8" s="2">
+        <v>7.5192248128319705E-2</v>
+      </c>
+      <c r="M8" s="6">
         <f t="shared" si="1"/>
-        <v>6.732025553624503E-2</v>
-      </c>
-      <c r="N8" s="2">
+        <v>7.2548371352494326E-2</v>
+      </c>
+      <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>6.7021032472506584E-2</v>
+        <v>6.9877826286967648E-2</v>
       </c>
       <c r="P8">
         <v>50</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="5"/>
-        <v>11.184475147099118</v>
+        <v>10.104224054365075</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="2"/>
-        <v>10.978778828001003</v>
+        <v>10.38151600347854</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="2"/>
-        <v>11.015117243049076</v>
+        <v>10.677990105102017</v>
       </c>
       <c r="U8">
         <v>50</v>
       </c>
-      <c r="V8" s="6" cm="1">
+      <c r="V8" s="5" cm="1">
         <f t="array" ref="V8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G8</f>
-        <v>12913.692124944435</v>
-      </c>
-      <c r="W8" s="6" cm="1">
+        <v>17480.735620349406</v>
+      </c>
+      <c r="W8" s="5" cm="1">
         <f t="array" ref="W8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H8</f>
-        <v>14542.598805277856</v>
-      </c>
-      <c r="X8" s="6" cm="1">
+        <v>17259.286126282852</v>
+      </c>
+      <c r="X8" s="5" cm="1">
         <f t="array" ref="X8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I8</f>
-        <v>14953.508382395063</v>
+        <v>16687.644322078289</v>
       </c>
       <c r="Z8">
         <v>50</v>
       </c>
-      <c r="AA8" s="6" cm="1">
+      <c r="AA8" s="5" cm="1">
         <f t="array" ref="AA8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G8</f>
-        <v>63792.446259892735</v>
-      </c>
-      <c r="AB8" s="6" cm="1">
+        <v>72773.262879539601</v>
+      </c>
+      <c r="AB8" s="5" cm="1">
         <f t="array" ref="AB8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H8</f>
-        <v>69217.639700826301</v>
-      </c>
-      <c r="AC8" s="6" cm="1">
+        <v>74691.640413655507</v>
+      </c>
+      <c r="AC8" s="5" cm="1">
         <f t="array" ref="AC8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I8</f>
-        <v>71629.294063273439</v>
+        <v>75546.18028467751</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
-      <c r="B9">
-        <v>264.44575797169398</v>
-      </c>
-      <c r="C9">
-        <v>133.46562806209101</v>
-      </c>
-      <c r="D9">
-        <v>67.899706915627405</v>
+      <c r="B9" s="1">
+        <v>103.284909</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32.507283600000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-10.177547000000001</v>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-      <c r="H9">
+        <v>23722</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="3"/>
-        <v>26200</v>
-      </c>
-      <c r="I9">
+        <v>25538</v>
+      </c>
+      <c r="I9" s="7">
         <f t="shared" si="3"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K9">
         <v>60</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="6">
         <f t="shared" si="4"/>
-        <v>6.4182169681132231E-2</v>
-      </c>
-      <c r="M9" s="2">
+        <v>7.4433651926481742E-2</v>
+      </c>
+      <c r="M9" s="6">
         <f t="shared" si="1"/>
-        <v>6.6241769921294227E-2</v>
-      </c>
-      <c r="N9" s="2">
+        <v>7.1912158994439659E-2</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>6.6022738016289315E-2</v>
+        <v>6.9157584423900714E-2</v>
       </c>
       <c r="P9">
         <v>60</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="5"/>
-        <v>11.372666638892303</v>
+        <v>10.18221607041432</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="2"/>
-        <v>11.110929940626836</v>
+        <v>10.4505974674559</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="2"/>
-        <v>11.138171561801459</v>
+        <v>10.760962673877161</v>
       </c>
       <c r="U9">
         <v>60</v>
       </c>
-      <c r="V9" s="6" cm="1">
+      <c r="V9" s="5" cm="1">
         <f t="array" ref="V9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G9</f>
-        <v>12064.323974351631</v>
-      </c>
-      <c r="W9" s="6" cm="1">
+        <v>17065.051297497528</v>
+      </c>
+      <c r="W9" s="5" cm="1">
         <f t="array" ref="W9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H9</f>
-        <v>13889.893220945261</v>
-      </c>
-      <c r="X9" s="6" cm="1">
+        <v>16883.975670415442</v>
+      </c>
+      <c r="X9" s="5" cm="1">
         <f t="array" ref="X9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I9</f>
-        <v>14324.430080713486</v>
+        <v>16235.571873416229</v>
       </c>
       <c r="Z9">
         <v>60</v>
       </c>
-      <c r="AA9" s="6" cm="1">
+      <c r="AA9" s="5" cm="1">
         <f t="array" ref="AA9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G9</f>
-        <v>61803.257878612494</v>
-      </c>
-      <c r="AB9" s="6" cm="1">
+        <v>71799.745771887043</v>
+      </c>
+      <c r="AB9" s="5" cm="1">
         <f t="array" ref="AB9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H9</f>
-        <v>67689.027680414496</v>
-      </c>
-      <c r="AC9" s="6" cm="1">
+        <v>73812.677389596531</v>
+      </c>
+      <c r="AC9" s="5" cm="1">
         <f t="array" ref="AC9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I9</f>
-        <v>70156.016253471942</v>
+        <v>74487.443549908436</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
-      <c r="B10">
-        <v>330.23111627159801</v>
-      </c>
-      <c r="C10">
-        <v>186.560287706151</v>
-      </c>
-      <c r="D10">
-        <v>110.197744440671</v>
+      <c r="B10" s="1">
+        <v>137.07569599999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60.526115500000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.130844700000001</v>
       </c>
       <c r="F10">
         <v>70</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <f t="shared" si="3"/>
-        <v>25000</v>
-      </c>
-      <c r="H10">
+        <v>23722</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="3"/>
-        <v>26200</v>
-      </c>
-      <c r="I10">
+        <v>25538</v>
+      </c>
+      <c r="I10" s="7">
         <f t="shared" si="3"/>
-        <v>27280</v>
+        <v>27172.400000000001</v>
       </c>
       <c r="K10">
         <v>70</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="6">
         <f t="shared" si="4"/>
-        <v>6.155075534913608E-2</v>
-      </c>
-      <c r="M10" s="2">
+        <v>7.3009202596745648E-2</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="1"/>
-        <v>6.4215256194421713E-2</v>
-      </c>
-      <c r="N10" s="2">
+        <v>7.0815016230715011E-2</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>6.4472223444256932E-2</v>
+        <v>6.8262985798089232E-2</v>
       </c>
       <c r="P10">
         <v>70</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="5"/>
-        <v>11.726261920498374</v>
+        <v>10.332061967930757</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="2"/>
-        <v>11.368361115317519</v>
+        <v>10.571979221347535</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="2"/>
-        <v>11.335036676572404</v>
+        <v>10.865892573391662</v>
       </c>
       <c r="U10">
         <v>70</v>
       </c>
-      <c r="V10" s="6" cm="1">
+      <c r="V10" s="5" cm="1">
         <f t="array" ref="V10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G10</f>
-        <v>10544.718236552326</v>
-      </c>
-      <c r="W10" s="6" cm="1">
+        <v>16284.50262926858</v>
+      </c>
+      <c r="W10" s="5" cm="1">
         <f t="array" ref="W10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H10</f>
-        <v>12663.435669801504</v>
-      </c>
-      <c r="X10" s="6" cm="1">
+        <v>16236.756002969516</v>
+      </c>
+      <c r="X10" s="5" cm="1">
         <f t="array" ref="X10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I10</f>
-        <v>13347.36858584889</v>
+        <v>15674.061341914778</v>
       </c>
       <c r="Z10">
         <v>70</v>
       </c>
-      <c r="AA10" s="6" cm="1">
+      <c r="AA10" s="5" cm="1">
         <f t="array" ref="AA10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G10</f>
-        <v>58244.39818314655</v>
-      </c>
-      <c r="AB10" s="6" cm="1">
+        <v>69971.73003950862</v>
+      </c>
+      <c r="AB10" s="5" cm="1">
         <f t="array" ref="AB10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H10</f>
-        <v>64816.710053286763</v>
-      </c>
-      <c r="AC10" s="6" cm="1">
+        <v>72296.913180965726</v>
+      </c>
+      <c r="AC10" s="5" cm="1">
         <f t="array" ref="AC10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I10</f>
-        <v>67867.774844814849</v>
+        <v>73172.406925978488</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -1850,88 +1855,88 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>402.39581604809899</v>
+        <v>241.89738568160499</v>
       </c>
       <c r="C13">
-        <v>290.29298109553798</v>
+        <v>156.54610689144201</v>
       </c>
       <c r="D13">
-        <v>214.88456485730799</v>
+        <v>93.391055442071007</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <f>$B$11*$B$32+$B$34*G$12</f>
-        <v>15200</v>
-      </c>
-      <c r="H13">
+        <v>15947</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" ref="H13:I13" si="6">$B$11*$B$32+$B$34*H$12</f>
-        <v>16400</v>
-      </c>
-      <c r="I13">
+        <v>17763</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="6"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="6">
         <f>($B$35-B13)/G13</f>
-        <v>9.6487117365256642E-2</v>
-      </c>
-      <c r="M13" s="2">
+        <v>0.10203189404392017</v>
+      </c>
+      <c r="M13" s="6">
         <f t="shared" ref="M13:M20" si="7">($B$35-C13)/H13</f>
-        <v>9.626262310393062E-2</v>
-      </c>
-      <c r="N13" s="2">
+        <v>9.6405668699462821E-2</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" ref="N13:N20" si="8">($B$35-D13)/I13</f>
-        <v>9.4629029470405718E-2</v>
+        <v>9.1538502302263638E-2</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <f>LN(1+(G13*$B$36/($B$35-B13)))/LN(1+$B$36)</f>
-        <v>8.3236428524917407</v>
+        <v>7.9601650868476694</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13:R20" si="9">LN(1+(H13*$B$36/($B$35-C13)))/LN(1+$B$36)</f>
-        <v>8.3390729437913578</v>
+        <v>8.329234307445299</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ref="S13:S20" si="10">LN(1+(I13*$B$36/($B$35-D13)))/LN(1+$B$36)</f>
-        <v>8.4531345702715015</v>
+        <v>8.6778653056310002</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13" s="6" cm="1">
+      <c r="V13" s="5" cm="1">
         <f t="array" ref="V13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G13</f>
-        <v>18677.753205412628</v>
-      </c>
-      <c r="W13" s="6" cm="1">
+        <v>21638.179021668519</v>
+      </c>
+      <c r="W13" s="5" cm="1">
         <f t="array" ref="W13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H13</f>
-        <v>20067.267279971224</v>
-      </c>
-      <c r="X13" s="6" cm="1">
+        <v>21793.74680407322</v>
+      </c>
+      <c r="X13" s="5" cm="1">
         <f t="array" ref="X13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I13</f>
-        <v>20729.160384384704</v>
+        <v>21618.193894575663</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13" s="6" cm="1">
+      <c r="AA13" s="5" cm="1">
         <f t="array" ref="AA13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G13</f>
-        <v>64140.428544504859</v>
-      </c>
-      <c r="AB13" s="6" cm="1">
+        <v>72076.080882018985</v>
+      </c>
+      <c r="AB13" s="5" cm="1">
         <f t="array" ref="AB13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H13</f>
-        <v>69004.973473201011</v>
-      </c>
-      <c r="AC13" s="6" cm="1">
+        <v>74877.418750090379</v>
+      </c>
+      <c r="AC13" s="5" cm="1">
         <f t="array" ref="AC13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I13</f>
-        <v>72004.421851755338</v>
+        <v>76659.583970326843</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -1939,88 +1944,88 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>344.47030026312399</v>
+        <v>192.85892812091399</v>
       </c>
       <c r="C14">
-        <v>240.18294573265101</v>
+        <v>115.109022116007</v>
       </c>
       <c r="D14">
-        <v>175.052667632083</v>
+        <v>60.706040317261802</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <f t="shared" ref="G14:I20" si="11">$B$11*$B$32+$B$34*G$12</f>
-        <v>15200</v>
-      </c>
-      <c r="H14">
+        <v>15947</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="11"/>
-        <v>16400</v>
-      </c>
-      <c r="I14">
+        <v>17763</v>
+      </c>
+      <c r="I14" s="7">
         <f t="shared" si="11"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="6">
         <f t="shared" ref="L14:L20" si="12">($B$35-B14)/G14</f>
-        <v>0.10029800656163658</v>
-      </c>
-      <c r="M14" s="2">
+        <v>0.10510698387653389</v>
+      </c>
+      <c r="M14" s="6">
         <f t="shared" si="7"/>
-        <v>9.9318113065082259E-2</v>
-      </c>
-      <c r="N14" s="2">
+        <v>9.8738443837414452E-2</v>
+      </c>
+      <c r="N14" s="6">
         <f t="shared" si="8"/>
-        <v>9.6907742126311036E-2</v>
+        <v>9.3223522723805158E-2</v>
       </c>
       <c r="P14">
         <v>10</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ref="Q14:Q20" si="13">LN(1+(G14*$B$36/($B$35-B14)))/LN(1+$B$36)</f>
-        <v>8.0703069420209861</v>
+        <v>7.7721641967317083</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="9"/>
-        <v>8.1339359605549717</v>
+        <v>8.1720597581859078</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="10"/>
-        <v>8.294888255919517</v>
+        <v>8.5538479799807696</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
-      <c r="V14" s="6" cm="1">
+      <c r="V14" s="5" cm="1">
         <f t="array" ref="V14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G14</f>
-        <v>20015.800886943012</v>
-      </c>
-      <c r="W14" s="6" cm="1">
+        <v>22770.940526779341</v>
+      </c>
+      <c r="W14" s="5" cm="1">
         <f t="array" ref="W14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H14</f>
-        <v>21224.781645274612</v>
-      </c>
-      <c r="X14" s="6" cm="1">
+        <v>22750.920762074144</v>
+      </c>
+      <c r="X14" s="5" cm="1">
         <f t="array" ref="X14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I14</f>
-        <v>21649.255389339218</v>
+        <v>22373.199838258268</v>
       </c>
       <c r="Z14">
         <v>10</v>
       </c>
-      <c r="AA14" s="6" cm="1">
+      <c r="AA14" s="5" cm="1">
         <f t="array" ref="AA14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G14</f>
-        <v>67274.086075507861</v>
-      </c>
-      <c r="AB14" s="6" cm="1">
+        <v>74728.965880303091</v>
+      </c>
+      <c r="AB14" s="5" cm="1">
         <f t="array" ref="AB14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H14</f>
-        <v>71715.828742520331</v>
-      </c>
-      <c r="AC14" s="6" cm="1">
+        <v>77119.084292635831</v>
+      </c>
+      <c r="AC14" s="5" cm="1">
         <f t="array" ref="AC14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I14</f>
-        <v>74159.249875683599</v>
+        <v>78427.779598951194</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2028,88 +2033,88 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>313.06513116860702</v>
+        <v>166.12677657953199</v>
       </c>
       <c r="C15">
-        <v>220.165993309546</v>
+        <v>99.152232800197098</v>
       </c>
       <c r="D15">
-        <v>161.811646215439</v>
+        <v>48.205357316342699</v>
       </c>
       <c r="F15">
         <v>20</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <f t="shared" si="11"/>
-        <v>15200</v>
-      </c>
-      <c r="H15">
+        <v>15947</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="11"/>
-        <v>16400</v>
-      </c>
-      <c r="I15">
+        <v>17763</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="11"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="6">
         <f t="shared" si="12"/>
-        <v>0.10236413610732849</v>
-      </c>
-      <c r="M15" s="2">
+        <v>0.10678329613221722</v>
+      </c>
+      <c r="M15" s="6">
         <f t="shared" si="7"/>
-        <v>0.10053865894453988</v>
-      </c>
-      <c r="N15" s="2">
+        <v>9.9636759961707094E-2</v>
+      </c>
+      <c r="N15" s="6">
         <f t="shared" si="8"/>
-        <v>9.7665237630695706E-2</v>
+        <v>9.3867974196730333E-2</v>
       </c>
       <c r="P15">
         <v>20</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="13"/>
-        <v>7.9394082731689934</v>
+        <v>7.6734316318961575</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="9"/>
-        <v>8.0548349311527172</v>
+        <v>8.1131329655551809</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="10"/>
-        <v>8.2436118068994144</v>
+        <v>8.5073668241639435</v>
       </c>
       <c r="U15">
         <v>20</v>
       </c>
-      <c r="V15" s="6" cm="1">
+      <c r="V15" s="5" cm="1">
         <f t="array" ref="V15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G15</f>
-        <v>20741.243088458781</v>
-      </c>
-      <c r="W15" s="6" cm="1">
+        <v>23388.438582818118</v>
+      </c>
+      <c r="W15" s="5" cm="1">
         <f t="array" ref="W15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H15</f>
-        <v>21687.162280441735</v>
-      </c>
-      <c r="X15" s="6" cm="1">
+        <v>23119.513853725592</v>
+      </c>
+      <c r="X15" s="5" cm="1">
         <f t="array" ref="X15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I15</f>
-        <v>21955.11573028814</v>
+        <v>22661.958767380558</v>
       </c>
       <c r="Z15">
         <v>20</v>
       </c>
-      <c r="AA15" s="6" cm="1">
+      <c r="AA15" s="5" cm="1">
         <f t="array" ref="AA15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G15</f>
-        <v>68973.044527786013</v>
-      </c>
-      <c r="AB15" s="6" cm="1">
+        <v>76175.123188742538</v>
+      </c>
+      <c r="AB15" s="5" cm="1">
         <f t="array" ref="AB15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H15</f>
-        <v>72798.706863817264</v>
-      </c>
-      <c r="AC15" s="6" cm="1">
+        <v>77982.315501413192</v>
+      </c>
+      <c r="AC15" s="5" cm="1">
         <f t="array" ref="AC15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I15</f>
-        <v>74875.563333028811</v>
+        <v>79104.04219062021</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2117,88 +2122,88 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>303.21734076172498</v>
+        <v>157.71876924567499</v>
       </c>
       <c r="C16">
-        <v>220.10625080158999</v>
+        <v>95.412080648464098</v>
       </c>
       <c r="D16">
-        <v>160.05753879151899</v>
+        <v>47.443542770563901</v>
       </c>
       <c r="F16">
         <v>30</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <f t="shared" si="11"/>
-        <v>15200</v>
-      </c>
-      <c r="H16">
+        <v>15947</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="11"/>
-        <v>16400</v>
-      </c>
-      <c r="I16">
+        <v>17763</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="11"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K16">
         <v>30</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="6">
         <f t="shared" si="12"/>
-        <v>0.10301201705514967</v>
-      </c>
-      <c r="M16" s="2">
+        <v>0.10731054309615132</v>
+      </c>
+      <c r="M16" s="6">
         <f t="shared" si="7"/>
-        <v>0.10054230178039085</v>
-      </c>
-      <c r="N16" s="2">
+        <v>9.9847318547066147E-2</v>
+      </c>
+      <c r="N16" s="6">
         <f t="shared" si="8"/>
-        <v>9.7765587025656811E-2</v>
+        <v>9.3907248251282952E-2</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="13"/>
-        <v>7.8992469904828431</v>
+        <v>7.6429022267578537</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="9"/>
-        <v>8.054601189993015</v>
+        <v>8.0994458943817822</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="10"/>
-        <v>8.2368673419805738</v>
+        <v>8.5045508244226244</v>
       </c>
       <c r="U16">
         <v>30</v>
       </c>
-      <c r="V16" s="6" cm="1">
+      <c r="V16" s="5" cm="1">
         <f t="array" ref="V16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G16</f>
-        <v>20968.721651982312</v>
-      </c>
-      <c r="W16" s="6" cm="1">
+        <v>23582.658946105345</v>
+      </c>
+      <c r="W16" s="5" cm="1">
         <f t="array" ref="W16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H16</f>
-        <v>21688.542299647022</v>
-      </c>
-      <c r="X16" s="6" cm="1">
+        <v>23205.909319478102</v>
+      </c>
+      <c r="X16" s="5" cm="1">
         <f t="array" ref="X16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I16</f>
-        <v>21995.634650835076</v>
+        <v>22679.556266046253</v>
       </c>
       <c r="Z16">
         <v>30</v>
       </c>
-      <c r="AA16" s="6" cm="1">
+      <c r="AA16" s="5" cm="1">
         <f t="array" ref="AA16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G16</f>
-        <v>69505.790799512266</v>
-      </c>
-      <c r="AB16" s="6" cm="1">
+        <v>76629.980001762131</v>
+      </c>
+      <c r="AB16" s="5" cm="1">
         <f t="array" ref="AB16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H16</f>
-        <v>72801.938817084185</v>
-      </c>
-      <c r="AC16" s="6" cm="1">
+        <v>78184.650444806408</v>
+      </c>
+      <c r="AC16" s="5" cm="1">
         <f t="array" ref="AC16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I16</f>
-        <v>74970.457126630237</v>
+        <v>79145.254873084166</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2206,88 +2211,88 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>312.24957418687501</v>
+        <v>161.39266757354099</v>
       </c>
       <c r="C17">
-        <v>228.45362120177001</v>
+        <v>101.25617285685701</v>
       </c>
       <c r="D17">
-        <v>170.79751470113399</v>
+        <v>55.748770128589797</v>
       </c>
       <c r="F17">
         <v>40</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <f t="shared" si="11"/>
-        <v>15200</v>
-      </c>
-      <c r="H17">
+        <v>15947</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="11"/>
-        <v>16400</v>
-      </c>
-      <c r="I17">
+        <v>17763</v>
+      </c>
+      <c r="I17" s="7">
         <f t="shared" si="11"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K17">
         <v>40</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="6">
         <f t="shared" si="12"/>
-        <v>0.10241779117191613</v>
-      </c>
-      <c r="M17" s="2">
+        <v>0.10708016131099636</v>
+      </c>
+      <c r="M17" s="6">
         <f t="shared" si="7"/>
-        <v>0.10003331578037988</v>
-      </c>
-      <c r="N17" s="2">
+        <v>9.9518314876042499E-2</v>
+      </c>
+      <c r="N17" s="6">
         <f t="shared" si="8"/>
-        <v>9.7151171927852747E-2</v>
+        <v>9.3479086365771194E-2</v>
       </c>
       <c r="P17">
         <v>40</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="13"/>
-        <v>7.9360664971300459</v>
+        <v>7.6562117070496454</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="9"/>
-        <v>8.0873944421751389</v>
+        <v>8.1208530409603146</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="10"/>
-        <v>8.2783392676610372</v>
+        <v>8.5353535699219059</v>
       </c>
       <c r="U17">
         <v>40</v>
       </c>
-      <c r="V17" s="6" cm="1">
+      <c r="V17" s="5" cm="1">
         <f t="array" ref="V17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G17</f>
-        <v>20760.08200795349</v>
-      </c>
-      <c r="W17" s="6" cm="1">
+        <v>23497.793907388601</v>
+      </c>
+      <c r="W17" s="5" cm="1">
         <f t="array" ref="W17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H17</f>
-        <v>21495.722616309242</v>
-      </c>
-      <c r="X17" s="6" cm="1">
+        <v>23070.913991009766</v>
+      </c>
+      <c r="X17" s="5" cm="1">
         <f t="array" ref="X17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I17</f>
-        <v>21747.547090960805</v>
+        <v>22487.710063895182</v>
       </c>
       <c r="Z17">
         <v>40</v>
       </c>
-      <c r="AA17" s="6" cm="1">
+      <c r="AA17" s="5" cm="1">
         <f t="array" ref="AA17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G17</f>
-        <v>69017.164571313187</v>
-      </c>
-      <c r="AB17" s="6" cm="1">
+        <v>76431.229261138724</v>
+      </c>
+      <c r="AB17" s="5" cm="1">
         <f t="array" ref="AB17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H17</f>
-        <v>72350.362344020105</v>
-      </c>
-      <c r="AC17" s="6" cm="1">
+        <v>77868.496444060191</v>
+      </c>
+      <c r="AC17" s="5" cm="1">
         <f t="array" ref="AC17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I17</f>
-        <v>74389.445357708057</v>
+        <v>78695.958256481244</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2295,88 +2300,88 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>335.44302617197502</v>
+        <v>174.380955713779</v>
       </c>
       <c r="C18">
-        <v>248.55994698239701</v>
+        <v>114.727402038639</v>
       </c>
       <c r="D18">
-        <v>190.785787914954</v>
+        <v>69.708048419353403</v>
       </c>
       <c r="F18">
         <v>50</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <f t="shared" si="11"/>
-        <v>15200</v>
-      </c>
-      <c r="H18">
+        <v>15947</v>
+      </c>
+      <c r="H18" s="7">
         <f t="shared" si="11"/>
-        <v>16400</v>
-      </c>
-      <c r="I18">
+        <v>17763</v>
+      </c>
+      <c r="I18" s="7">
         <f t="shared" si="11"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K18">
         <v>50</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="6">
         <f t="shared" si="12"/>
-        <v>0.10089190617289638</v>
-      </c>
-      <c r="M18" s="2">
+        <v>0.10626569538384781</v>
+      </c>
+      <c r="M18" s="6">
         <f t="shared" si="7"/>
-        <v>9.8807320305951407E-2</v>
-      </c>
-      <c r="N18" s="2">
+        <v>9.875992782533137E-2</v>
+      </c>
+      <c r="N18" s="6">
         <f t="shared" si="8"/>
-        <v>9.6007678036901953E-2</v>
+        <v>9.2759439490892923E-2</v>
       </c>
       <c r="P18">
         <v>50</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="13"/>
-        <v>8.0322330149786598</v>
+        <v>7.7036445265718001</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="9"/>
-        <v>8.1675108385367459</v>
+        <v>8.1706403029656265</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="10"/>
-        <v>8.3566668448076307</v>
+        <v>8.5876422211986263</v>
       </c>
       <c r="U18">
         <v>50</v>
       </c>
-      <c r="V18" s="6" cm="1">
+      <c r="V18" s="5" cm="1">
         <f t="array" ref="V18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G18</f>
-        <v>20224.325973073275</v>
-      </c>
-      <c r="W18" s="6" cm="1">
+        <v>23197.771566670795</v>
+      </c>
+      <c r="W18" s="5" cm="1">
         <f t="array" ref="W18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H18</f>
-        <v>21031.277505544407</v>
-      </c>
-      <c r="X18" s="6" cm="1">
+        <v>22759.735976799944</v>
+      </c>
+      <c r="X18" s="5" cm="1">
         <f t="array" ref="X18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I18</f>
-        <v>21285.828929816955</v>
+        <v>22165.258382633867</v>
       </c>
       <c r="Z18">
         <v>50</v>
       </c>
-      <c r="AA18" s="6" cm="1">
+      <c r="AA18" s="5" cm="1">
         <f t="array" ref="AA18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G18</f>
-        <v>67762.444013401167</v>
-      </c>
-      <c r="AB18" s="6" cm="1">
+        <v>75728.588181574072</v>
+      </c>
+      <c r="AB18" s="5" cm="1">
         <f t="array" ref="AB18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H18</f>
-        <v>71262.649298233053</v>
-      </c>
-      <c r="AC18" s="6" cm="1">
+        <v>77139.729195201129</v>
+      </c>
+      <c r="AC18" s="5" cm="1">
         <f t="array" ref="AC18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I18</f>
-        <v>73308.118725749446</v>
+        <v>77940.788501832896</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2384,88 +2389,88 @@
         <v>60</v>
       </c>
       <c r="B19">
-        <v>372.76243824518002</v>
+        <v>197.67587520085499</v>
       </c>
       <c r="C19">
-        <v>281.17963178988902</v>
+        <v>134.84448259786001</v>
       </c>
       <c r="D19">
-        <v>219.43849980248399</v>
+        <v>91.036968507975303</v>
       </c>
       <c r="F19">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <f t="shared" si="11"/>
-        <v>15200</v>
-      </c>
-      <c r="H19">
+        <v>15947</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="11"/>
-        <v>16400</v>
-      </c>
-      <c r="I19">
+        <v>17763</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" si="11"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K19">
         <v>60</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="6">
         <f t="shared" si="12"/>
-        <v>9.8436681694396053E-2</v>
-      </c>
-      <c r="M19" s="2">
+        <v>0.10480492411106447</v>
+      </c>
+      <c r="M19" s="6">
         <f t="shared" si="7"/>
-        <v>9.6818315134762856E-2</v>
-      </c>
-      <c r="N19" s="2">
+        <v>9.7627400630644595E-2</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="8"/>
-        <v>9.4368506876288102E-2</v>
+        <v>9.1659863254458046E-2</v>
       </c>
       <c r="P19">
         <v>60</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="13"/>
-        <v>8.1920504955538398</v>
+        <v>7.7902303905806214</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>8.3009846772112752</v>
+        <v>8.2461577463981293</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="10"/>
-        <v>8.4716196932484849</v>
+        <v>8.6688106418172435</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
-      <c r="V19" s="6" cm="1">
+      <c r="V19" s="5" cm="1">
         <f t="array" ref="V19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G19</f>
-        <v>19362.26799872578</v>
-      </c>
-      <c r="W19" s="6" cm="1">
+        <v>22659.671688081471</v>
+      </c>
+      <c r="W19" s="5" cm="1">
         <f t="array" ref="W19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H19</f>
-        <v>20277.780656402181</v>
-      </c>
-      <c r="X19" s="6" cm="1">
+        <v>22295.042436541342</v>
+      </c>
+      <c r="X19" s="5" cm="1">
         <f t="array" ref="X19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I19</f>
-        <v>20623.966981915015</v>
+        <v>21672.572013123281</v>
       </c>
       <c r="Z19">
         <v>60</v>
       </c>
-      <c r="AA19" s="6" cm="1">
+      <c r="AA19" s="5" cm="1">
         <f t="array" ref="AA19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G19</f>
-        <v>65743.536540398782</v>
-      </c>
-      <c r="AB19" s="6" cm="1">
+        <v>74468.378429523524</v>
+      </c>
+      <c r="AB19" s="5" cm="1">
         <f t="array" ref="AB19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H19</f>
-        <v>69497.987912473633</v>
-      </c>
-      <c r="AC19" s="6" cm="1">
+        <v>76051.43433684879</v>
+      </c>
+      <c r="AC19" s="5" cm="1">
         <f t="array" ref="AC19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I19</f>
-        <v>71758.062844964224</v>
+        <v>76786.935486315895</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2473,88 +2478,88 @@
         <v>70</v>
       </c>
       <c r="B20">
-        <v>431.06280760341298</v>
+        <v>237.051105197174</v>
       </c>
       <c r="C20">
-        <v>331.28572573624098</v>
+        <v>165.39215996985001</v>
       </c>
       <c r="D20">
-        <v>264.57486354943899</v>
+        <v>119.121138738566</v>
       </c>
       <c r="F20">
         <v>70</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <f t="shared" si="11"/>
-        <v>15200</v>
-      </c>
-      <c r="H20">
+        <v>15947</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="11"/>
-        <v>16400</v>
-      </c>
-      <c r="I20">
+        <v>17763</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="11"/>
-        <v>17480</v>
+        <v>19397.400000000001</v>
       </c>
       <c r="K20">
         <v>70</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="6">
         <f t="shared" si="12"/>
-        <v>9.4601131078722839E-2</v>
-      </c>
-      <c r="M20" s="2">
+        <v>0.10233579324028508</v>
+      </c>
+      <c r="M20" s="6">
         <f t="shared" si="7"/>
-        <v>9.3763065503887744E-2</v>
-      </c>
-      <c r="N20" s="2">
+        <v>9.5907664247601748E-2</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="8"/>
-        <v>9.1786335037217448E-2</v>
+        <v>9.0212031574408616E-2</v>
       </c>
       <c r="P20">
         <v>70</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="13"/>
-        <v>8.4551101401816062</v>
+        <v>7.9411746959495613</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="9"/>
-        <v>8.514898243982099</v>
+        <v>8.3635895306646084</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="10"/>
-        <v>8.6593951570639973</v>
+        <v>8.7781061385154722</v>
       </c>
       <c r="U20">
         <v>70</v>
       </c>
-      <c r="V20" s="6" cm="1">
+      <c r="V20" s="5" cm="1">
         <f t="array" ref="V20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G20</f>
-        <v>18015.561405007655</v>
-      </c>
-      <c r="W20" s="6" cm="1">
+        <v>21750.12544594051</v>
+      </c>
+      <c r="W20" s="5" cm="1">
         <f t="array" ref="W20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H20</f>
-        <v>19120.357335661538</v>
-      </c>
-      <c r="X20" s="6" cm="1">
+        <v>21589.407824059708</v>
+      </c>
+      <c r="X20" s="5" cm="1">
         <f t="array" ref="X20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I20</f>
-        <v>19581.341706233121</v>
+        <v>21023.843066034751</v>
       </c>
       <c r="Z20">
         <v>70</v>
       </c>
-      <c r="AA20" s="6" cm="1">
+      <c r="AA20" s="5" cm="1">
         <f t="array" ref="AA20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G20</f>
-        <v>62589.600161517694</v>
-      </c>
-      <c r="AB20" s="6" cm="1">
+        <v>72338.255212822784</v>
+      </c>
+      <c r="AB20" s="5" cm="1">
         <f t="array" ref="AB20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H20</f>
-        <v>66787.345866108706</v>
-      </c>
-      <c r="AC20" s="6" cm="1">
+        <v>74398.864515861249</v>
+      </c>
+      <c r="AC20" s="5" cm="1">
         <f t="array" ref="AC20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I20</f>
-        <v>69316.273518430084</v>
+        <v>75267.636601317645</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2631,88 +2636,88 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>1079.2965670645001</v>
+        <v>855.34143228675703</v>
       </c>
       <c r="C23">
-        <v>1018.07782436601</v>
+        <v>799.22015711341101</v>
       </c>
       <c r="D23">
-        <v>967.90829483211996</v>
+        <v>752.28138598229395</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="8">
         <f>$B$21*$B$32+$B$34*G$12</f>
-        <v>5400</v>
-      </c>
-      <c r="H23" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" ref="H23:I23" si="14">$B$21*$B$32+$B$34*H$12</f>
-        <v>6600</v>
-      </c>
-      <c r="I23" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" si="14"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="6">
         <f>($B$35-B23)/G23</f>
-        <v>0.14624137646953703</v>
-      </c>
-      <c r="M23" s="2">
+        <v>0.1240404512620219</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" ref="M23:M30" si="15">($B$35-C23)/H23</f>
-        <v>0.12892760236878636</v>
-      </c>
-      <c r="N23" s="2">
+        <v>0.10710651210318271</v>
+      </c>
+      <c r="N23" s="6">
         <f t="shared" ref="N23:N30" si="16">($B$35-D23)/I23</f>
-        <v>0.11732964911040104</v>
+        <v>9.6083305859177598E-2</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" s="4">
         <f>LN(1+(G23*$B$36/($B$35-B23)))/LN(1+$B$36)</f>
-        <v>5.9123910814362599</v>
+        <v>6.7875968445797739</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ref="R23:R30" si="17">LN(1+(H23*$B$36/($B$35-C23)))/LN(1+$B$36)</f>
-        <v>6.5731414236558479</v>
+        <v>7.6546869998042766</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ref="S23:S30" si="18">LN(1+(I23*$B$36/($B$35-D23)))/LN(1+$B$36)</f>
-        <v>7.1062763058603258</v>
+        <v>8.3514398393359706</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23" s="6" cm="1">
+      <c r="V23" s="5" cm="1">
         <f t="array" ref="V23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G23</f>
-        <v>12841.716680751942</v>
-      </c>
-      <c r="W23" s="6" cm="1">
+        <v>15242.957605676329</v>
+      </c>
+      <c r="W23" s="5" cm="1">
         <f t="array" ref="W23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H23</f>
-        <v>13055.836099869266</v>
-      </c>
-      <c r="X23" s="6" cm="1">
+        <v>14723.328317487976</v>
+      </c>
+      <c r="X23" s="5" cm="1">
         <f t="array" ref="X23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I23</f>
-        <v>13134.724747930384</v>
+        <v>14173.188216338422</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
-      <c r="AA23" s="6" cm="1">
+      <c r="AA23" s="5" cm="1">
         <f t="array" ref="AA23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G23</f>
-        <v>37321.416915188653</v>
-      </c>
-      <c r="AB23" s="6" cm="1">
+        <v>46664.95331037954</v>
+      </c>
+      <c r="AB23" s="5" cm="1">
         <f t="array" ref="AB23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H23</f>
-        <v>39433.231605070432</v>
-      </c>
-      <c r="AC23" s="6" cm="1">
+        <v>47885.004940014995</v>
+      </c>
+      <c r="AC23" s="5" cm="1">
         <f t="array" ref="AC23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I23</f>
-        <v>41067.305393111383</v>
+        <v>48789.900993882926</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2720,88 +2725,88 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>1071.3579501229201</v>
+        <v>848.08308659747399</v>
       </c>
       <c r="C24">
-        <v>1009.6558868031</v>
+        <v>791.15732352216298</v>
       </c>
       <c r="D24">
-        <v>958.57235446906702</v>
+        <v>743.68165316403599</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="8">
         <f t="shared" ref="G24:I30" si="19">$B$21*$B$32+$B$34*G$12</f>
-        <v>5400</v>
-      </c>
-      <c r="H24" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H24" s="8">
         <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="I24" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I24" s="8">
         <f t="shared" si="19"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K24">
         <v>10</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="6">
         <f t="shared" ref="L24:L30" si="20">($B$35-B24)/G24</f>
-        <v>0.14771149071797776</v>
-      </c>
-      <c r="M24" s="2">
+        <v>0.12492864823819456</v>
+      </c>
+      <c r="M24" s="6">
         <f t="shared" si="15"/>
-        <v>0.13020365351468183</v>
-      </c>
-      <c r="N24" s="2">
+        <v>0.10791376416478143</v>
+      </c>
+      <c r="N24" s="6">
         <f t="shared" si="16"/>
-        <v>0.11854526634517357</v>
+        <v>9.6823233311189055E-2</v>
       </c>
       <c r="P24">
         <v>10</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" ref="Q24:Q30" si="21">LN(1+(G24*$B$36/($B$35-B24)))/LN(1+$B$36)</f>
-        <v>5.8624104959342009</v>
+        <v>6.7475742056393422</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="17"/>
-        <v>6.5193849503105801</v>
+        <v>7.6082749538144947</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="18"/>
-        <v>7.0463191720432334</v>
+        <v>8.3006491578097066</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
-      <c r="V24" s="6" cm="1">
+      <c r="V24" s="5" cm="1">
         <f t="array" ref="V24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G24</f>
-        <v>13025.094383121825</v>
-      </c>
-      <c r="W24" s="6" cm="1">
+        <v>15410.621414788413</v>
+      </c>
+      <c r="W24" s="5" cm="1">
         <f t="array" ref="W24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H24</f>
-        <v>13250.378243816282</v>
-      </c>
-      <c r="X24" s="6" cm="1">
+        <v>14909.57535641608</v>
+      </c>
+      <c r="X24" s="5" cm="1">
         <f t="array" ref="X24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I24</f>
-        <v>13350.379855846215</v>
+        <v>14371.837333283103</v>
       </c>
       <c r="Z24">
         <v>10</v>
       </c>
-      <c r="AA24" s="6" cm="1">
+      <c r="AA24" s="5" cm="1">
         <f t="array" ref="AA24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G24</f>
-        <v>37750.880622634533</v>
-      </c>
-      <c r="AB24" s="6" cm="1">
+        <v>47057.615668644539</v>
+      </c>
+      <c r="AB24" s="5" cm="1">
         <f t="array" ref="AB24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H24</f>
-        <v>39888.842016337512</v>
-      </c>
-      <c r="AC24" s="6" cm="1">
+        <v>48321.18852616084</v>
+      </c>
+      <c r="AC24" s="5" cm="1">
         <f t="array" ref="AC24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I24</f>
-        <v>41572.361574851304</v>
+        <v>49255.129782014621</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2809,88 +2814,88 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>1071.8074857813899</v>
+        <v>848.70622853402404</v>
       </c>
       <c r="C25">
-        <v>1010.80982066353</v>
+        <v>791.99283303668096</v>
       </c>
       <c r="D25">
-        <v>959.95653000581206</v>
+        <v>744.21830838338099</v>
       </c>
       <c r="F25">
         <v>20</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="8">
         <f t="shared" si="19"/>
-        <v>5400</v>
-      </c>
-      <c r="H25" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H25" s="8">
         <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="I25" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="19"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K25">
         <v>20</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="6">
         <f t="shared" si="20"/>
-        <v>0.14762824337381669</v>
-      </c>
-      <c r="M25" s="2">
+        <v>0.12485239494199413</v>
+      </c>
+      <c r="M25" s="6">
         <f t="shared" si="15"/>
-        <v>0.1300288150509803</v>
-      </c>
-      <c r="N25" s="2">
+        <v>0.10783011283172997</v>
+      </c>
+      <c r="N25" s="6">
         <f t="shared" si="16"/>
-        <v>0.11836503515549322</v>
+        <v>9.6777059094216231E-2</v>
       </c>
       <c r="P25">
         <v>20</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="21"/>
-        <v>5.8652179251316143</v>
+        <v>6.7509914597141742</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="17"/>
-        <v>6.5266977599624667</v>
+        <v>7.6130578236340289</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="18"/>
-        <v>7.0551437716736798</v>
+        <v>8.3038002646271032</v>
       </c>
       <c r="U25">
         <v>20</v>
       </c>
-      <c r="V25" s="6" cm="1">
+      <c r="V25" s="5" cm="1">
         <f t="array" ref="V25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G25</f>
-        <v>13014.710355678486</v>
-      </c>
-      <c r="W25" s="6" cm="1">
+        <v>15396.227177427452</v>
+      </c>
+      <c r="W25" s="5" cm="1">
         <f t="array" ref="W25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H25</f>
-        <v>13223.723003795298</v>
-      </c>
-      <c r="X25" s="6" cm="1">
+        <v>14890.275544344528</v>
+      </c>
+      <c r="X25" s="5" cm="1">
         <f t="array" ref="X25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I25</f>
-        <v>13318.406159234724</v>
+        <v>14359.440891709906</v>
       </c>
       <c r="Z25">
         <v>20</v>
       </c>
-      <c r="AA25" s="6" cm="1">
+      <c r="AA25" s="5" cm="1">
         <f t="array" ref="AA25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G25</f>
-        <v>37726.561619471111</v>
-      </c>
-      <c r="AB25" s="6" cm="1">
+        <v>47023.904904124072</v>
+      </c>
+      <c r="AB25" s="5" cm="1">
         <f t="array" ref="AB25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H25</f>
-        <v>39826.416443029913</v>
-      </c>
-      <c r="AC25" s="6" cm="1">
+        <v>48275.989089489223</v>
+      </c>
+      <c r="AC25" s="5" cm="1">
         <f t="array" ref="AC25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I25</f>
-        <v>41497.480375501218</v>
+        <v>49226.097780367971</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2898,88 +2903,88 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1078.6432326015399</v>
+        <v>855.10775863383697</v>
       </c>
       <c r="C26">
-        <v>1019.1387802197499</v>
+        <v>799.58687820807097</v>
       </c>
       <c r="D26">
-        <v>969.34202963804296</v>
+        <v>752.59055372453702</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="8">
         <f t="shared" si="19"/>
-        <v>5400</v>
-      </c>
-      <c r="H26" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H26" s="8">
         <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="I26" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I26" s="8">
         <f t="shared" si="19"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K26">
         <v>30</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="6">
         <f t="shared" si="20"/>
-        <v>0.14636236433304817</v>
-      </c>
-      <c r="M26" s="2">
+        <v>0.12406904568846831</v>
+      </c>
+      <c r="M26" s="6">
         <f t="shared" si="15"/>
-        <v>0.12876685148185607</v>
-      </c>
-      <c r="N26" s="2">
+        <v>0.10706979593431407</v>
+      </c>
+      <c r="N26" s="6">
         <f t="shared" si="16"/>
-        <v>0.11714296489087982</v>
+        <v>9.6056704835099704E-2</v>
       </c>
       <c r="P26">
         <v>30</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="21"/>
-        <v>5.9082452988619485</v>
+        <v>6.7863008760791095</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="17"/>
-        <v>6.5799770934996857</v>
+        <v>7.6568116367071815</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="18"/>
-        <v>7.1155757658924932</v>
+        <v>8.3532776052349984</v>
       </c>
       <c r="U26">
         <v>30</v>
       </c>
-      <c r="V26" s="6" cm="1">
+      <c r="V26" s="5" cm="1">
         <f t="array" ref="V26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G26</f>
-        <v>12856.808348932733</v>
-      </c>
-      <c r="W26" s="6" cm="1">
+        <v>15248.355339046284</v>
+      </c>
+      <c r="W26" s="5" cm="1">
         <f t="array" ref="W26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H26</f>
-        <v>13031.328600867062</v>
-      </c>
-      <c r="X26" s="6" cm="1">
+        <v>14714.857261100668</v>
+      </c>
+      <c r="X26" s="5" cm="1">
         <f t="array" ref="X26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I26</f>
-        <v>13101.606259350738</v>
+        <v>14166.046610862726</v>
       </c>
       <c r="Z26">
         <v>30</v>
       </c>
-      <c r="AA26" s="6" cm="1">
+      <c r="AA26" s="5" cm="1">
         <f t="array" ref="AA26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G26</f>
-        <v>37356.761036555115</v>
-      </c>
-      <c r="AB26" s="6" cm="1">
+        <v>46677.594599668839</v>
+      </c>
+      <c r="AB26" s="5" cm="1">
         <f t="array" ref="AB26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H26</f>
-        <v>39375.835960748933</v>
-      </c>
-      <c r="AC26" s="6" cm="1">
+        <v>47865.166043382211</v>
+      </c>
+      <c r="AC26" s="5" cm="1">
         <f t="array" ref="AC26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I26</f>
-        <v>40989.74313386935</v>
+        <v>48773.175621468115</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2987,88 +2992,88 @@
         <v>40</v>
       </c>
       <c r="B27">
-        <v>1092.5747991635001</v>
+        <v>867.22096553860104</v>
       </c>
       <c r="C27">
-        <v>1034.84553978592</v>
+        <v>813.73079032396697</v>
       </c>
       <c r="D27">
-        <v>986.525066375336</v>
+        <v>768.28093879695302</v>
       </c>
       <c r="F27">
         <v>40</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="8">
         <f t="shared" si="19"/>
-        <v>5400</v>
-      </c>
-      <c r="H27" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H27" s="8">
         <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="I27" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I27" s="8">
         <f t="shared" si="19"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K27">
         <v>40</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="6">
         <f t="shared" si="20"/>
-        <v>0.14378244459935183</v>
-      </c>
-      <c r="M27" s="2">
+        <v>0.12258676388416531</v>
+      </c>
+      <c r="M27" s="6">
         <f t="shared" si="15"/>
-        <v>0.12638703942637575</v>
-      </c>
-      <c r="N27" s="2">
+        <v>0.10565370541410021</v>
+      </c>
+      <c r="N27" s="6">
         <f t="shared" si="16"/>
-        <v>0.11490559031571146</v>
+        <v>9.4706692352960392E-2</v>
       </c>
       <c r="P27">
         <v>40</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="21"/>
-        <v>5.9979406459358824</v>
+        <v>6.8541485374859343</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="17"/>
-        <v>6.6828845913806729</v>
+        <v>7.7396804493760492</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="18"/>
-        <v>7.2289794777291823</v>
+        <v>8.447639979047592</v>
       </c>
       <c r="U27">
         <v>40</v>
       </c>
-      <c r="V27" s="6" cm="1">
+      <c r="V27" s="5" cm="1">
         <f t="array" ref="V27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G27</f>
-        <v>12534.996793425576</v>
-      </c>
-      <c r="W27" s="6" cm="1">
+        <v>14968.546895475694</v>
+      </c>
+      <c r="W27" s="5" cm="1">
         <f t="array" ref="W27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H27</f>
-        <v>12668.511059459506</v>
-      </c>
-      <c r="X27" s="6" cm="1">
+        <v>14388.140639626006</v>
+      </c>
+      <c r="X27" s="5" cm="1">
         <f t="array" ref="X27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I27</f>
-        <v>12704.68752403323</v>
+        <v>13803.607311290514</v>
       </c>
       <c r="Z27">
         <v>40</v>
       </c>
-      <c r="AA27" s="6" cm="1">
+      <c r="AA27" s="5" cm="1">
         <f t="array" ref="AA27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G27</f>
-        <v>36603.090432436285</v>
-      </c>
-      <c r="AB27" s="6" cm="1">
+        <v>46022.293709770551</v>
+      </c>
+      <c r="AB27" s="5" cm="1">
         <f t="array" ref="AB27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H27</f>
-        <v>38526.130874222123</v>
-      </c>
-      <c r="AC27" s="6" cm="1">
+        <v>47100.007958569448</v>
+      </c>
+      <c r="AC27" s="5" cm="1">
         <f t="array" ref="AC27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I27</f>
-        <v>40060.174329040747</v>
+        <v>47924.35636314626</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3076,88 +3081,88 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>1112.6919986630701</v>
+        <v>884.72312853946801</v>
       </c>
       <c r="C28">
-        <v>1057.0230347209799</v>
+        <v>833.45672586742899</v>
       </c>
       <c r="D28">
-        <v>1010.53788541441</v>
+        <v>790.03783874614498</v>
       </c>
       <c r="F28">
         <v>50</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="8">
         <f t="shared" si="19"/>
-        <v>5400</v>
-      </c>
-      <c r="H28" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H28" s="8">
         <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="I28" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I28" s="8">
         <f t="shared" si="19"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K28">
         <v>50</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="6">
         <f t="shared" si="20"/>
-        <v>0.14005703728461666</v>
-      </c>
-      <c r="M28" s="2">
+        <v>0.12044504056051542</v>
+      </c>
+      <c r="M28" s="6">
         <f t="shared" si="15"/>
-        <v>0.12302681292106364</v>
-      </c>
-      <c r="N28" s="2">
+        <v>0.10367874190354136</v>
+      </c>
+      <c r="N28" s="6">
         <f t="shared" si="16"/>
-        <v>0.1117789211699987</v>
+        <v>9.2834712387618284E-2</v>
       </c>
       <c r="P28">
         <v>50</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="21"/>
-        <v>6.1324246981848267</v>
+        <v>6.9546439259745343</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="17"/>
-        <v>6.8338634427718317</v>
+        <v>7.8583467215669032</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="18"/>
-        <v>7.3937438533429027</v>
+        <v>8.5821424018752097</v>
       </c>
       <c r="U28">
         <v>50</v>
       </c>
-      <c r="V28" s="6" cm="1">
+      <c r="V28" s="5" cm="1">
         <f t="array" ref="V28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G28</f>
-        <v>12070.300505710067</v>
-      </c>
-      <c r="W28" s="6" cm="1">
+        <v>14564.256518295286</v>
+      </c>
+      <c r="W28" s="5" cm="1">
         <f t="array" ref="W28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H28</f>
-        <v>12156.223075867547</v>
-      </c>
-      <c r="X28" s="6" cm="1">
+        <v>13932.482334952034</v>
+      </c>
+      <c r="X28" s="5" cm="1">
         <f t="array" ref="X28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I28</f>
-        <v>12150.004559076777</v>
+        <v>13301.034841459244</v>
       </c>
       <c r="Z28">
         <v>50</v>
       </c>
-      <c r="AA28" s="6" cm="1">
+      <c r="AA28" s="5" cm="1">
         <f t="array" ref="AA28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G28</f>
-        <v>35514.789139642817</v>
-      </c>
-      <c r="AB28" s="6" cm="1">
+        <v>45075.460795928193</v>
+      </c>
+      <c r="AB28" s="5" cm="1">
         <f t="array" ref="AB28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H28</f>
-        <v>37326.371613035568</v>
-      </c>
-      <c r="AC28" s="6" cm="1">
+        <v>46032.873283389177</v>
+      </c>
+      <c r="AC28" s="5" cm="1">
         <f t="array" ref="AC28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I28</f>
-        <v>38761.127610117539</v>
+        <v>46747.350471128826</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3165,88 +3170,88 @@
         <v>60</v>
       </c>
       <c r="B29">
-        <v>1137.7105905984499</v>
+        <v>906.61297638021199</v>
       </c>
       <c r="C29">
-        <v>1084.3937667770199</v>
+        <v>857.76160515654897</v>
       </c>
       <c r="D29">
-        <v>1040.0231709887</v>
+        <v>816.43641321394603</v>
       </c>
       <c r="F29">
         <v>60</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="8">
         <f t="shared" si="19"/>
-        <v>5400</v>
-      </c>
-      <c r="H29" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H29" s="8">
         <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="I29" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I29" s="8">
         <f t="shared" si="19"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K29">
         <v>60</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="6">
         <f t="shared" si="20"/>
-        <v>0.13542396470399076</v>
-      </c>
-      <c r="M29" s="2">
+        <v>0.11776640034505483</v>
+      </c>
+      <c r="M29" s="6">
         <f t="shared" si="15"/>
-        <v>0.11887973230651214</v>
-      </c>
-      <c r="N29" s="2">
+        <v>0.10124533388500712</v>
+      </c>
+      <c r="N29" s="6">
         <f t="shared" si="16"/>
-        <v>0.10793969127751302</v>
+        <v>9.0563359270551161E-2</v>
       </c>
       <c r="P29">
         <v>60</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="21"/>
-        <v>6.3084239453975748</v>
+        <v>7.0846160072224498</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="17"/>
-        <v>7.0300019751615421</v>
+        <v>8.0097483508531013</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="18"/>
-        <v>7.6067937776514869</v>
+        <v>8.7513269897393844</v>
       </c>
       <c r="U29">
         <v>60</v>
       </c>
-      <c r="V29" s="6" cm="1">
+      <c r="V29" s="5" cm="1">
         <f t="array" ref="V29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G29</f>
-        <v>11492.38473783747</v>
-      </c>
-      <c r="W29" s="6" cm="1">
+        <v>14058.613025001476</v>
+      </c>
+      <c r="W29" s="5" cm="1">
         <f t="array" ref="W29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H29</f>
-        <v>11523.974159771169</v>
-      </c>
-      <c r="X29" s="6" cm="1">
+        <v>13371.052938217708</v>
+      </c>
+      <c r="X29" s="5" cm="1">
         <f t="array" ref="X29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I29</f>
-        <v>11468.91061511618</v>
+        <v>12691.242233078003</v>
       </c>
       <c r="Z29">
         <v>60</v>
       </c>
-      <c r="AA29" s="6" cm="1">
+      <c r="AA29" s="5" cm="1">
         <f t="array" ref="AA29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G29</f>
-        <v>34161.332066866438</v>
-      </c>
-      <c r="AB29" s="6" cm="1">
+        <v>43891.262682038468</v>
+      </c>
+      <c r="AB29" s="5" cm="1">
         <f t="array" ref="AB29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H29</f>
-        <v>35845.66834308346</v>
-      </c>
-      <c r="AC29" s="6" cm="1">
+        <v>44718.026674043562</v>
+      </c>
+      <c r="AC29" s="5" cm="1">
         <f t="array" ref="AC29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I29</f>
-        <v>37166.031115221675</v>
+        <v>45319.23903236584</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3254,88 +3259,88 @@
         <v>70</v>
       </c>
       <c r="B30">
-        <v>1167.3791554115301</v>
+        <v>932.92485462626496</v>
       </c>
       <c r="C30">
-        <v>1117.0363910849201</v>
+        <v>887.20182443517797</v>
       </c>
       <c r="D30">
-        <v>1075.3121226656201</v>
+        <v>848.62098664477401</v>
       </c>
       <c r="F30">
         <v>70</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="8">
         <f t="shared" si="19"/>
-        <v>5400</v>
-      </c>
-      <c r="H30" s="5">
+        <v>8172</v>
+      </c>
+      <c r="H30" s="8">
         <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="I30" s="5">
+        <v>9988</v>
+      </c>
+      <c r="I30" s="8">
         <f t="shared" si="19"/>
-        <v>7680</v>
+        <v>11622.400000000001</v>
       </c>
       <c r="K30">
         <v>70</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="6">
         <f t="shared" si="20"/>
-        <v>0.12992978603490185</v>
-      </c>
-      <c r="M30" s="2">
+        <v>0.11454664040305128</v>
+      </c>
+      <c r="M30" s="6">
         <f t="shared" si="15"/>
-        <v>0.11393388013864847</v>
-      </c>
-      <c r="N30" s="2">
+        <v>9.8297774886345821E-2</v>
+      </c>
+      <c r="N30" s="6">
         <f t="shared" si="16"/>
-        <v>0.10334477569458071</v>
+        <v>8.7794174469578212E-2</v>
       </c>
       <c r="P30">
         <v>70</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="21"/>
-        <v>6.5308471238240182</v>
+        <v>7.2475154188426538</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="17"/>
-        <v>7.2793817604635978</v>
+        <v>8.2012861226816458</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="18"/>
-        <v>7.8787799157066365</v>
+        <v>8.9670420607146628</v>
       </c>
       <c r="U30">
         <v>70</v>
       </c>
-      <c r="V30" s="6" cm="1">
+      <c r="V30" s="5" cm="1">
         <f t="array" ref="V30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G30</f>
-        <v>10807.05714386595</v>
-      </c>
-      <c r="W30" s="6" cm="1">
+        <v>13450.823051848172</v>
+      </c>
+      <c r="W30" s="5" cm="1">
         <f t="array" ref="W30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H30</f>
-        <v>10769.947420736371</v>
-      </c>
-      <c r="X30" s="6" cm="1">
+        <v>12691.000000998403</v>
+      </c>
+      <c r="X30" s="5" cm="1">
         <f t="array" ref="X30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I30</f>
-        <v>10653.755163583908</v>
+        <v>11947.796218371404</v>
       </c>
       <c r="Z30">
         <v>70</v>
       </c>
-      <c r="AA30" s="6" cm="1">
+      <c r="AA30" s="5" cm="1">
         <f t="array" ref="AA30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G30</f>
-        <v>32556.320522287759</v>
-      </c>
-      <c r="AB30" s="6" cm="1">
+        <v>42467.841339936829</v>
+      </c>
+      <c r="AB30" s="5" cm="1">
         <f t="array" ref="AB30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H30</f>
-        <v>34079.76597505161</v>
-      </c>
-      <c r="AC30" s="6" cm="1">
+        <v>43125.368177927339</v>
+      </c>
+      <c r="AC30" s="5" cm="1">
         <f t="array" ref="AC30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I30</f>
-        <v>35256.967593127571</v>
+        <v>43578.116324231181</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -3348,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3">
-        <v>9800</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3356,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="3">
-        <v>1.2</v>
+        <v>1.8160000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3365,7 +3370,7 @@
       </c>
       <c r="B34" s="3">
         <f>B33*1000</f>
-        <v>1200</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3394,8 +3399,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B13:D20 B23:D30">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3:I10">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3407,7 +3424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I21 G23:I30">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3419,7 +3436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:N10">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3430,8 +3447,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:N21 L23:N30">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="L13:N20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:N30">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3443,7 +3472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S10">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3455,7 +3484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:S21 Q23:S30">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3467,7 +3496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23:X30 V13:X20 V3:X10">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3479,7 +3508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AC10 AA13:AC20 AA23:AC30">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/output/250812_all_costs.xlsx
+++ b/output/250812_all_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ischillebeeckx/Development/solar/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F755B-6EC1-4944-B69B-04B7C8B85D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAB699-1239-364F-9504-0ECEA1C4B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="3380" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
+    <workbookView xWindow="4560" yWindow="3380" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="250812_all_costs" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>241.89738568160499</v>
+        <v>201.022448542532</v>
       </c>
       <c r="C13">
-        <v>156.54610689144201</v>
+        <v>121.982415964076</v>
       </c>
       <c r="D13">
-        <v>93.391055442071007</v>
+        <v>62.981046197672697</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1883,60 +1883,60 @@
       </c>
       <c r="L13" s="6">
         <f>($B$35-B13)/G13</f>
-        <v>0.10203189404392017</v>
+        <v>0.10459506812926996</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" ref="M13:M20" si="7">($B$35-C13)/H13</f>
-        <v>9.6405668699462821E-2</v>
+        <v>9.8351493781226373E-2</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" ref="N13:N20" si="8">($B$35-D13)/I13</f>
-        <v>9.1538502302263638E-2</v>
+        <v>9.3106238660971424E-2</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <f>LN(1+(G13*$B$36/($B$35-B13)))/LN(1+$B$36)</f>
-        <v>7.9601650868476694</v>
+        <v>7.8028322247309188</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13:R20" si="9">LN(1+(H13*$B$36/($B$35-C13)))/LN(1+$B$36)</f>
-        <v>8.329234307445299</v>
+        <v>8.1977119505518186</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ref="S13:S20" si="10">LN(1+(I13*$B$36/($B$35-D13)))/LN(1+$B$36)</f>
-        <v>8.6778653056310002</v>
+        <v>8.5623628867558992</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" s="5" cm="1">
         <f t="array" ref="V13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G13</f>
-        <v>21638.179021668519</v>
+        <v>22582.367677228562</v>
       </c>
       <c r="W13" s="5" cm="1">
         <f t="array" ref="W13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H13</f>
-        <v>21793.74680407322</v>
+        <v>22592.149129607482</v>
       </c>
       <c r="X13" s="5" cm="1">
         <f t="array" ref="X13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I13</f>
-        <v>21618.193894575663</v>
+        <v>22320.648448728105</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" s="5" cm="1">
         <f t="array" ref="AA13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G13</f>
-        <v>72076.080882018985</v>
+        <v>74287.335332831412</v>
       </c>
       <c r="AB13" s="5" cm="1">
         <f t="array" ref="AB13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H13</f>
-        <v>74877.418750090379</v>
+        <v>76747.247078867978</v>
       </c>
       <c r="AC13" s="5" cm="1">
         <f t="array" ref="AC13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I13</f>
-        <v>76659.583970326843</v>
+        <v>78304.706213870144</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -1944,13 +1944,13 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>192.85892812091399</v>
+        <v>157.68264638498599</v>
       </c>
       <c r="C14">
-        <v>115.109022116007</v>
+        <v>85.330921790224195</v>
       </c>
       <c r="D14">
-        <v>60.706040317261802</v>
+        <v>33.5671061618674</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1972,60 +1972,60 @@
       </c>
       <c r="L14" s="6">
         <f t="shared" ref="L14:L20" si="12">($B$35-B14)/G14</f>
-        <v>0.10510698387653389</v>
+        <v>0.10731280827836046</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="7"/>
-        <v>9.8738443837414452E-2</v>
+        <v>0.10041485549793254</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="8"/>
-        <v>9.3223522723805158E-2</v>
+        <v>9.4622624363993754E-2</v>
       </c>
       <c r="P14">
         <v>10</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ref="Q14:Q20" si="13">LN(1+(G14*$B$36/($B$35-B14)))/LN(1+$B$36)</f>
-        <v>7.7721641967317083</v>
+        <v>7.6427715973766084</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="9"/>
-        <v>8.1720597581859078</v>
+        <v>8.0627869478592427</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="10"/>
-        <v>8.5538479799807696</v>
+        <v>8.4535880520820363</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
       <c r="V14" s="5" cm="1">
         <f t="array" ref="V14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G14</f>
-        <v>22770.940526779341</v>
+        <v>23583.493364398222</v>
       </c>
       <c r="W14" s="5" cm="1">
         <f t="array" ref="W14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H14</f>
-        <v>22750.920762074144</v>
+        <v>23438.778566382694</v>
       </c>
       <c r="X14" s="5" cm="1">
         <f t="array" ref="X14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I14</f>
-        <v>22373.199838258268</v>
+        <v>23000.094349834646</v>
       </c>
       <c r="Z14">
         <v>10</v>
       </c>
       <c r="AA14" s="5" cm="1">
         <f t="array" ref="AA14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G14</f>
-        <v>74728.965880303091</v>
+        <v>76631.934178136842</v>
       </c>
       <c r="AB14" s="5" cm="1">
         <f t="array" ref="AB14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H14</f>
-        <v>77119.084292635831</v>
+        <v>78730.02149501213</v>
       </c>
       <c r="AC14" s="5" cm="1">
         <f t="array" ref="AC14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I14</f>
-        <v>78427.779598951194</v>
+        <v>79895.943054157018</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2033,13 +2033,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>166.12677657953199</v>
+        <v>134.31681889793299</v>
       </c>
       <c r="C15">
-        <v>99.152232800197098</v>
+        <v>71.065331115456502</v>
       </c>
       <c r="D15">
-        <v>48.205357316342699</v>
+        <v>22.188682014190402</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -2061,60 +2061,60 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="12"/>
-        <v>0.10678329613221722</v>
+        <v>0.10877802603010391</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="7"/>
-        <v>9.9636759961707094E-2</v>
+        <v>0.10121796255613036</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="8"/>
-        <v>9.3867974196730333E-2</v>
+        <v>9.520921968850514E-2</v>
       </c>
       <c r="P15">
         <v>20</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="13"/>
-        <v>7.6734316318961575</v>
+        <v>7.5592146732344183</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="9"/>
-        <v>8.1131329655551809</v>
+        <v>8.0114851065166643</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="10"/>
-        <v>8.5073668241639435</v>
+        <v>8.4122617846447074</v>
       </c>
       <c r="U15">
         <v>20</v>
       </c>
       <c r="V15" s="5" cm="1">
         <f t="array" ref="V15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G15</f>
-        <v>23388.438582818118</v>
+        <v>24123.231178941773</v>
       </c>
       <c r="W15" s="5" cm="1">
         <f t="array" ref="W15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H15</f>
-        <v>23119.513853725592</v>
+        <v>23768.305895908619</v>
       </c>
       <c r="X15" s="5" cm="1">
         <f t="array" ref="X15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I15</f>
-        <v>22661.958767380558</v>
+        <v>23262.929714249607</v>
       </c>
       <c r="Z15">
         <v>20</v>
       </c>
       <c r="AA15" s="5" cm="1">
         <f t="array" ref="AA15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G15</f>
-        <v>76175.123188742538</v>
+        <v>77895.979914815689</v>
       </c>
       <c r="AB15" s="5" cm="1">
         <f t="array" ref="AB15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H15</f>
-        <v>77982.315501413192</v>
+        <v>79501.762152758485</v>
       </c>
       <c r="AC15" s="5" cm="1">
         <f t="array" ref="AC15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I15</f>
-        <v>79104.04219062021</v>
+        <v>80511.493628685741</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2122,13 +2122,13 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>157.71876924567499</v>
+        <v>127.193782010362</v>
       </c>
       <c r="C16">
-        <v>95.412080648464098</v>
+        <v>68.014135512136804</v>
       </c>
       <c r="D16">
-        <v>47.443542770563901</v>
+        <v>21.932578120898899</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -2150,60 +2150,60 @@
       </c>
       <c r="L16" s="6">
         <f t="shared" si="12"/>
-        <v>0.10731054309615132</v>
+        <v>0.10922469542795749</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="7"/>
-        <v>9.9847318547066147E-2</v>
+        <v>0.10138973509473981</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="8"/>
-        <v>9.3907248251282952E-2</v>
+        <v>9.5222422689592467E-2</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="13"/>
-        <v>7.6429022267578537</v>
+        <v>7.5341102538342408</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="9"/>
-        <v>8.0994458943817822</v>
+        <v>8.0005985258852768</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="10"/>
-        <v>8.5045508244226244</v>
+        <v>8.4113363578798896</v>
       </c>
       <c r="U16">
         <v>30</v>
       </c>
       <c r="V16" s="5" cm="1">
         <f t="array" ref="V16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G16</f>
-        <v>23582.658946105345</v>
+        <v>24287.769428859989</v>
       </c>
       <c r="W16" s="5" cm="1">
         <f t="array" ref="W16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H16</f>
-        <v>23205.909319478102</v>
+        <v>23838.786842821079</v>
       </c>
       <c r="X16" s="5" cm="1">
         <f t="array" ref="X16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I16</f>
-        <v>22679.556266046253</v>
+        <v>23268.845573884268</v>
       </c>
       <c r="Z16">
         <v>30</v>
       </c>
       <c r="AA16" s="5" cm="1">
         <f t="array" ref="AA16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G16</f>
-        <v>76629.980001762131</v>
+        <v>78281.32233056915</v>
       </c>
       <c r="AB16" s="5" cm="1">
         <f t="array" ref="AB16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H16</f>
-        <v>78184.650444806408</v>
+        <v>79666.825889374988</v>
       </c>
       <c r="AC16" s="5" cm="1">
         <f t="array" ref="AC16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I16</f>
-        <v>79145.254873084166</v>
+        <v>80525.348350271845</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2211,13 +2211,13 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>161.39266757354099</v>
+        <v>131.20983179776599</v>
       </c>
       <c r="C17">
-        <v>101.25617285685701</v>
+        <v>74.101814818104799</v>
       </c>
       <c r="D17">
-        <v>55.748770128589797</v>
+        <v>30.2238737941741</v>
       </c>
       <c r="F17">
         <v>40</v>
@@ -2239,60 +2239,60 @@
       </c>
       <c r="L17" s="6">
         <f t="shared" si="12"/>
-        <v>0.10708016131099636</v>
+        <v>0.10897285810511281</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="7"/>
-        <v>9.9518314876042499E-2</v>
+        <v>0.10104701825040226</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="8"/>
-        <v>9.3479086365771194E-2</v>
+        <v>9.4794979028417506E-2</v>
       </c>
       <c r="P17">
         <v>40</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="13"/>
-        <v>7.6562117070496454</v>
+        <v>7.5482435513847062</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="9"/>
-        <v>8.1208530409603146</v>
+        <v>8.0223491659386568</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="10"/>
-        <v>8.5353535699219059</v>
+        <v>8.4414026000239168</v>
       </c>
       <c r="U17">
         <v>40</v>
       </c>
       <c r="V17" s="5" cm="1">
         <f t="array" ref="V17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G17</f>
-        <v>23497.793907388601</v>
+        <v>24195.000878867373</v>
       </c>
       <c r="W17" s="5" cm="1">
         <f t="array" ref="W17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H17</f>
-        <v>23070.913991009766</v>
+        <v>23698.164785842098</v>
       </c>
       <c r="X17" s="5" cm="1">
         <f t="array" ref="X17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I17</f>
-        <v>22487.710063895182</v>
+        <v>23077.321186018809</v>
       </c>
       <c r="Z17">
         <v>40</v>
       </c>
       <c r="AA17" s="5" cm="1">
         <f t="array" ref="AA17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G17</f>
-        <v>76431.229261138724</v>
+        <v>78064.061862696981</v>
       </c>
       <c r="AB17" s="5" cm="1">
         <f t="array" ref="AB17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H17</f>
-        <v>77868.496444060191</v>
+        <v>79337.494301300874</v>
       </c>
       <c r="AC17" s="5" cm="1">
         <f t="array" ref="AC17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I17</f>
-        <v>78695.958256481244</v>
+        <v>80076.805410666799</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2300,13 +2300,13 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>174.380955713779</v>
+        <v>143.79254956988899</v>
       </c>
       <c r="C18">
-        <v>114.727402038639</v>
+        <v>87.397346496917606</v>
       </c>
       <c r="D18">
-        <v>69.708048419353403</v>
+        <v>43.905752088160099</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -2328,60 +2328,60 @@
       </c>
       <c r="L18" s="6">
         <f t="shared" si="12"/>
-        <v>0.10626569538384781</v>
+        <v>0.10818382457077262</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="7"/>
-        <v>9.875992782533137E-2</v>
+        <v>0.10029852240629862</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="8"/>
-        <v>9.2759439490892923E-2</v>
+        <v>9.4089633039058831E-2</v>
       </c>
       <c r="P18">
         <v>50</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="13"/>
-        <v>7.7036445265718001</v>
+        <v>7.5928754915545644</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="9"/>
-        <v>8.1706403029656265</v>
+        <v>8.0702737126651947</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="10"/>
-        <v>8.5876422211986263</v>
+        <v>8.4914984755477025</v>
       </c>
       <c r="U18">
         <v>50</v>
       </c>
       <c r="V18" s="5" cm="1">
         <f t="array" ref="V18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G18</f>
-        <v>23197.771566670795</v>
+        <v>23904.346991471051</v>
       </c>
       <c r="W18" s="5" cm="1">
         <f t="array" ref="W18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H18</f>
-        <v>22759.735976799944</v>
+        <v>23391.04528769922</v>
       </c>
       <c r="X18" s="5" cm="1">
         <f t="array" ref="X18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I18</f>
-        <v>22165.258382633867</v>
+        <v>22761.277292716128</v>
       </c>
       <c r="Z18">
         <v>50</v>
       </c>
       <c r="AA18" s="5" cm="1">
         <f t="array" ref="AA18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G18</f>
-        <v>75728.588181574072</v>
+        <v>77383.361349757804</v>
       </c>
       <c r="AB18" s="5" cm="1">
         <f t="array" ref="AB18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H18</f>
-        <v>77139.729195201129</v>
+        <v>78618.231944990388</v>
       </c>
       <c r="AC18" s="5" cm="1">
         <f t="array" ref="AC18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I18</f>
-        <v>77940.788501832896</v>
+        <v>79336.642455305817</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2389,13 +2389,13 @@
         <v>60</v>
       </c>
       <c r="B19">
-        <v>197.67587520085499</v>
+        <v>165.85813155613801</v>
       </c>
       <c r="C19">
-        <v>134.84448259786001</v>
+        <v>106.89714153099401</v>
       </c>
       <c r="D19">
-        <v>91.036968507975303</v>
+        <v>64.772311939302497</v>
       </c>
       <c r="F19">
         <v>60</v>
@@ -2417,60 +2417,60 @@
       </c>
       <c r="L19" s="6">
         <f t="shared" si="12"/>
-        <v>0.10480492411106447</v>
+        <v>0.10680014224894099</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="7"/>
-        <v>9.7627400630644595E-2</v>
+        <v>9.9200746409334337E-2</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="8"/>
-        <v>9.1659863254458046E-2</v>
+        <v>9.301389299909768E-2</v>
       </c>
       <c r="P19">
         <v>60</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="13"/>
-        <v>7.7902303905806214</v>
+        <v>7.6724523520024084</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>8.2461577463981293</v>
+        <v>8.1416256872305155</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="10"/>
-        <v>8.6688106418172435</v>
+        <v>8.5690794248632542</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
       <c r="V19" s="5" cm="1">
         <f t="array" ref="V19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G19</f>
-        <v>22659.671688081471</v>
+        <v>23394.644135687799</v>
       </c>
       <c r="W19" s="5" cm="1">
         <f t="array" ref="W19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H19</f>
-        <v>22295.042436541342</v>
+        <v>22940.610704906409</v>
       </c>
       <c r="X19" s="5" cm="1">
         <f t="array" ref="X19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I19</f>
-        <v>21672.572013123281</v>
+        <v>22279.271191398373</v>
       </c>
       <c r="Z19">
         <v>60</v>
       </c>
       <c r="AA19" s="5" cm="1">
         <f t="array" ref="AA19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G19</f>
-        <v>74468.378429523524</v>
+        <v>76189.656361029716</v>
       </c>
       <c r="AB19" s="5" cm="1">
         <f t="array" ref="AB19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H19</f>
-        <v>76051.43433684879</v>
+        <v>77563.331030713191</v>
       </c>
       <c r="AC19" s="5" cm="1">
         <f t="array" ref="AC19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I19</f>
-        <v>76786.935486315895</v>
+        <v>78207.802227686829</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2478,13 +2478,13 @@
         <v>70</v>
       </c>
       <c r="B20">
-        <v>237.051105197174</v>
+        <v>202.42245482284801</v>
       </c>
       <c r="C20">
-        <v>165.39215996985001</v>
+        <v>136.02770716387801</v>
       </c>
       <c r="D20">
-        <v>119.121138738566</v>
+        <v>91.965106424325597</v>
       </c>
       <c r="F20">
         <v>70</v>
@@ -2506,60 +2506,60 @@
       </c>
       <c r="L20" s="6">
         <f t="shared" si="12"/>
-        <v>0.10233579324028508</v>
+        <v>0.10450727692839731</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="7"/>
-        <v>9.5907664247601748E-2</v>
+        <v>9.756078887778652E-2</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="8"/>
-        <v>9.0212031574408616E-2</v>
+        <v>9.161201468112605E-2</v>
       </c>
       <c r="P20">
         <v>70</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="13"/>
-        <v>7.9411746959495613</v>
+        <v>7.8081163842014591</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="9"/>
-        <v>8.3635895306646084</v>
+        <v>8.2506437479438457</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="10"/>
-        <v>8.7781061385154722</v>
+        <v>8.6723782900200579</v>
       </c>
       <c r="U20">
         <v>70</v>
       </c>
       <c r="V20" s="5" cm="1">
         <f t="array" ref="V20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G20</f>
-        <v>21750.12544594051</v>
+        <v>22550.028299113066</v>
       </c>
       <c r="W20" s="5" cm="1">
         <f t="array" ref="W20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H20</f>
-        <v>21589.407824059708</v>
+        <v>22267.710597267491</v>
       </c>
       <c r="X20" s="5" cm="1">
         <f t="array" ref="X20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I20</f>
-        <v>21023.843066034751</v>
+        <v>21651.132535713659</v>
       </c>
       <c r="Z20">
         <v>70</v>
       </c>
       <c r="AA20" s="5" cm="1">
         <f t="array" ref="AA20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G20</f>
-        <v>72338.255212822784</v>
+        <v>74211.597721101731</v>
       </c>
       <c r="AB20" s="5" cm="1">
         <f t="array" ref="AB20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H20</f>
-        <v>74398.864515861249</v>
+        <v>75987.424193444385</v>
       </c>
       <c r="AC20" s="5" cm="1">
         <f t="array" ref="AC20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I20</f>
-        <v>75267.636601317645</v>
+        <v>76736.725033599738</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3399,6 +3399,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:D10 B13:D20 B23:D30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13:D20 B23:D30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -3519,18 +3531,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D10 B13:D20 B23:D30">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/250812_all_costs.xlsx
+++ b/output/250812_all_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ischillebeeckx/Development/solar/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAB699-1239-364F-9504-0ECEA1C4B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36E975-AEC4-164E-BDF6-37D0EFD38A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="3380" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
   </bookViews>
@@ -94,10 +94,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -589,7 +590,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -599,6 +600,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -979,7 +981,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,712 +1079,712 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>206.432433</v>
-      </c>
-      <c r="C3" s="1">
-        <v>122.29416399999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>49.727231000000003</v>
+      <c r="B3">
+        <v>170.38478233856199</v>
+      </c>
+      <c r="C3">
+        <v>92.569177987203304</v>
+      </c>
+      <c r="D3">
+        <v>25.652152481891601</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="7">
         <f>$B$1*$B$32+$B$34*G$2</f>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:I3" si="0">$B$1*$B$32+$B$34*H$2</f>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="6">
         <f>($B$35-B3)/G3</f>
-        <v>7.0085472009105476E-2</v>
+        <v>8.0534006782766746E-2</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" ref="M3:N10" si="1">($B$35-C3)/H3</f>
-        <v>6.8396344114652674E-2</v>
+        <v>7.794747815993773E-2</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="1"/>
-        <v>6.6952965840337983E-2</v>
+        <v>7.5800290458865383E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" s="4">
         <f>LN(1+(G3*$B$36/($B$35-B3)))/LN(1+$B$36)</f>
-        <v>10.654313527892731</v>
+        <v>9.5879314314175481</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:S10" si="2">LN(1+(H3*$B$36/($B$35-C3)))/LN(1+$B$36)</f>
-        <v>10.850116863467074</v>
+        <v>9.8309914231959166</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="2"/>
-        <v>11.023418149500952</v>
+        <v>10.042591533065771</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" s="5" cm="1">
         <f t="array" ref="V3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G3</f>
-        <v>14682.399999991096</v>
+        <v>18145.180982430713</v>
       </c>
       <c r="W3" s="5" cm="1">
         <f t="array" ref="W3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H3</f>
-        <v>14809.947920761311</v>
+        <v>18244.47881353728</v>
       </c>
       <c r="X3" s="5" cm="1">
         <f t="array" ref="X3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I3</f>
-        <v>14851.804319010029</v>
+        <v>18261.845443824819</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3" s="5" cm="1">
         <f t="array" ref="AA3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G3</f>
-        <v>66219.665715513111</v>
+        <v>70799.8733742779</v>
       </c>
       <c r="AB3" s="5" cm="1">
         <f t="array" ref="AB3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H3</f>
-        <v>68955.382117592977</v>
+        <v>73311.345939134626</v>
       </c>
       <c r="AC3" s="5" cm="1">
         <f t="array" ref="AC3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I3</f>
-        <v>71246.711789839144</v>
+        <v>75403.04662526006</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>153.46873099999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>59.969808499999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-12.201634</v>
+      <c r="B4">
+        <v>123.825111470176</v>
+      </c>
+      <c r="C4">
+        <v>38.298980249246902</v>
+      </c>
+      <c r="D4">
+        <v>-28.2672175849311</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" ref="G4:I10" si="3">$B$1*$B$32+$B$34*G$2</f>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="3"/>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="3"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L10" si="4">($B$35-B4)/G4</f>
-        <v>7.2318154835174106E-2</v>
+        <v>8.2741473671401056E-2</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" si="1"/>
-        <v>7.0836799729814395E-2</v>
+        <v>8.03287839786027E-2</v>
       </c>
       <c r="N4" s="6">
         <f t="shared" si="1"/>
-        <v>6.9232074973134494E-2</v>
+        <v>7.8017508396286739E-2</v>
       </c>
       <c r="P4">
         <v>10</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" ref="Q4:Q10" si="5">LN(1+(G4*$B$36/($B$35-B4)))/LN(1+$B$36)</f>
-        <v>10.406404648904884</v>
+        <v>9.3900251728035684</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="2"/>
-        <v>10.569540952598446</v>
+        <v>9.6067656381930142</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="2"/>
-        <v>10.752319673295499</v>
+        <v>9.8242441094091184</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
       <c r="V4" s="5" cm="1">
         <f t="array" ref="V4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G4</f>
-        <v>15905.832501299068</v>
+        <v>19220.683872893045</v>
       </c>
       <c r="W4" s="5" cm="1">
         <f t="array" ref="W4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H4</f>
-        <v>16249.606389910092</v>
+        <v>19498.090650659746</v>
       </c>
       <c r="X4" s="5" cm="1">
         <f t="array" ref="X4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I4</f>
-        <v>16282.327174268787</v>
+        <v>19507.3533539366</v>
       </c>
       <c r="Z4">
         <v>10</v>
       </c>
       <c r="AA4" s="5" cm="1">
         <f t="array" ref="AA4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G4</f>
-        <v>69084.898789279687</v>
+        <v>73318.660842642304</v>
       </c>
       <c r="AB4" s="5" cm="1">
         <f t="array" ref="AB4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H4</f>
-        <v>72327.008305652605</v>
+        <v>76247.257886502775</v>
       </c>
       <c r="AC4" s="5" cm="1">
         <f t="array" ref="AC4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I4</f>
-        <v>74596.942712496792</v>
+        <v>78319.979479238435</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
-        <v>113.480777</v>
-      </c>
-      <c r="C5" s="1">
-        <v>21.446580399999998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-40.694122999999998</v>
+      <c r="B5">
+        <v>89.348242826693493</v>
+      </c>
+      <c r="C5">
+        <v>5.0942533067984401</v>
+      </c>
+      <c r="D5">
+        <v>-53.216492547086297</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="3"/>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="3"/>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="3"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="4"/>
-        <v>7.4003845502065596E-2</v>
+        <v>8.4376075989991722E-2</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="1"/>
-        <v>7.2345266645782752E-2</v>
+        <v>8.1785764287703941E-2</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>7.0280656953379164E-2</v>
+        <v>7.9043447310320647E-2</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="5"/>
-        <v>10.226956859008041</v>
+        <v>9.2487843421556786</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="2"/>
-        <v>10.403467218156322</v>
+        <v>9.4746708025228248</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="2"/>
-        <v>10.632156252115085</v>
+        <v>9.7264745917782474</v>
       </c>
       <c r="U5">
         <v>20</v>
       </c>
       <c r="V5" s="5" cm="1">
         <f t="array" ref="V5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G5</f>
-        <v>16829.532332258925</v>
+        <v>20017.080651233096</v>
       </c>
       <c r="W5" s="5" cm="1">
         <f t="array" ref="W5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H5</f>
-        <v>17139.471854994852</v>
+        <v>20265.101652618177</v>
       </c>
       <c r="X5" s="5" cm="1">
         <f t="array" ref="X5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I5</f>
-        <v>16940.488061243042</v>
+        <v>20083.667937701346</v>
       </c>
       <c r="Z5">
         <v>20</v>
       </c>
       <c r="AA5" s="5" cm="1">
         <f t="array" ref="AA5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G5</f>
-        <v>71248.169180632933</v>
+        <v>75183.792255042674</v>
       </c>
       <c r="AB5" s="5" cm="1">
         <f t="array" ref="AB5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H5</f>
-        <v>74411.039879963137</v>
+        <v>78043.568911757233</v>
       </c>
       <c r="AC5" s="5" cm="1">
         <f t="array" ref="AC5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I5</f>
-        <v>76138.330847275065</v>
+        <v>79669.686638833591</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="1">
-        <v>88.322656699999996</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.9276398800000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-46.978507</v>
+      <c r="B6">
+        <v>68.122698208331201</v>
+      </c>
+      <c r="C6">
+        <v>-8.8040539202835006</v>
+      </c>
+      <c r="D6">
+        <v>-58.246351719927901</v>
       </c>
       <c r="F6">
         <v>30</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="3"/>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="3"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K6">
         <v>30</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="4"/>
-        <v>7.5064385098221068E-2</v>
+        <v>8.538241229057926E-2</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="1"/>
-        <v>7.2992104319837103E-2</v>
+        <v>8.2395603964891928E-2</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>7.0511935162149819E-2</v>
+        <v>7.9250280104674622E-2</v>
       </c>
       <c r="P6">
         <v>30</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="5"/>
-        <v>10.117283613021128</v>
+        <v>9.1639716614417637</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="2"/>
-        <v>10.33388820420411</v>
+        <v>9.4204788571292539</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="2"/>
-        <v>10.606024337925726</v>
+        <v>9.7070051915465569</v>
       </c>
       <c r="U6">
         <v>30</v>
       </c>
       <c r="V6" s="5" cm="1">
         <f t="array" ref="V6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G6</f>
-        <v>17410.671128916983</v>
+        <v>20507.379104012442</v>
       </c>
       <c r="W6" s="5" cm="1">
         <f t="array" ref="W6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H6</f>
-        <v>17521.050331502054</v>
+        <v>20586.144935709977</v>
       </c>
       <c r="X6" s="5" cm="1">
         <f t="array" ref="X6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I6</f>
-        <v>17085.653888894209</v>
+        <v>20199.854929106452</v>
       </c>
       <c r="Z6">
         <v>30</v>
       </c>
       <c r="AA6" s="5" cm="1">
         <f t="array" ref="AA6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G6</f>
-        <v>72609.174466051976</v>
+        <v>76332.05285905482</v>
       </c>
       <c r="AB6" s="5" cm="1">
         <f t="array" ref="AB6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H6</f>
-        <v>75304.68237348611</v>
+        <v>78795.440250667889</v>
       </c>
       <c r="AC6" s="5" cm="1">
         <f t="array" ref="AC6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I6</f>
-        <v>76478.303775999899</v>
+        <v>79941.792218961156</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
-      <c r="B7" s="1">
-        <v>80.195430400000006</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.2776308800000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-41.859730999999996</v>
+      <c r="B7">
+        <v>62.033161109349599</v>
+      </c>
+      <c r="C7">
+        <v>-6.5961527639176998</v>
+      </c>
+      <c r="D7">
+        <v>-52.726541577731901</v>
       </c>
       <c r="F7">
         <v>40</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="3"/>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="3"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K7">
         <v>40</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="4"/>
-        <v>7.5406988011128911E-2</v>
+        <v>8.567112677808307E-2</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="1"/>
-        <v>7.2939242271125374E-2</v>
+        <v>8.2298724128631193E-2</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>7.0323553716270915E-2</v>
+        <v>7.9023300040863248E-2</v>
       </c>
       <c r="P7">
         <v>40</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="5"/>
-        <v>10.082368936338812</v>
+        <v>9.1399321045871904</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>10.3395385092795</v>
+        <v>9.4290453920481276</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>10.627299364420749</v>
+        <v>9.7283753593727926</v>
       </c>
       <c r="U7">
         <v>40</v>
       </c>
       <c r="V7" s="5" cm="1">
         <f t="array" ref="V7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G7</f>
-        <v>17598.405604141262</v>
+        <v>20648.044074992278</v>
       </c>
       <c r="W7" s="5" cm="1">
         <f t="array" ref="W7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H7</f>
-        <v>17489.866278962203</v>
+        <v>20535.143628543541</v>
       </c>
       <c r="X7" s="5" cm="1">
         <f t="array" ref="X7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I7</f>
-        <v>16967.412967492688</v>
+        <v>20072.350338717126</v>
       </c>
       <c r="Z7">
         <v>40</v>
       </c>
       <c r="AA7" s="5" cm="1">
         <f t="array" ref="AA7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G7</f>
-        <v>73048.84157226645</v>
+        <v>76661.484950110898</v>
       </c>
       <c r="AB7" s="5" cm="1">
         <f t="array" ref="AB7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H7</f>
-        <v>75231.650490962347</v>
+        <v>78675.997100398148</v>
       </c>
       <c r="AC7" s="5" cm="1">
         <f t="array" ref="AC7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I7</f>
-        <v>76201.387968785333</v>
+        <v>79643.181246104083</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
-      <c r="B8" s="1">
-        <v>85.289489900000007</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16.259692399999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-29.748246999999999</v>
+      <c r="B8">
+        <v>67.8397311226894</v>
+      </c>
+      <c r="C8">
+        <v>3.6487624283678901</v>
+      </c>
+      <c r="D8">
+        <v>-40.5223312185298</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="3"/>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="3"/>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="3"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="4"/>
-        <v>7.5192248128319705E-2</v>
+        <v>8.5395828203116378E-2</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="1"/>
-        <v>7.2548371352494326E-2</v>
+        <v>8.1849190550793205E-2</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>6.9877826286967648E-2</v>
+        <v>7.8521450815122074E-2</v>
       </c>
       <c r="P8">
         <v>50</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="5"/>
-        <v>10.104224054365075</v>
+        <v>9.1628517320199983</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="2"/>
-        <v>10.38151600347854</v>
+        <v>9.469004836518284</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="2"/>
-        <v>10.677990105102017</v>
+        <v>9.7759688329329784</v>
       </c>
       <c r="U8">
         <v>50</v>
       </c>
       <c r="V8" s="5" cm="1">
         <f t="array" ref="V8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G8</f>
-        <v>17480.735620349406</v>
+        <v>20513.915488674051</v>
       </c>
       <c r="W8" s="5" cm="1">
         <f t="array" ref="W8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H8</f>
-        <v>17259.286126282852</v>
+        <v>20298.491700032464</v>
       </c>
       <c r="X8" s="5" cm="1">
         <f t="array" ref="X8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I8</f>
-        <v>16687.644322078289</v>
+        <v>19790.439765203078</v>
       </c>
       <c r="Z8">
         <v>50</v>
       </c>
       <c r="AA8" s="5" cm="1">
         <f t="array" ref="AA8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G8</f>
-        <v>72773.262879539601</v>
+        <v>76347.360827001772</v>
       </c>
       <c r="AB8" s="5" cm="1">
         <f t="array" ref="AB8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H8</f>
-        <v>74691.640413655507</v>
+        <v>78121.767151614185</v>
       </c>
       <c r="AC8" s="5" cm="1">
         <f t="array" ref="AC8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I8</f>
-        <v>75546.18028467751</v>
+        <v>78982.957246648919</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
-      <c r="B9" s="1">
-        <v>103.284909</v>
-      </c>
-      <c r="C9" s="1">
-        <v>32.507283600000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-10.177547000000001</v>
+      <c r="B9">
+        <v>85.210024920378402</v>
+      </c>
+      <c r="C9">
+        <v>19.6540590988288</v>
+      </c>
+      <c r="D9">
+        <v>-21.1317413470586</v>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="3"/>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="3"/>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="3"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K9">
         <v>60</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="4"/>
-        <v>7.4433651926481742E-2</v>
+        <v>8.4572275379630163E-2</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="1"/>
-        <v>7.1912158994439659E-2</v>
+        <v>8.1146898912298385E-2</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>6.9157584423900714E-2</v>
+        <v>7.7724090541310908E-2</v>
       </c>
       <c r="P9">
         <v>60</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="5"/>
-        <v>10.18221607041432</v>
+        <v>9.2321230848037139</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="2"/>
-        <v>10.4505974674559</v>
+        <v>9.5321314689770578</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="2"/>
-        <v>10.760962673877161</v>
+        <v>9.8525782155501478</v>
       </c>
       <c r="U9">
         <v>60</v>
       </c>
       <c r="V9" s="5" cm="1">
         <f t="array" ref="V9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G9</f>
-        <v>17065.051297497528</v>
+        <v>20112.671217845687</v>
       </c>
       <c r="W9" s="5" cm="1">
         <f t="array" ref="W9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H9</f>
-        <v>16883.975670415442</v>
+        <v>19928.778115062167</v>
       </c>
       <c r="X9" s="5" cm="1">
         <f t="array" ref="X9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I9</f>
-        <v>16235.571873416229</v>
+        <v>19342.527761841015</v>
       </c>
       <c r="Z9">
         <v>60</v>
       </c>
       <c r="AA9" s="5" cm="1">
         <f t="array" ref="AA9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G9</f>
-        <v>71799.745771887043</v>
+        <v>75407.661780092603</v>
       </c>
       <c r="AB9" s="5" cm="1">
         <f t="array" ref="AB9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H9</f>
-        <v>73812.677389596531</v>
+        <v>77255.911789471051</v>
       </c>
       <c r="AC9" s="5" cm="1">
         <f t="array" ref="AC9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I9</f>
-        <v>74487.443549908436</v>
+        <v>77933.964118872784</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
-      <c r="B10" s="1">
-        <v>137.07569599999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>60.526115500000003</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14.130844700000001</v>
+      <c r="B10">
+        <v>116.523568831501</v>
+      </c>
+      <c r="C10">
+        <v>46.516890214960597</v>
+      </c>
+      <c r="D10">
+        <v>2.68405390615768</v>
       </c>
       <c r="F10">
         <v>70</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="3"/>
-        <v>23722</v>
+        <v>21091.9</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="3"/>
-        <v>25538</v>
+        <v>22790.1</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="3"/>
-        <v>27172.400000000001</v>
+        <v>24318.48</v>
       </c>
       <c r="K10">
         <v>70</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="4"/>
-        <v>7.3009202596745648E-2</v>
+        <v>8.30876512390301E-2</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="1"/>
-        <v>7.0815016230715011E-2</v>
+        <v>7.9968192758480203E-2</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>6.8262985798089232E-2</v>
+        <v>7.6744761436316838E-2</v>
       </c>
       <c r="P10">
         <v>70</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="5"/>
-        <v>10.332061967930757</v>
+        <v>9.3597455957514111</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="2"/>
-        <v>10.571979221347535</v>
+        <v>9.6400430974652771</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="2"/>
-        <v>10.865892573391662</v>
+        <v>9.9483746409392637</v>
       </c>
       <c r="U10">
         <v>70</v>
       </c>
       <c r="V10" s="5" cm="1">
         <f t="array" ref="V10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G10</f>
-        <v>16284.50262926858</v>
+        <v>19389.345507871672</v>
       </c>
       <c r="W10" s="5" cm="1">
         <f t="array" ref="W10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H10</f>
-        <v>16236.756002969516</v>
+        <v>19308.261432436346</v>
       </c>
       <c r="X10" s="5" cm="1">
         <f t="array" ref="X10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I10</f>
-        <v>15674.061341914778</v>
+        <v>18792.395938403122</v>
       </c>
       <c r="Z10">
         <v>70</v>
       </c>
       <c r="AA10" s="5" cm="1">
         <f t="array" ref="AA10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G10</f>
-        <v>69971.73003950862</v>
+        <v>73713.660071696359</v>
       </c>
       <c r="AB10" s="5" cm="1">
         <f t="array" ref="AB10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H10</f>
-        <v>72296.913180965726</v>
+        <v>75802.684970678296</v>
       </c>
       <c r="AC10" s="5" cm="1">
         <f t="array" ref="AC10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I10</f>
-        <v>73172.406925978488</v>
+        <v>76645.576002846297</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -1868,75 +1870,75 @@
       </c>
       <c r="G13" s="7">
         <f>$B$11*$B$32+$B$34*G$12</f>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" ref="H13:I13" si="6">$B$11*$B$32+$B$34*H$12</f>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="6"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" s="6">
         <f>($B$35-B13)/G13</f>
-        <v>0.10459506812926996</v>
+        <v>0.11609864003072815</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" ref="M13:M20" si="7">($B$35-C13)/H13</f>
-        <v>9.8351493781226373E-2</v>
+        <v>0.10874613815263673</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" ref="N13:N20" si="8">($B$35-D13)/I13</f>
-        <v>9.3106238660971424E-2</v>
+        <v>0.10265274145889997</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <f>LN(1+(G13*$B$36/($B$35-B13)))/LN(1+$B$36)</f>
-        <v>7.8028322247309188</v>
+        <v>7.1680561719300417</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13:R20" si="9">LN(1+(H13*$B$36/($B$35-C13)))/LN(1+$B$36)</f>
-        <v>8.1977119505518186</v>
+        <v>7.5610133856901074</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ref="S13:S20" si="10">LN(1+(I13*$B$36/($B$35-D13)))/LN(1+$B$36)</f>
-        <v>8.5623628867558992</v>
+        <v>7.9214668219068001</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" s="5" cm="1">
         <f t="array" ref="V13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G13</f>
-        <v>22582.367677228562</v>
+        <v>24162.46767722856</v>
       </c>
       <c r="W13" s="5" cm="1">
         <f t="array" ref="W13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H13</f>
-        <v>22592.149129607482</v>
+        <v>24290.049129607483</v>
       </c>
       <c r="X13" s="5" cm="1">
         <f t="array" ref="X13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I13</f>
-        <v>22320.648448728105</v>
+        <v>24124.568448728107</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" s="5" cm="1">
         <f t="array" ref="AA13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G13</f>
-        <v>74287.335332831412</v>
+        <v>75867.435332831417</v>
       </c>
       <c r="AB13" s="5" cm="1">
         <f t="array" ref="AB13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H13</f>
-        <v>76747.247078867978</v>
+        <v>78445.147078867973</v>
       </c>
       <c r="AC13" s="5" cm="1">
         <f t="array" ref="AC13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I13</f>
-        <v>78304.706213870144</v>
+        <v>80108.626213870142</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -1957,75 +1959,75 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" ref="G14:I20" si="11">$B$11*$B$32+$B$34*G$12</f>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="11"/>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="11"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" ref="L14:L20" si="12">($B$35-B14)/G14</f>
-        <v>0.10731280827836046</v>
+        <v>0.11911528260202368</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="7"/>
-        <v>0.10041485549793254</v>
+        <v>0.11102757394661571</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="8"/>
-        <v>9.4622624363993754E-2</v>
+        <v>0.10432460740218154</v>
       </c>
       <c r="P14">
         <v>10</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ref="Q14:Q20" si="13">LN(1+(G14*$B$36/($B$35-B14)))/LN(1+$B$36)</f>
-        <v>7.6427715973766084</v>
+        <v>7.0185563475600503</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="9"/>
-        <v>8.0627869478592427</v>
+        <v>7.4344796146099101</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="10"/>
-        <v>8.4535880520820363</v>
+        <v>7.819134632090063</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
       <c r="V14" s="5" cm="1">
         <f t="array" ref="V14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G14</f>
-        <v>23583.493364398222</v>
+        <v>25163.593364398221</v>
       </c>
       <c r="W14" s="5" cm="1">
         <f t="array" ref="W14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H14</f>
-        <v>23438.778566382694</v>
+        <v>25136.678566382696</v>
       </c>
       <c r="X14" s="5" cm="1">
         <f t="array" ref="X14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I14</f>
-        <v>23000.094349834646</v>
+        <v>24804.014349834648</v>
       </c>
       <c r="Z14">
         <v>10</v>
       </c>
       <c r="AA14" s="5" cm="1">
         <f t="array" ref="AA14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G14</f>
-        <v>76631.934178136842</v>
+        <v>78212.034178136848</v>
       </c>
       <c r="AB14" s="5" cm="1">
         <f t="array" ref="AB14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H14</f>
-        <v>78730.02149501213</v>
+        <v>80427.921495012124</v>
       </c>
       <c r="AC14" s="5" cm="1">
         <f t="array" ref="AC14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I14</f>
-        <v>79895.943054157018</v>
+        <v>81699.863054157016</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2046,75 +2048,75 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="11"/>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="11"/>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="11"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="12"/>
-        <v>0.10877802603010391</v>
+        <v>0.12074164789217347</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="7"/>
-        <v>0.10121796255613036</v>
+        <v>0.11191556036903248</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="8"/>
-        <v>9.520921968850514E-2</v>
+        <v>0.10497134836233706</v>
       </c>
       <c r="P15">
         <v>20</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="13"/>
-        <v>7.5592146732344183</v>
+        <v>6.9405485646369236</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="9"/>
-        <v>8.0114851065166643</v>
+        <v>7.3863843311422954</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="10"/>
-        <v>8.4122617846447074</v>
+        <v>7.780266008840985</v>
       </c>
       <c r="U15">
         <v>20</v>
       </c>
       <c r="V15" s="5" cm="1">
         <f t="array" ref="V15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G15</f>
-        <v>24123.231178941773</v>
+        <v>25703.331178941771</v>
       </c>
       <c r="W15" s="5" cm="1">
         <f t="array" ref="W15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H15</f>
-        <v>23768.305895908619</v>
+        <v>25466.205895908621</v>
       </c>
       <c r="X15" s="5" cm="1">
         <f t="array" ref="X15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I15</f>
-        <v>23262.929714249607</v>
+        <v>25066.849714249609</v>
       </c>
       <c r="Z15">
         <v>20</v>
       </c>
       <c r="AA15" s="5" cm="1">
         <f t="array" ref="AA15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G15</f>
-        <v>77895.979914815689</v>
+        <v>79476.079914815695</v>
       </c>
       <c r="AB15" s="5" cm="1">
         <f t="array" ref="AB15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H15</f>
-        <v>79501.762152758485</v>
+        <v>81199.662152758479</v>
       </c>
       <c r="AC15" s="5" cm="1">
         <f t="array" ref="AC15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I15</f>
-        <v>80511.493628685741</v>
+        <v>82315.413628685739</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2135,75 +2137,75 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="11"/>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="11"/>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="11"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K16">
         <v>30</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="12"/>
-        <v>0.10922469542795749</v>
+        <v>0.1212374428714363</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="7"/>
-        <v>0.10138973509473981</v>
+        <v>0.11210548732892191</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="8"/>
-        <v>9.5222422689592467E-2</v>
+        <v>0.10498590511252472</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="13"/>
-        <v>7.5341102538342408</v>
+        <v>6.9171162206582144</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="9"/>
-        <v>8.0005985258852768</v>
+        <v>7.3761793404872433</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="10"/>
-        <v>8.4113363578798896</v>
+        <v>7.7793956792660994</v>
       </c>
       <c r="U16">
         <v>30</v>
       </c>
       <c r="V16" s="5" cm="1">
         <f t="array" ref="V16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G16</f>
-        <v>24287.769428859989</v>
+        <v>25867.869428859987</v>
       </c>
       <c r="W16" s="5" cm="1">
         <f t="array" ref="W16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H16</f>
-        <v>23838.786842821079</v>
+        <v>25536.68684282108</v>
       </c>
       <c r="X16" s="5" cm="1">
         <f t="array" ref="X16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I16</f>
-        <v>23268.845573884268</v>
+        <v>25072.76557388427</v>
       </c>
       <c r="Z16">
         <v>30</v>
       </c>
       <c r="AA16" s="5" cm="1">
         <f t="array" ref="AA16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G16</f>
-        <v>78281.32233056915</v>
+        <v>79861.422330569156</v>
       </c>
       <c r="AB16" s="5" cm="1">
         <f t="array" ref="AB16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H16</f>
-        <v>79666.825889374988</v>
+        <v>81364.725889374997</v>
       </c>
       <c r="AC16" s="5" cm="1">
         <f t="array" ref="AC16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I16</f>
-        <v>80525.348350271845</v>
+        <v>82329.268350271857</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2224,75 +2226,75 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="11"/>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="11"/>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="11"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K17">
         <v>40</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="12"/>
-        <v>0.10897285810511281</v>
+        <v>0.1209579079830885</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="7"/>
-        <v>0.10104701825040226</v>
+        <v>0.11172654917690493</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="8"/>
-        <v>9.4794979028417506E-2</v>
+        <v>0.10451463418299427</v>
       </c>
       <c r="P17">
         <v>40</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="13"/>
-        <v>7.5482435513847062</v>
+        <v>6.9303078961284328</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="9"/>
-        <v>8.0223491659386568</v>
+        <v>7.3965686079884705</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="10"/>
-        <v>8.4414026000239168</v>
+        <v>7.8076732711378982</v>
       </c>
       <c r="U17">
         <v>40</v>
       </c>
       <c r="V17" s="5" cm="1">
         <f t="array" ref="V17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G17</f>
-        <v>24195.000878867373</v>
+        <v>25775.100878867372</v>
       </c>
       <c r="W17" s="5" cm="1">
         <f t="array" ref="W17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H17</f>
-        <v>23698.164785842098</v>
+        <v>25396.0647858421</v>
       </c>
       <c r="X17" s="5" cm="1">
         <f t="array" ref="X17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I17</f>
-        <v>23077.321186018809</v>
+        <v>24881.241186018811</v>
       </c>
       <c r="Z17">
         <v>40</v>
       </c>
       <c r="AA17" s="5" cm="1">
         <f t="array" ref="AA17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G17</f>
-        <v>78064.061862696981</v>
+        <v>79644.161862696987</v>
       </c>
       <c r="AB17" s="5" cm="1">
         <f t="array" ref="AB17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H17</f>
-        <v>79337.494301300874</v>
+        <v>81035.394301300868</v>
       </c>
       <c r="AC17" s="5" cm="1">
         <f t="array" ref="AC17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I17</f>
-        <v>80076.805410666799</v>
+        <v>81880.725410666797</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2313,75 +2315,75 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="11"/>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="11"/>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="11"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K18">
         <v>50</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="12"/>
-        <v>0.10818382457077262</v>
+        <v>0.12008209498431194</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="7"/>
-        <v>0.10029852240629862</v>
+        <v>0.11089894575838821</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="8"/>
-        <v>9.4089633039058831E-2</v>
+        <v>0.10373696664399766</v>
       </c>
       <c r="P18">
         <v>50</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="13"/>
-        <v>7.5928754915545644</v>
+        <v>6.9719709321710974</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="9"/>
-        <v>8.0702737126651947</v>
+        <v>7.4414991672974775</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="10"/>
-        <v>8.4914984755477025</v>
+        <v>7.854795360235892</v>
       </c>
       <c r="U18">
         <v>50</v>
       </c>
       <c r="V18" s="5" cm="1">
         <f t="array" ref="V18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G18</f>
-        <v>23904.346991471051</v>
+        <v>25484.44699147105</v>
       </c>
       <c r="W18" s="5" cm="1">
         <f t="array" ref="W18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H18</f>
-        <v>23391.04528769922</v>
+        <v>25088.945287699222</v>
       </c>
       <c r="X18" s="5" cm="1">
         <f t="array" ref="X18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I18</f>
-        <v>22761.277292716128</v>
+        <v>24565.19729271613</v>
       </c>
       <c r="Z18">
         <v>50</v>
       </c>
       <c r="AA18" s="5" cm="1">
         <f t="array" ref="AA18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G18</f>
-        <v>77383.361349757804</v>
+        <v>78963.46134975781</v>
       </c>
       <c r="AB18" s="5" cm="1">
         <f t="array" ref="AB18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H18</f>
-        <v>78618.231944990388</v>
+        <v>80316.131944990397</v>
       </c>
       <c r="AC18" s="5" cm="1">
         <f t="array" ref="AC18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I18</f>
-        <v>79336.642455305817</v>
+        <v>81140.562455305815</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2402,75 +2404,75 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="11"/>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="11"/>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="11"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K19">
         <v>60</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="12"/>
-        <v>0.10680014224894099</v>
+        <v>0.11854623255148028</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="7"/>
-        <v>9.9200746409334337E-2</v>
+        <v>0.1096851472115957</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="8"/>
-        <v>9.301389299909768E-2</v>
+        <v>0.10255092727878155</v>
       </c>
       <c r="P19">
         <v>60</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="13"/>
-        <v>7.6724523520024084</v>
+        <v>7.0462719243026211</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>8.1416256872305155</v>
+        <v>7.5084078386980488</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="10"/>
-        <v>8.5690794248632542</v>
+        <v>7.9277867825375496</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
       <c r="V19" s="5" cm="1">
         <f t="array" ref="V19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G19</f>
-        <v>23394.644135687799</v>
+        <v>24974.744135687797</v>
       </c>
       <c r="W19" s="5" cm="1">
         <f t="array" ref="W19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H19</f>
-        <v>22940.610704906409</v>
+        <v>24638.51070490641</v>
       </c>
       <c r="X19" s="5" cm="1">
         <f t="array" ref="X19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I19</f>
-        <v>22279.271191398373</v>
+        <v>24083.191191398375</v>
       </c>
       <c r="Z19">
         <v>60</v>
       </c>
       <c r="AA19" s="5" cm="1">
         <f t="array" ref="AA19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G19</f>
-        <v>76189.656361029716</v>
+        <v>77769.756361029722</v>
       </c>
       <c r="AB19" s="5" cm="1">
         <f t="array" ref="AB19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H19</f>
-        <v>77563.331030713191</v>
+        <v>79261.231030713185</v>
       </c>
       <c r="AC19" s="5" cm="1">
         <f t="array" ref="AC19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I19</f>
-        <v>78207.802227686829</v>
+        <v>80011.722227686842</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2491,75 +2493,75 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="11"/>
-        <v>15947</v>
+        <v>14366.9</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="11"/>
-        <v>17763</v>
+        <v>16065.099999999999</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="11"/>
-        <v>19397.400000000001</v>
+        <v>17593.48</v>
       </c>
       <c r="K20">
         <v>70</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="12"/>
-        <v>0.10450727692839731</v>
+        <v>0.11600119338041971</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="7"/>
-        <v>9.756078887778652E-2</v>
+        <v>0.10787186465295094</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="8"/>
-        <v>9.161201468112605E-2</v>
+        <v>0.1010053095564763</v>
       </c>
       <c r="P20">
         <v>70</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="13"/>
-        <v>7.8081163842014591</v>
+        <v>7.1729932235794882</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="9"/>
-        <v>8.2506437479438457</v>
+        <v>7.6106698476022556</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="10"/>
-        <v>8.6723782900200579</v>
+        <v>8.0250044389996731</v>
       </c>
       <c r="U20">
         <v>70</v>
       </c>
       <c r="V20" s="5" cm="1">
         <f t="array" ref="V20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G20</f>
-        <v>22550.028299113066</v>
+        <v>24130.128299113065</v>
       </c>
       <c r="W20" s="5" cm="1">
         <f t="array" ref="W20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H20</f>
-        <v>22267.710597267491</v>
+        <v>23965.610597267492</v>
       </c>
       <c r="X20" s="5" cm="1">
         <f t="array" ref="X20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I20</f>
-        <v>21651.132535713659</v>
+        <v>23455.052535713661</v>
       </c>
       <c r="Z20">
         <v>70</v>
       </c>
       <c r="AA20" s="5" cm="1">
         <f t="array" ref="AA20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G20</f>
-        <v>74211.597721101731</v>
+        <v>75791.697721101737</v>
       </c>
       <c r="AB20" s="5" cm="1">
         <f t="array" ref="AB20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H20</f>
-        <v>75987.424193444385</v>
+        <v>77685.324193444394</v>
       </c>
       <c r="AC20" s="5" cm="1">
         <f t="array" ref="AC20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I20</f>
-        <v>76736.725033599738</v>
+        <v>78540.645033599736</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2649,75 +2651,75 @@
       </c>
       <c r="G23" s="8">
         <f>$B$21*$B$32+$B$34*G$12</f>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" ref="H23:I23" si="14">$B$21*$B$32+$B$34*H$12</f>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="14"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" s="6">
         <f>($B$35-B23)/G23</f>
-        <v>0.1240404512620219</v>
+        <v>0.13264483540915781</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" ref="M23:M30" si="15">($B$35-C23)/H23</f>
-        <v>0.10710651210318271</v>
+        <v>0.11453623011387343</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" ref="N23:N30" si="16">($B$35-D23)/I23</f>
-        <v>9.6083305859177598E-2</v>
+        <v>0.1027483708869783</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" s="4">
         <f>LN(1+(G23*$B$36/($B$35-B23)))/LN(1+$B$36)</f>
-        <v>6.7875968445797739</v>
+        <v>6.4189842118249105</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ref="R23:R30" si="17">LN(1+(H23*$B$36/($B$35-C23)))/LN(1+$B$36)</f>
-        <v>7.6546869998042766</v>
+        <v>7.2480544382870491</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ref="S23:S30" si="18">LN(1+(I23*$B$36/($B$35-D23)))/LN(1+$B$36)</f>
-        <v>8.3514398393359706</v>
+        <v>7.9155400971756098</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" s="5" cm="1">
         <f t="array" ref="V23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G23</f>
-        <v>15242.957605676329</v>
+        <v>15773.057605676329</v>
       </c>
       <c r="W23" s="5" cm="1">
         <f t="array" ref="W23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H23</f>
-        <v>14723.328317487976</v>
+        <v>15371.228317487978</v>
       </c>
       <c r="X23" s="5" cm="1">
         <f t="array" ref="X23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I23</f>
-        <v>14173.188216338422</v>
+        <v>14927.108216338424</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23" s="5" cm="1">
         <f t="array" ref="AA23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G23</f>
-        <v>46664.95331037954</v>
+        <v>47195.053310379539</v>
       </c>
       <c r="AB23" s="5" cm="1">
         <f t="array" ref="AB23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H23</f>
-        <v>47885.004940014995</v>
+        <v>48532.904940014996</v>
       </c>
       <c r="AC23" s="5" cm="1">
         <f t="array" ref="AC23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I23</f>
-        <v>48789.900993882926</v>
+        <v>49543.820993882924</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2738,75 +2740,75 @@
       </c>
       <c r="G24" s="8">
         <f t="shared" ref="G24:I30" si="19">$B$21*$B$32+$B$34*G$12</f>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="19"/>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="19"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K24">
         <v>10</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" ref="L24:L30" si="20">($B$35-B24)/G24</f>
-        <v>0.12492864823819456</v>
+        <v>0.13359464444739214</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" si="15"/>
-        <v>0.10791376416478143</v>
+        <v>0.11539947928585743</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="16"/>
-        <v>9.6823233311189055E-2</v>
+        <v>0.10353962530509914</v>
       </c>
       <c r="P24">
         <v>10</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" ref="Q24:Q30" si="21">LN(1+(G24*$B$36/($B$35-B24)))/LN(1+$B$36)</f>
-        <v>6.7475742056393422</v>
+        <v>6.3807604615935709</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="17"/>
-        <v>7.6082749538144947</v>
+        <v>7.2036319932654322</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="18"/>
-        <v>8.3006491578097066</v>
+        <v>7.8668452397101634</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
       <c r="V24" s="5" cm="1">
         <f t="array" ref="V24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G24</f>
-        <v>15410.621414788413</v>
+        <v>15940.721414788413</v>
       </c>
       <c r="W24" s="5" cm="1">
         <f t="array" ref="W24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H24</f>
-        <v>14909.57535641608</v>
+        <v>15557.475356416082</v>
       </c>
       <c r="X24" s="5" cm="1">
         <f t="array" ref="X24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I24</f>
-        <v>14371.837333283103</v>
+        <v>15125.757333283105</v>
       </c>
       <c r="Z24">
         <v>10</v>
       </c>
       <c r="AA24" s="5" cm="1">
         <f t="array" ref="AA24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G24</f>
-        <v>47057.615668644539</v>
+        <v>47587.715668644538</v>
       </c>
       <c r="AB24" s="5" cm="1">
         <f t="array" ref="AB24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H24</f>
-        <v>48321.18852616084</v>
+        <v>48969.088526160842</v>
       </c>
       <c r="AC24" s="5" cm="1">
         <f t="array" ref="AC24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I24</f>
-        <v>49255.129782014621</v>
+        <v>50009.049782014627</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2827,75 +2829,75 @@
       </c>
       <c r="G25" s="8">
         <f t="shared" si="19"/>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="19"/>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="19"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K25">
         <v>20</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="20"/>
-        <v>0.12485239494199413</v>
+        <v>0.13351310164566091</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="15"/>
-        <v>0.10783011283172997</v>
+        <v>0.11531002526346817</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="16"/>
-        <v>9.6777059094216231E-2</v>
+        <v>0.10349024809509876</v>
       </c>
       <c r="P25">
         <v>20</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="21"/>
-        <v>6.7509914597141742</v>
+        <v>6.3840239671515375</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="17"/>
-        <v>7.6130578236340289</v>
+        <v>7.2082095958220513</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="18"/>
-        <v>8.3038002646271032</v>
+        <v>7.8698661491302326</v>
       </c>
       <c r="U25">
         <v>20</v>
       </c>
       <c r="V25" s="5" cm="1">
         <f t="array" ref="V25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G25</f>
-        <v>15396.227177427452</v>
+        <v>15926.327177427453</v>
       </c>
       <c r="W25" s="5" cm="1">
         <f t="array" ref="W25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H25</f>
-        <v>14890.275544344528</v>
+        <v>15538.175544344529</v>
       </c>
       <c r="X25" s="5" cm="1">
         <f t="array" ref="X25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I25</f>
-        <v>14359.440891709906</v>
+        <v>15113.360891709908</v>
       </c>
       <c r="Z25">
         <v>20</v>
       </c>
       <c r="AA25" s="5" cm="1">
         <f t="array" ref="AA25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G25</f>
-        <v>47023.904904124072</v>
+        <v>47554.004904124071</v>
       </c>
       <c r="AB25" s="5" cm="1">
         <f t="array" ref="AB25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H25</f>
-        <v>48275.989089489223</v>
+        <v>48923.889089489225</v>
       </c>
       <c r="AC25" s="5" cm="1">
         <f t="array" ref="AC25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I25</f>
-        <v>49226.097780367971</v>
+        <v>49980.017780367969</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2916,75 +2918,75 @@
       </c>
       <c r="G26" s="8">
         <f t="shared" si="19"/>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="19"/>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="19"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K26">
         <v>30</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="20"/>
-        <v>0.12406904568846831</v>
+        <v>0.13267541336135819</v>
       </c>
       <c r="M26" s="6">
         <f t="shared" si="15"/>
-        <v>0.10706979593431407</v>
+        <v>0.11449696703375008</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" si="16"/>
-        <v>9.6056704835099704E-2</v>
+        <v>0.10271992461461611</v>
       </c>
       <c r="P26">
         <v>30</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="21"/>
-        <v>6.7863008760791095</v>
+        <v>6.4177464312030006</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="17"/>
-        <v>7.6568116367071815</v>
+        <v>7.2500881170485316</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="18"/>
-        <v>8.3532776052349984</v>
+        <v>7.9173021392169218</v>
       </c>
       <c r="U26">
         <v>30</v>
       </c>
       <c r="V26" s="5" cm="1">
         <f t="array" ref="V26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G26</f>
-        <v>15248.355339046284</v>
+        <v>15778.455339046284</v>
       </c>
       <c r="W26" s="5" cm="1">
         <f t="array" ref="W26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H26</f>
-        <v>14714.857261100668</v>
+        <v>15362.757261100669</v>
       </c>
       <c r="X26" s="5" cm="1">
         <f t="array" ref="X26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I26</f>
-        <v>14166.046610862726</v>
+        <v>14919.966610862728</v>
       </c>
       <c r="Z26">
         <v>30</v>
       </c>
       <c r="AA26" s="5" cm="1">
         <f t="array" ref="AA26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G26</f>
-        <v>46677.594599668839</v>
+        <v>47207.694599668837</v>
       </c>
       <c r="AB26" s="5" cm="1">
         <f t="array" ref="AB26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H26</f>
-        <v>47865.166043382211</v>
+        <v>48513.066043382212</v>
       </c>
       <c r="AC26" s="5" cm="1">
         <f t="array" ref="AC26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I26</f>
-        <v>48773.175621468115</v>
+        <v>49527.095621468121</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3005,75 +3007,75 @@
       </c>
       <c r="G27" s="8">
         <f t="shared" si="19"/>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="19"/>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="19"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K27">
         <v>40</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="20"/>
-        <v>0.12258676388416531</v>
+        <v>0.1310903092766719</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="15"/>
-        <v>0.10565370541410021</v>
+        <v>0.11298264576139797</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="16"/>
-        <v>9.4706692352960392E-2</v>
+        <v>0.10127626505298322</v>
       </c>
       <c r="P27">
         <v>40</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="21"/>
-        <v>6.8541485374859343</v>
+        <v>6.48255333411874</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="17"/>
-        <v>7.7396804493760492</v>
+        <v>7.3294174813984494</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="18"/>
-        <v>8.447639979047592</v>
+        <v>8.007786639465758</v>
       </c>
       <c r="U27">
         <v>40</v>
       </c>
       <c r="V27" s="5" cm="1">
         <f t="array" ref="V27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G27</f>
-        <v>14968.546895475694</v>
+        <v>15498.646895475695</v>
       </c>
       <c r="W27" s="5" cm="1">
         <f t="array" ref="W27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H27</f>
-        <v>14388.140639626006</v>
+        <v>15036.040639626008</v>
       </c>
       <c r="X27" s="5" cm="1">
         <f t="array" ref="X27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I27</f>
-        <v>13803.607311290514</v>
+        <v>14557.527311290516</v>
       </c>
       <c r="Z27">
         <v>40</v>
       </c>
       <c r="AA27" s="5" cm="1">
         <f t="array" ref="AA27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G27</f>
-        <v>46022.293709770551</v>
+        <v>46552.393709770549</v>
       </c>
       <c r="AB27" s="5" cm="1">
         <f t="array" ref="AB27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H27</f>
-        <v>47100.007958569448</v>
+        <v>47747.907958569449</v>
       </c>
       <c r="AC27" s="5" cm="1">
         <f t="array" ref="AC27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I27</f>
-        <v>47924.35636314626</v>
+        <v>48678.276363146259</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3094,75 +3096,75 @@
       </c>
       <c r="G28" s="8">
         <f t="shared" si="19"/>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="19"/>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="19"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K28">
         <v>50</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="20"/>
-        <v>0.12044504056051542</v>
+        <v>0.12880001981974798</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="15"/>
-        <v>0.10367874190354136</v>
+        <v>0.11087068383984873</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="16"/>
-        <v>9.2834712387618284E-2</v>
+        <v>9.9274430394485247E-2</v>
       </c>
       <c r="P28">
         <v>50</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="21"/>
-        <v>6.9546439259745343</v>
+        <v>6.578565486282125</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="17"/>
-        <v>7.8583467215669032</v>
+        <v>7.4430432922894525</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="18"/>
-        <v>8.5821424018752097</v>
+        <v>8.1367962699375393</v>
       </c>
       <c r="U28">
         <v>50</v>
       </c>
       <c r="V28" s="5" cm="1">
         <f t="array" ref="V28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G28</f>
-        <v>14564.256518295286</v>
+        <v>15094.356518295286</v>
       </c>
       <c r="W28" s="5" cm="1">
         <f t="array" ref="W28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H28</f>
-        <v>13932.482334952034</v>
+        <v>14580.382334952035</v>
       </c>
       <c r="X28" s="5" cm="1">
         <f t="array" ref="X28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I28</f>
-        <v>13301.034841459244</v>
+        <v>14054.954841459246</v>
       </c>
       <c r="Z28">
         <v>50</v>
       </c>
       <c r="AA28" s="5" cm="1">
         <f t="array" ref="AA28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G28</f>
-        <v>45075.460795928193</v>
+        <v>45605.560795928192</v>
       </c>
       <c r="AB28" s="5" cm="1">
         <f t="array" ref="AB28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H28</f>
-        <v>46032.873283389177</v>
+        <v>46680.773283389179</v>
       </c>
       <c r="AC28" s="5" cm="1">
         <f t="array" ref="AC28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I28</f>
-        <v>46747.350471128826</v>
+        <v>47501.270471128824</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3183,75 +3185,75 @@
       </c>
       <c r="G29" s="8">
         <f t="shared" si="19"/>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="19"/>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="19"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K29">
         <v>60</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="20"/>
-        <v>0.11776640034505483</v>
+        <v>0.1259355688532679</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="15"/>
-        <v>0.10124533388500712</v>
+        <v>0.10826847623081672</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="16"/>
-        <v>9.0563359270551161E-2</v>
+        <v>9.6845519040938022E-2</v>
       </c>
       <c r="P29">
         <v>60</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="21"/>
-        <v>7.0846160072224498</v>
+        <v>6.7027758143446627</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="17"/>
-        <v>8.0097483508531013</v>
+        <v>7.5880614862412292</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="18"/>
-        <v>8.7513269897393844</v>
+        <v>8.2991291651832597</v>
       </c>
       <c r="U29">
         <v>60</v>
       </c>
       <c r="V29" s="5" cm="1">
         <f t="array" ref="V29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G29</f>
-        <v>14058.613025001476</v>
+        <v>14588.713025001476</v>
       </c>
       <c r="W29" s="5" cm="1">
         <f t="array" ref="W29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H29</f>
-        <v>13371.052938217708</v>
+        <v>14018.95293821771</v>
       </c>
       <c r="X29" s="5" cm="1">
         <f t="array" ref="X29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I29</f>
-        <v>12691.242233078003</v>
+        <v>13445.162233078005</v>
       </c>
       <c r="Z29">
         <v>60</v>
       </c>
       <c r="AA29" s="5" cm="1">
         <f t="array" ref="AA29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G29</f>
-        <v>43891.262682038468</v>
+        <v>44421.362682038467</v>
       </c>
       <c r="AB29" s="5" cm="1">
         <f t="array" ref="AB29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H29</f>
-        <v>44718.026674043562</v>
+        <v>45365.926674043563</v>
       </c>
       <c r="AC29" s="5" cm="1">
         <f t="array" ref="AC29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I29</f>
-        <v>45319.23903236584</v>
+        <v>46073.159032365846</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -3272,75 +3274,75 @@
       </c>
       <c r="G30" s="8">
         <f t="shared" si="19"/>
-        <v>8172</v>
+        <v>7641.9</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="19"/>
-        <v>9988</v>
+        <v>9340.0999999999985</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="19"/>
-        <v>11622.400000000001</v>
+        <v>10868.48</v>
       </c>
       <c r="K30">
         <v>70</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="20"/>
-        <v>0.11454664040305128</v>
+        <v>0.12249246200208523</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="15"/>
-        <v>9.8297774886345821E-2</v>
+        <v>0.10511645223978568</v>
       </c>
       <c r="N30" s="6">
         <f t="shared" si="16"/>
-        <v>8.7794174469578212E-2</v>
+        <v>9.3884242631465123E-2</v>
       </c>
       <c r="P30">
         <v>70</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="21"/>
-        <v>7.2475154188426538</v>
+        <v>6.858511484515927</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="17"/>
-        <v>8.2012861226816458</v>
+        <v>7.7715992706465009</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="18"/>
-        <v>8.9670420607146628</v>
+        <v>8.5062001259894267</v>
       </c>
       <c r="U30">
         <v>70</v>
       </c>
       <c r="V30" s="5" cm="1">
         <f t="array" ref="V30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G30</f>
-        <v>13450.823051848172</v>
+        <v>13980.923051848173</v>
       </c>
       <c r="W30" s="5" cm="1">
         <f t="array" ref="W30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H30</f>
-        <v>12691.000000998403</v>
+        <v>13338.900000998405</v>
       </c>
       <c r="X30" s="5" cm="1">
         <f t="array" ref="X30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I30</f>
-        <v>11947.796218371404</v>
+        <v>12701.716218371406</v>
       </c>
       <c r="Z30">
         <v>70</v>
       </c>
       <c r="AA30" s="5" cm="1">
         <f t="array" ref="AA30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G30</f>
-        <v>42467.841339936829</v>
+        <v>42997.941339936828</v>
       </c>
       <c r="AB30" s="5" cm="1">
         <f t="array" ref="AB30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H30</f>
-        <v>43125.368177927339</v>
+        <v>43773.268177927341</v>
       </c>
       <c r="AC30" s="5" cm="1">
         <f t="array" ref="AC30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I30</f>
-        <v>43578.116324231181</v>
+        <v>44332.036324231187</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -3353,15 +3355,17 @@
         <v>0</v>
       </c>
       <c r="B32" s="3">
-        <v>7775</v>
+        <f>12500*0.7-0.15*13500</f>
+        <v>6725</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="3">
-        <v>1.8160000000000001</v>
+      <c r="B33" s="9">
+        <f>2.426*0.7</f>
+        <v>1.6981999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3370,7 +3374,7 @@
       </c>
       <c r="B34" s="3">
         <f>B33*1000</f>
-        <v>1816</v>
+        <v>1698.1999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">

--- a/output/250812_all_costs.xlsx
+++ b/output/250812_all_costs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ischillebeeckx/Development/solar/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36E975-AEC4-164E-BDF6-37D0EFD38A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC80ABF-45A3-4E42-9AE9-051A9ADC370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="3380" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -600,7 +600,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -978,14 +978,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F96193-E8D3-004D-AB57-E6723CF263D7}">
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.1640625" customWidth="1"/>
@@ -993,7 +994,7 @@
     <col min="27" max="29" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>4.5</v>
       </c>
@@ -1038,6 +1039,9 @@
       <c r="I2">
         <v>6.4</v>
       </c>
+      <c r="J2">
+        <v>7.5</v>
+      </c>
       <c r="L2">
         <v>4.5</v>
       </c>
@@ -1047,6 +1051,9 @@
       <c r="N2">
         <v>6.4</v>
       </c>
+      <c r="O2">
+        <v>7.5</v>
+      </c>
       <c r="Q2">
         <v>4.5</v>
       </c>
@@ -1056,6 +1063,9 @@
       <c r="S2">
         <v>6.4</v>
       </c>
+      <c r="T2">
+        <v>7.5</v>
+      </c>
       <c r="V2">
         <v>4.5</v>
       </c>
@@ -1065,6 +1075,9 @@
       <c r="X2">
         <v>6.4</v>
       </c>
+      <c r="Y2">
+        <v>7.5</v>
+      </c>
       <c r="AA2">
         <v>4.5</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="AC2">
         <v>6.4</v>
       </c>
+      <c r="AD2">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1093,78 +1109,78 @@
       </c>
       <c r="G3" s="7">
         <f>$B$1*$B$32+$B$34*G$2</f>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:I3" si="0">$B$1*$B$32+$B$34*H$2</f>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" s="6">
         <f>($B$35-B3)/G3</f>
-        <v>8.0534006782766746E-2</v>
+        <v>4.2474461097863465E-2</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" ref="M3:N10" si="1">($B$35-C3)/H3</f>
-        <v>7.794747815993773E-2</v>
+        <v>4.2117137268847617E-2</v>
       </c>
       <c r="N3" s="6">
         <f t="shared" si="1"/>
-        <v>7.5800290458865383E-2</v>
+        <v>4.1741192872498771E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" s="4">
         <f>LN(1+(G3*$B$36/($B$35-B3)))/LN(1+$B$36)</f>
-        <v>9.5879314314175481</v>
+        <v>15.192379589235607</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:S10" si="2">LN(1+(H3*$B$36/($B$35-C3)))/LN(1+$B$36)</f>
-        <v>9.8309914231959166</v>
+        <v>15.278218631625604</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="2"/>
-        <v>10.042591533065771</v>
+        <v>15.369651592691268</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" s="5" cm="1">
         <f t="array" ref="V3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G3</f>
-        <v>18145.180982430713</v>
+        <v>-561.18071326741483</v>
       </c>
       <c r="W3" s="5" cm="1">
         <f t="array" ref="W3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H3</f>
-        <v>18244.47881353728</v>
+        <v>-863.68288216085057</v>
       </c>
       <c r="X3" s="5" cm="1">
         <f t="array" ref="X3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I3</f>
-        <v>18261.845443824819</v>
+        <v>-1207.9362518733105</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3" s="5" cm="1">
         <f t="array" ref="AA3">SUMPRODUCT(($B$35-B3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G3</f>
-        <v>70799.8733742779</v>
+        <v>38609.121010051778</v>
       </c>
       <c r="AB3" s="5" cm="1">
         <f t="array" ref="AB3">SUMPRODUCT(($B$35-C3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H3</f>
-        <v>73311.345939134626</v>
+        <v>40718.793574908515</v>
       </c>
       <c r="AC3" s="5" cm="1">
         <f t="array" ref="AC3">SUMPRODUCT(($B$35-D3) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I3</f>
-        <v>75403.04662526006</v>
+        <v>42448.87426103394</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1182,78 +1198,78 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" ref="G4:I10" si="3">$B$1*$B$32+$B$34*G$2</f>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="3"/>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="3"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K4">
         <v>10</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L10" si="4">($B$35-B4)/G4</f>
-        <v>8.2741473671401056E-2</v>
+        <v>4.4039492051422657E-2</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" si="1"/>
-        <v>8.03287839786027E-2</v>
+        <v>4.3821068124042489E-2</v>
       </c>
       <c r="N4" s="6">
         <f t="shared" si="1"/>
-        <v>7.8017508396286739E-2</v>
+        <v>4.3339277343951724E-2</v>
       </c>
       <c r="P4">
         <v>10</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" ref="Q4:Q10" si="5">LN(1+(G4*$B$36/($B$35-B4)))/LN(1+$B$36)</f>
-        <v>9.3900251728035684</v>
+        <v>14.828165144174582</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="2"/>
-        <v>9.6067656381930142</v>
+        <v>14.877881806833997</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="2"/>
-        <v>9.8242441094091184</v>
+        <v>14.988804563923763</v>
       </c>
       <c r="U4">
         <v>10</v>
       </c>
       <c r="V4" s="5" cm="1">
         <f t="array" ref="V4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G4</f>
-        <v>19220.683872893045</v>
+        <v>514.32217719492473</v>
       </c>
       <c r="W4" s="5" cm="1">
         <f t="array" ref="W4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H4</f>
-        <v>19498.090650659746</v>
+        <v>389.92895496161509</v>
       </c>
       <c r="X4" s="5" cm="1">
         <f t="array" ref="X4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I4</f>
-        <v>19507.3533539366</v>
+        <v>37.571658238477539</v>
       </c>
       <c r="Z4">
         <v>10</v>
       </c>
       <c r="AA4" s="5" cm="1">
         <f t="array" ref="AA4">SUMPRODUCT(($B$35-B4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G4</f>
-        <v>73318.660842642304</v>
+        <v>41127.908478416197</v>
       </c>
       <c r="AB4" s="5" cm="1">
         <f t="array" ref="AB4">SUMPRODUCT(($B$35-C4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H4</f>
-        <v>76247.257886502775</v>
+        <v>43654.705522276665</v>
       </c>
       <c r="AC4" s="5" cm="1">
         <f t="array" ref="AC4">SUMPRODUCT(($B$35-D4) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I4</f>
-        <v>78319.979479238435</v>
+        <v>45365.807115012314</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1271,78 +1287,78 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" si="3"/>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="3"/>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="3"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="4"/>
-        <v>8.4376075989991722E-2</v>
+        <v>4.5198378392380056E-2</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="1"/>
-        <v>8.1785764287703941E-2</v>
+        <v>4.4863602721921553E-2</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>7.9043447310320647E-2</v>
+        <v>4.4078734218941505E-2</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="5"/>
-        <v>9.2487843421556786</v>
+        <v>14.570159374998569</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="2"/>
-        <v>9.4746708025228248</v>
+        <v>14.643710672568785</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="2"/>
-        <v>9.7264745917782474</v>
+        <v>14.819270300388423</v>
       </c>
       <c r="U5">
         <v>20</v>
       </c>
       <c r="V5" s="5" cm="1">
         <f t="array" ref="V5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G5</f>
-        <v>20017.080651233096</v>
+        <v>1310.7189555349687</v>
       </c>
       <c r="W5" s="5" cm="1">
         <f t="array" ref="W5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H5</f>
-        <v>20265.101652618177</v>
+        <v>1156.9399569200468</v>
       </c>
       <c r="X5" s="5" cm="1">
         <f t="array" ref="X5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I5</f>
-        <v>20083.667937701346</v>
+        <v>613.88624200321647</v>
       </c>
       <c r="Z5">
         <v>20</v>
       </c>
       <c r="AA5" s="5" cm="1">
         <f t="array" ref="AA5">SUMPRODUCT(($B$35-B5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G5</f>
-        <v>75183.792255042674</v>
+        <v>42993.039890816566</v>
       </c>
       <c r="AB5" s="5" cm="1">
         <f t="array" ref="AB5">SUMPRODUCT(($B$35-C5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H5</f>
-        <v>78043.568911757233</v>
+        <v>45451.016547531122</v>
       </c>
       <c r="AC5" s="5" cm="1">
         <f t="array" ref="AC5">SUMPRODUCT(($B$35-D5) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I5</f>
-        <v>79669.686638833591</v>
+        <v>46715.514274607471</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1360,78 +1376,78 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="3"/>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="3"/>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="3"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K6">
         <v>30</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="4"/>
-        <v>8.538241229057926E-2</v>
+        <v>4.5911842077030883E-2</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="1"/>
-        <v>8.2395603964891928E-2</v>
+        <v>4.5299970295770278E-2</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>7.9250280104674622E-2</v>
+        <v>4.4227811254295431E-2</v>
       </c>
       <c r="P6">
         <v>30</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="5"/>
-        <v>9.1639716614417637</v>
+        <v>14.415985289769242</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="2"/>
-        <v>9.4204788571292539</v>
+        <v>14.547993567686957</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="2"/>
-        <v>9.7070051915465569</v>
+        <v>14.785582477552362</v>
       </c>
       <c r="U6">
         <v>30</v>
       </c>
       <c r="V6" s="5" cm="1">
         <f t="array" ref="V6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G6</f>
-        <v>20507.379104012442</v>
+        <v>1801.0174083143211</v>
       </c>
       <c r="W6" s="5" cm="1">
         <f t="array" ref="W6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H6</f>
-        <v>20586.144935709977</v>
+        <v>1477.9832400118466</v>
       </c>
       <c r="X6" s="5" cm="1">
         <f t="array" ref="X6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I6</f>
-        <v>20199.854929106452</v>
+        <v>730.07323340831499</v>
       </c>
       <c r="Z6">
         <v>30</v>
       </c>
       <c r="AA6" s="5" cm="1">
         <f t="array" ref="AA6">SUMPRODUCT(($B$35-B6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G6</f>
-        <v>76332.05285905482</v>
+        <v>44141.300494828698</v>
       </c>
       <c r="AB6" s="5" cm="1">
         <f t="array" ref="AB6">SUMPRODUCT(($B$35-C6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H6</f>
-        <v>78795.440250667889</v>
+        <v>46202.887886441764</v>
       </c>
       <c r="AC6" s="5" cm="1">
         <f t="array" ref="AC6">SUMPRODUCT(($B$35-D6) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I6</f>
-        <v>79941.792218961156</v>
+        <v>46987.619854735007</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1449,78 +1465,78 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="3"/>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="3"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K7">
         <v>40</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="4"/>
-        <v>8.567112677808307E-2</v>
+        <v>4.6116532399685731E-2</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="1"/>
-        <v>8.2298724128631193E-2</v>
+        <v>4.5230648438427556E-2</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>7.9023300040863248E-2</v>
+        <v>4.4064212850555187E-2</v>
       </c>
       <c r="P7">
         <v>40</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="5"/>
-        <v>9.1399321045871904</v>
+        <v>14.372387327545693</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>9.4290453920481276</v>
+        <v>14.563110805406632</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>9.7283753593727926</v>
+        <v>14.822560474922033</v>
       </c>
       <c r="U7">
         <v>40</v>
       </c>
       <c r="V7" s="5" cm="1">
         <f t="array" ref="V7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G7</f>
-        <v>20648.044074992278</v>
+        <v>1941.6823792941686</v>
       </c>
       <c r="W7" s="5" cm="1">
         <f t="array" ref="W7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H7</f>
-        <v>20535.143628543541</v>
+        <v>1426.9819328454178</v>
       </c>
       <c r="X7" s="5" cm="1">
         <f t="array" ref="X7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I7</f>
-        <v>20072.350338717126</v>
+        <v>602.56864301901078</v>
       </c>
       <c r="Z7">
         <v>40</v>
       </c>
       <c r="AA7" s="5" cm="1">
         <f t="array" ref="AA7">SUMPRODUCT(($B$35-B7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G7</f>
-        <v>76661.484950110898</v>
+        <v>44470.732585884791</v>
       </c>
       <c r="AB7" s="5" cm="1">
         <f t="array" ref="AB7">SUMPRODUCT(($B$35-C7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H7</f>
-        <v>78675.997100398148</v>
+        <v>46083.444736172038</v>
       </c>
       <c r="AC7" s="5" cm="1">
         <f t="array" ref="AC7">SUMPRODUCT(($B$35-D7) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I7</f>
-        <v>79643.181246104083</v>
+        <v>46689.008881877991</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1538,78 +1554,78 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="3"/>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="3"/>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="3"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="4"/>
-        <v>8.5395828203116378E-2</v>
+        <v>4.5921353575707917E-2</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="1"/>
-        <v>8.1849190550793205E-2</v>
+        <v>4.4908987050914666E-2</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>7.8521450815122074E-2</v>
+        <v>4.3702499443347059E-2</v>
       </c>
       <c r="P8">
         <v>50</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="5"/>
-        <v>9.1628517320199983</v>
+        <v>14.413953201835337</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="2"/>
-        <v>9.469004836518284</v>
+        <v>14.633693586472488</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="2"/>
-        <v>9.7759688329329784</v>
+        <v>14.90501814281285</v>
       </c>
       <c r="U8">
         <v>50</v>
       </c>
       <c r="V8" s="5" cm="1">
         <f t="array" ref="V8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G8</f>
-        <v>20513.915488674051</v>
+        <v>1807.5537929759266</v>
       </c>
       <c r="W8" s="5" cm="1">
         <f t="array" ref="W8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H8</f>
-        <v>20298.491700032464</v>
+        <v>1190.3300043343334</v>
       </c>
       <c r="X8" s="5" cm="1">
         <f t="array" ref="X8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I8</f>
-        <v>19790.439765203078</v>
+        <v>320.65806950495607</v>
       </c>
       <c r="Z8">
         <v>50</v>
       </c>
       <c r="AA8" s="5" cm="1">
         <f t="array" ref="AA8">SUMPRODUCT(($B$35-B8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G8</f>
-        <v>76347.360827001772</v>
+        <v>44156.608462775679</v>
       </c>
       <c r="AB8" s="5" cm="1">
         <f t="array" ref="AB8">SUMPRODUCT(($B$35-C8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H8</f>
-        <v>78121.767151614185</v>
+        <v>45529.21478738806</v>
       </c>
       <c r="AC8" s="5" cm="1">
         <f t="array" ref="AC8">SUMPRODUCT(($B$35-D8) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I8</f>
-        <v>78982.957246648919</v>
+        <v>46028.784882422828</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -1627,78 +1643,78 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" si="3"/>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="3"/>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="3"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K9">
         <v>60</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="4"/>
-        <v>8.4572275379630163E-2</v>
+        <v>4.5337478153936864E-2</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="1"/>
-        <v>8.1146898912298385E-2</v>
+        <v>4.4406465962360163E-2</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>7.7724090541310908E-2</v>
+        <v>4.3127793163813238E-2</v>
       </c>
       <c r="P9">
         <v>60</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="5"/>
-        <v>9.2321230848037139</v>
+        <v>14.539827935639837</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="2"/>
-        <v>9.5321314689770578</v>
+        <v>14.745423857947806</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="2"/>
-        <v>9.8525782155501478</v>
+        <v>15.03805074842376</v>
       </c>
       <c r="U9">
         <v>60</v>
       </c>
       <c r="V9" s="5" cm="1">
         <f t="array" ref="V9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G9</f>
-        <v>20112.671217845687</v>
+        <v>1406.3095221475633</v>
       </c>
       <c r="W9" s="5" cm="1">
         <f t="array" ref="W9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H9</f>
-        <v>19928.778115062167</v>
+        <v>820.61641936404703</v>
       </c>
       <c r="X9" s="5" cm="1">
         <f t="array" ref="X9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I9</f>
-        <v>19342.527761841015</v>
+        <v>-127.25393385710777</v>
       </c>
       <c r="Z9">
         <v>60</v>
       </c>
       <c r="AA9" s="5" cm="1">
         <f t="array" ref="AA9">SUMPRODUCT(($B$35-B9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G9</f>
-        <v>75407.661780092603</v>
+        <v>43216.90941586651</v>
       </c>
       <c r="AB9" s="5" cm="1">
         <f t="array" ref="AB9">SUMPRODUCT(($B$35-C9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H9</f>
-        <v>77255.911789471051</v>
+        <v>44663.35942524494</v>
       </c>
       <c r="AC9" s="5" cm="1">
         <f t="array" ref="AC9">SUMPRODUCT(($B$35-D9) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I9</f>
-        <v>77933.964118872784</v>
+        <v>44979.791754646678</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
@@ -1716,78 +1732,78 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="3"/>
-        <v>21091.9</v>
+        <v>29750</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="3"/>
-        <v>22790.1</v>
+        <v>31850</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="3"/>
-        <v>24318.48</v>
+        <v>33740</v>
       </c>
       <c r="K10">
         <v>70</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="4"/>
-        <v>8.30876512390301E-2</v>
+        <v>4.4284922056083996E-2</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="1"/>
-        <v>7.9968192758480203E-2</v>
+        <v>4.3563048972842681E-2</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>7.6744761436316838E-2</v>
+        <v>4.2421930826729175E-2</v>
       </c>
       <c r="P10">
         <v>70</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="5"/>
-        <v>9.3597455957514111</v>
+        <v>14.772719746105425</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="2"/>
-        <v>9.6400430974652771</v>
+        <v>14.937068223425012</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="2"/>
-        <v>9.9483746409392637</v>
+        <v>15.204934499363926</v>
       </c>
       <c r="U10">
         <v>70</v>
       </c>
       <c r="V10" s="5" cm="1">
         <f t="array" ref="V10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G10</f>
-        <v>19389.345507871672</v>
+        <v>682.983812173552</v>
       </c>
       <c r="W10" s="5" cm="1">
         <f t="array" ref="W10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H10</f>
-        <v>19308.261432436346</v>
+        <v>200.09973673822242</v>
       </c>
       <c r="X10" s="5" cm="1">
         <f t="array" ref="X10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I10</f>
-        <v>18792.395938403122</v>
+        <v>-677.38575729500008</v>
       </c>
       <c r="Z10">
         <v>70</v>
       </c>
       <c r="AA10" s="5" cm="1">
         <f t="array" ref="AA10">SUMPRODUCT(($B$35-B10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G10</f>
-        <v>73713.660071696359</v>
+        <v>41522.907707470251</v>
       </c>
       <c r="AB10" s="5" cm="1">
         <f t="array" ref="AB10">SUMPRODUCT(($B$35-C10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H10</f>
-        <v>75802.684970678296</v>
+        <v>43210.132606452185</v>
       </c>
       <c r="AC10" s="5" cm="1">
         <f t="array" ref="AC10">SUMPRODUCT(($B$35-D10) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I10</f>
-        <v>76645.576002846297</v>
+        <v>43691.403638620191</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1795,16 +1811,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>4.5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>5.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>6.4</v>
+      </c>
+      <c r="E12">
+        <v>7.5</v>
       </c>
       <c r="G12">
         <v>4.5</v>
@@ -1815,6 +1833,9 @@
       <c r="I12">
         <v>6.4</v>
       </c>
+      <c r="J12">
+        <v>7.5</v>
+      </c>
       <c r="L12">
         <v>4.5</v>
       </c>
@@ -1824,6 +1845,9 @@
       <c r="N12">
         <v>6.4</v>
       </c>
+      <c r="O12">
+        <v>7.5</v>
+      </c>
       <c r="Q12">
         <v>4.5</v>
       </c>
@@ -1833,6 +1857,9 @@
       <c r="S12">
         <v>6.4</v>
       </c>
+      <c r="T12">
+        <v>7.5</v>
+      </c>
       <c r="V12">
         <v>4.5</v>
       </c>
@@ -1842,6 +1869,9 @@
       <c r="X12">
         <v>6.4</v>
       </c>
+      <c r="Y12">
+        <v>7.5</v>
+      </c>
       <c r="AA12">
         <v>4.5</v>
       </c>
@@ -1851,9 +1881,12 @@
       <c r="AC12">
         <v>6.4</v>
       </c>
+      <c r="AD12">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
@@ -1865,84 +1898,95 @@
       <c r="D13">
         <v>62.981046197672697</v>
       </c>
+      <c r="E13">
+        <v>0.605406871892469</v>
+      </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="7">
         <f>$B$11*$B$32+$B$34*G$12</f>
-        <v>14366.9</v>
+        <v>19600</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" ref="H13:I13" si="6">$B$11*$B$32+$B$34*H$12</f>
-        <v>16065.099999999999</v>
+        <f t="shared" ref="H13:J13" si="6">$B$11*$B$32+$B$34*H$12</f>
+        <v>21700</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="6"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="6"/>
+        <v>25900</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" s="6">
         <f>($B$35-B13)/G13</f>
-        <v>0.11609864003072815</v>
+        <v>6.2907017931503467E-2</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" ref="M13:M20" si="7">($B$35-C13)/H13</f>
-        <v>0.10874613815263673</v>
+        <v>6.0461639817323692E-2</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" ref="N13:N20" si="8">($B$35-D13)/I13</f>
-        <v>0.10265274145889997</v>
+        <f t="shared" ref="N13:O20" si="8">($B$35-D13)/I13</f>
+        <v>5.8118650012815909E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="8"/>
+        <v>5.5343420584096817E-2</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <f>LN(1+(G13*$B$36/($B$35-B13)))/LN(1+$B$36)</f>
-        <v>7.1680561719300417</v>
+        <v>11.541214249638806</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13:R20" si="9">LN(1+(H13*$B$36/($B$35-C13)))/LN(1+$B$36)</f>
-        <v>7.5610133856901074</v>
+        <v>11.87937917829316</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ref="S13:S20" si="10">LN(1+(I13*$B$36/($B$35-D13)))/LN(1+$B$36)</f>
-        <v>7.9214668219068001</v>
+        <v>12.223289986248943</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" s="5" cm="1">
         <f t="array" ref="V13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G13</f>
-        <v>24162.46767722856</v>
+        <v>8881.1059815304288</v>
       </c>
       <c r="W13" s="5" cm="1">
         <f t="array" ref="W13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H13</f>
-        <v>24290.049129607483</v>
+        <v>8606.8874339093563</v>
       </c>
       <c r="X13" s="5" cm="1">
         <f t="array" ref="X13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I13</f>
-        <v>24124.568448728107</v>
+        <v>8079.7867530299773</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" s="5" cm="1">
         <f t="array" ref="AA13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G13</f>
-        <v>75867.435332831417</v>
+        <v>47101.682968605281</v>
       </c>
       <c r="AB13" s="5" cm="1">
         <f t="array" ref="AB13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H13</f>
-        <v>78445.147078867973</v>
+        <v>49277.594714641877</v>
       </c>
       <c r="AC13" s="5" cm="1">
         <f t="array" ref="AC13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I13</f>
-        <v>80108.626213870142</v>
+        <v>50579.453849644007</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1954,84 +1998,95 @@
       <c r="D14">
         <v>33.5671061618674</v>
       </c>
+      <c r="E14">
+        <v>-21.206269581436</v>
+      </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:I20" si="11">$B$11*$B$32+$B$34*G$12</f>
-        <v>14366.9</v>
+        <f t="shared" ref="G14:J20" si="11">$B$11*$B$32+$B$34*G$12</f>
+        <v>19600</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="11"/>
-        <v>16065.099999999999</v>
+        <v>21700</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="11"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="11"/>
+        <v>25900</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" ref="L14:L20" si="12">($B$35-B14)/G14</f>
-        <v>0.11911528260202368</v>
+        <v>6.5118232327296632E-2</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="7"/>
-        <v>0.11102757394661571</v>
+        <v>6.2150648765427453E-2</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="8"/>
-        <v>0.10432460740218154</v>
+        <v>5.9365531743880151E-2</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="8"/>
+        <v>5.6185570254109495E-2</v>
       </c>
       <c r="P14">
         <v>10</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ref="Q14:Q20" si="13">LN(1+(G14*$B$36/($B$35-B14)))/LN(1+$B$36)</f>
-        <v>7.0185563475600503</v>
+        <v>11.252146040147675</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="9"/>
-        <v>7.4344796146099101</v>
+        <v>11.643659311112925</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="10"/>
-        <v>7.819134632090063</v>
+        <v>12.037731824187643</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
       <c r="V14" s="5" cm="1">
         <f t="array" ref="V14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G14</f>
-        <v>25163.593364398221</v>
+        <v>9882.2316687001003</v>
       </c>
       <c r="W14" s="5" cm="1">
         <f t="array" ref="W14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H14</f>
-        <v>25136.678566382696</v>
+        <v>9453.5168706845652</v>
       </c>
       <c r="X14" s="5" cm="1">
         <f t="array" ref="X14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I14</f>
-        <v>24804.014349834648</v>
+        <v>8759.2326541365219</v>
       </c>
       <c r="Z14">
         <v>10</v>
       </c>
       <c r="AA14" s="5" cm="1">
         <f t="array" ref="AA14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G14</f>
-        <v>78212.034178136848</v>
+        <v>49446.281813910726</v>
       </c>
       <c r="AB14" s="5" cm="1">
         <f t="array" ref="AB14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H14</f>
-        <v>80427.921495012124</v>
+        <v>51260.369130786028</v>
       </c>
       <c r="AC14" s="5" cm="1">
         <f t="array" ref="AC14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I14</f>
-        <v>81699.863054157016</v>
+        <v>52170.690689930911</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>20</v>
       </c>
       <c r="B15">
@@ -2043,84 +2098,95 @@
       <c r="D15">
         <v>22.188682014190402</v>
       </c>
+      <c r="E15">
+        <v>-29.476967365342801</v>
+      </c>
       <c r="F15">
         <v>20</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="11"/>
-        <v>14366.9</v>
+        <v>19600</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="11"/>
-        <v>16065.099999999999</v>
+        <v>21700</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="11"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="11"/>
+        <v>25900</v>
       </c>
       <c r="K15">
         <v>20</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="12"/>
-        <v>0.12074164789217347</v>
+        <v>6.6310366382758515E-2</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="7"/>
-        <v>0.11191556036903248</v>
+        <v>6.2808049257352241E-2</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="8"/>
-        <v>0.10497134836233706</v>
+        <v>5.9847872742086035E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="8"/>
+        <v>5.6504902214878097E-2</v>
       </c>
       <c r="P15">
         <v>20</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="13"/>
-        <v>6.9405485646369236</v>
+        <v>11.102426701807715</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="9"/>
-        <v>7.3863843311422954</v>
+        <v>11.554512534623742</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="10"/>
-        <v>7.780266008840985</v>
+        <v>11.967511722372395</v>
       </c>
       <c r="U15">
         <v>20</v>
       </c>
       <c r="V15" s="5" cm="1">
         <f t="array" ref="V15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G15</f>
-        <v>25703.331178941771</v>
+        <v>10421.969483243651</v>
       </c>
       <c r="W15" s="5" cm="1">
         <f t="array" ref="W15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H15</f>
-        <v>25466.205895908621</v>
+        <v>9783.0442002104901</v>
       </c>
       <c r="X15" s="5" cm="1">
         <f t="array" ref="X15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I15</f>
-        <v>25066.849714249609</v>
+        <v>9022.0680185514757</v>
       </c>
       <c r="Z15">
         <v>20</v>
       </c>
       <c r="AA15" s="5" cm="1">
         <f t="array" ref="AA15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G15</f>
-        <v>79476.079914815695</v>
+        <v>50710.327550589573</v>
       </c>
       <c r="AB15" s="5" cm="1">
         <f t="array" ref="AB15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H15</f>
-        <v>81199.662152758479</v>
+        <v>52032.109788532369</v>
       </c>
       <c r="AC15" s="5" cm="1">
         <f t="array" ref="AC15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I15</f>
-        <v>82315.413628685739</v>
+        <v>52786.241264459619</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>30</v>
       </c>
       <c r="B16">
@@ -2132,84 +2198,95 @@
       <c r="D16">
         <v>21.932578120898899</v>
       </c>
+      <c r="E16">
+        <v>-31.586307640000101</v>
+      </c>
       <c r="F16">
         <v>30</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="11"/>
-        <v>14366.9</v>
+        <v>19600</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="11"/>
-        <v>16065.099999999999</v>
+        <v>21700</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="11"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="11"/>
+        <v>25900</v>
       </c>
       <c r="K16">
         <v>30</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="12"/>
-        <v>0.1212374428714363</v>
+        <v>6.6673786632124393E-2</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="7"/>
-        <v>0.11210548732892191</v>
+        <v>6.2948657349671117E-2</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="8"/>
-        <v>0.10498590511252472</v>
+        <v>5.9858729202166221E-2</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="8"/>
+        <v>5.658634392432433E-2</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="13"/>
-        <v>6.9171162206582144</v>
+        <v>11.057600460821394</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="9"/>
-        <v>7.3761793404872433</v>
+        <v>11.535628693207293</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="10"/>
-        <v>7.7793956792660994</v>
+        <v>11.965941011210013</v>
       </c>
       <c r="U16">
         <v>30</v>
       </c>
       <c r="V16" s="5" cm="1">
         <f t="array" ref="V16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G16</f>
-        <v>25867.869428859987</v>
+        <v>10586.50773316186</v>
       </c>
       <c r="W16" s="5" cm="1">
         <f t="array" ref="W16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H16</f>
-        <v>25536.68684282108</v>
+        <v>9853.5251471229494</v>
       </c>
       <c r="X16" s="5" cm="1">
         <f t="array" ref="X16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I16</f>
-        <v>25072.76557388427</v>
+        <v>9027.9838781861472</v>
       </c>
       <c r="Z16">
         <v>30</v>
       </c>
       <c r="AA16" s="5" cm="1">
         <f t="array" ref="AA16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G16</f>
-        <v>79861.422330569156</v>
+        <v>51095.669966343063</v>
       </c>
       <c r="AB16" s="5" cm="1">
         <f t="array" ref="AB16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H16</f>
-        <v>81364.725889374997</v>
+        <v>52197.173525148872</v>
       </c>
       <c r="AC16" s="5" cm="1">
         <f t="array" ref="AC16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I16</f>
-        <v>82329.268350271857</v>
+        <v>52800.095986045708</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>40</v>
       </c>
       <c r="B17">
@@ -2221,84 +2298,95 @@
       <c r="D17">
         <v>30.2238737941741</v>
       </c>
+      <c r="E17">
+        <v>-21.505870168985499</v>
+      </c>
       <c r="F17">
         <v>40</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="11"/>
-        <v>14366.9</v>
+        <v>19600</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="11"/>
-        <v>16065.099999999999</v>
+        <v>21700</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="11"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="11"/>
+        <v>25900</v>
       </c>
       <c r="K17">
         <v>40</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="12"/>
-        <v>0.1209579079830885</v>
+        <v>6.6468886132767052E-2</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="7"/>
-        <v>0.11172654917690493</v>
+        <v>6.2668119132806233E-2</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="8"/>
-        <v>0.10451463418299427</v>
+        <v>5.9507254184223229E-2</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="8"/>
+        <v>5.6197137844362373E-2</v>
       </c>
       <c r="P17">
         <v>40</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="13"/>
-        <v>6.9303078961284328</v>
+        <v>11.0828279070899</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="9"/>
-        <v>7.3965686079884705</v>
+        <v>11.573369042602497</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="10"/>
-        <v>7.8076732711378982</v>
+        <v>12.017010914939307</v>
       </c>
       <c r="U17">
         <v>40</v>
       </c>
       <c r="V17" s="5" cm="1">
         <f t="array" ref="V17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G17</f>
-        <v>25775.100878867372</v>
+        <v>10493.739183169251</v>
       </c>
       <c r="W17" s="5" cm="1">
         <f t="array" ref="W17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H17</f>
-        <v>25396.0647858421</v>
+        <v>9712.9030901439837</v>
       </c>
       <c r="X17" s="5" cm="1">
         <f t="array" ref="X17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I17</f>
-        <v>24881.241186018811</v>
+        <v>8836.459490320678</v>
       </c>
       <c r="Z17">
         <v>40</v>
       </c>
       <c r="AA17" s="5" cm="1">
         <f t="array" ref="AA17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G17</f>
-        <v>79644.161862696987</v>
+        <v>50878.409498470879</v>
       </c>
       <c r="AB17" s="5" cm="1">
         <f t="array" ref="AB17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H17</f>
-        <v>81035.394301300868</v>
+        <v>51867.841937074758</v>
       </c>
       <c r="AC17" s="5" cm="1">
         <f t="array" ref="AC17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I17</f>
-        <v>81880.725410666797</v>
+        <v>52351.553046440677</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>50</v>
       </c>
       <c r="B18">
@@ -2310,84 +2398,95 @@
       <c r="D18">
         <v>43.905752088160099</v>
       </c>
+      <c r="E18">
+        <v>-1.6989439487786999</v>
+      </c>
       <c r="F18">
         <v>50</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="11"/>
-        <v>14366.9</v>
+        <v>19600</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="11"/>
-        <v>16065.099999999999</v>
+        <v>21700</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="11"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="11"/>
+        <v>25900</v>
       </c>
       <c r="K18">
         <v>50</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="12"/>
-        <v>0.12008209498431194</v>
+        <v>6.5826910736230163E-2</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="7"/>
-        <v>0.11089894575838821</v>
+        <v>6.2055421820418545E-2</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="8"/>
-        <v>0.10373696664399766</v>
+        <v>5.892726782161254E-2</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="8"/>
+        <v>5.5432391658253997E-2</v>
       </c>
       <c r="P18">
         <v>50</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="13"/>
-        <v>6.9719709321710974</v>
+        <v>11.162644351774498</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="9"/>
-        <v>7.4414991672974775</v>
+        <v>11.656690966634354</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="10"/>
-        <v>7.854795360235892</v>
+        <v>12.102282060722221</v>
       </c>
       <c r="U18">
         <v>50</v>
       </c>
       <c r="V18" s="5" cm="1">
         <f t="array" ref="V18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G18</f>
-        <v>25484.44699147105</v>
+        <v>10203.085295772915</v>
       </c>
       <c r="W18" s="5" cm="1">
         <f t="array" ref="W18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H18</f>
-        <v>25088.945287699222</v>
+        <v>9405.7835920010912</v>
       </c>
       <c r="X18" s="5" cm="1">
         <f t="array" ref="X18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I18</f>
-        <v>24565.19729271613</v>
+        <v>8520.4155970180036</v>
       </c>
       <c r="Z18">
         <v>50</v>
       </c>
       <c r="AA18" s="5" cm="1">
         <f t="array" ref="AA18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G18</f>
-        <v>78963.46134975781</v>
+        <v>50197.708985531703</v>
       </c>
       <c r="AB18" s="5" cm="1">
         <f t="array" ref="AB18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H18</f>
-        <v>80316.131944990397</v>
+        <v>51148.579580764272</v>
       </c>
       <c r="AC18" s="5" cm="1">
         <f t="array" ref="AC18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I18</f>
-        <v>81140.562455305815</v>
+        <v>51611.390091079709</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>60</v>
       </c>
       <c r="B19">
@@ -2399,84 +2498,95 @@
       <c r="D19">
         <v>64.772311939302497</v>
       </c>
+      <c r="E19">
+        <v>20.382388755864099</v>
+      </c>
       <c r="F19">
         <v>60</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="11"/>
-        <v>14366.9</v>
+        <v>19600</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="11"/>
-        <v>16065.099999999999</v>
+        <v>21700</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="11"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="11"/>
+        <v>25900</v>
       </c>
       <c r="K19">
         <v>60</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="12"/>
-        <v>0.11854623255148028</v>
+        <v>6.4701115736931741E-2</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="7"/>
-        <v>0.1096851472115957</v>
+        <v>6.1156813754332073E-2</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="8"/>
-        <v>0.10255092727878155</v>
+        <v>5.8042716746956234E-2</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="8"/>
+        <v>5.4579830549966631E-2</v>
       </c>
       <c r="P19">
         <v>60</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="13"/>
-        <v>7.0462719243026211</v>
+        <v>11.305522891573109</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>7.5084078386980488</v>
+        <v>11.781170576604001</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="10"/>
-        <v>7.9277867825375496</v>
+        <v>12.23478270196421</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
       <c r="V19" s="5" cm="1">
         <f t="array" ref="V19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G19</f>
-        <v>24974.744135687797</v>
+        <v>9693.382439989673</v>
       </c>
       <c r="W19" s="5" cm="1">
         <f t="array" ref="W19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H19</f>
-        <v>24638.51070490641</v>
+        <v>8955.3490092082793</v>
       </c>
       <c r="X19" s="5" cm="1">
         <f t="array" ref="X19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I19</f>
-        <v>24083.191191398375</v>
+        <v>8038.4094957002453</v>
       </c>
       <c r="Z19">
         <v>60</v>
       </c>
       <c r="AA19" s="5" cm="1">
         <f t="array" ref="AA19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G19</f>
-        <v>77769.756361029722</v>
+        <v>49004.0039968036</v>
       </c>
       <c r="AB19" s="5" cm="1">
         <f t="array" ref="AB19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H19</f>
-        <v>79261.231030713185</v>
+        <v>50093.67866648706</v>
       </c>
       <c r="AC19" s="5" cm="1">
         <f t="array" ref="AC19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I19</f>
-        <v>80011.722227686842</v>
+        <v>50482.549863460736</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>70</v>
       </c>
       <c r="B20">
@@ -2488,83 +2598,94 @@
       <c r="D20">
         <v>91.965106424325597</v>
       </c>
+      <c r="E20">
+        <v>51.329318737709002</v>
+      </c>
       <c r="F20">
         <v>70</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="11"/>
-        <v>14366.9</v>
+        <v>19600</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="11"/>
-        <v>16065.099999999999</v>
+        <v>21700</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="11"/>
-        <v>17593.48</v>
+        <v>23590</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="11"/>
+        <v>25900</v>
       </c>
       <c r="K20">
         <v>70</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="12"/>
-        <v>0.11600119338041971</v>
+        <v>6.2835589039650613E-2</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="7"/>
-        <v>0.10787186465295094</v>
+        <v>5.98143913749365E-2</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="8"/>
-        <v>0.1010053095564763</v>
+        <v>5.6889991249498707E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="8"/>
+        <v>5.3384968388505448E-2</v>
       </c>
       <c r="P20">
         <v>70</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="13"/>
-        <v>7.1729932235794882</v>
+        <v>11.550808863887591</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="9"/>
-        <v>7.6106698476022556</v>
+        <v>11.972358501088443</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="10"/>
-        <v>8.0250044389996731</v>
+        <v>12.412056485112297</v>
       </c>
       <c r="U20">
         <v>70</v>
       </c>
       <c r="V20" s="5" cm="1">
         <f t="array" ref="V20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G20</f>
-        <v>24130.128299113065</v>
+        <v>8848.7666034149515</v>
       </c>
       <c r="W20" s="5" cm="1">
         <f t="array" ref="W20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H20</f>
-        <v>23965.610597267492</v>
+        <v>8282.4489015693653</v>
       </c>
       <c r="X20" s="5" cm="1">
         <f t="array" ref="X20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I20</f>
-        <v>23455.052535713661</v>
+        <v>7410.2708400155352</v>
       </c>
       <c r="Z20">
         <v>70</v>
       </c>
       <c r="AA20" s="5" cm="1">
         <f t="array" ref="AA20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G20</f>
-        <v>75791.697721101737</v>
+        <v>47025.945356875614</v>
       </c>
       <c r="AB20" s="5" cm="1">
         <f t="array" ref="AB20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H20</f>
-        <v>77685.324193444394</v>
+        <v>48517.771829218284</v>
       </c>
       <c r="AC20" s="5" cm="1">
         <f t="array" ref="AC20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I20</f>
-        <v>78540.645033599736</v>
+        <v>49011.47266937363</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2577,7 +2698,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4.5</v>
       </c>
@@ -2587,6 +2708,9 @@
       <c r="D22">
         <v>6.4</v>
       </c>
+      <c r="E22">
+        <v>7.5</v>
+      </c>
       <c r="G22">
         <v>4.5</v>
       </c>
@@ -2596,6 +2720,9 @@
       <c r="I22">
         <v>6.4</v>
       </c>
+      <c r="J22">
+        <v>7.5</v>
+      </c>
       <c r="L22">
         <v>4.5</v>
       </c>
@@ -2605,6 +2732,9 @@
       <c r="N22">
         <v>6.4</v>
       </c>
+      <c r="O22">
+        <v>7.5</v>
+      </c>
       <c r="Q22">
         <v>4.5</v>
       </c>
@@ -2614,6 +2744,9 @@
       <c r="S22">
         <v>6.4</v>
       </c>
+      <c r="T22">
+        <v>7.5</v>
+      </c>
       <c r="V22">
         <v>4.5</v>
       </c>
@@ -2623,6 +2756,9 @@
       <c r="X22">
         <v>6.4</v>
       </c>
+      <c r="Y22">
+        <v>7.5</v>
+      </c>
       <c r="AA22">
         <v>4.5</v>
       </c>
@@ -2632,731 +2768,734 @@
       <c r="AC22">
         <v>6.4</v>
       </c>
+      <c r="AD22">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23">
-        <v>855.34143228675703</v>
-      </c>
-      <c r="C23">
-        <v>799.22015711341101</v>
-      </c>
-      <c r="D23">
-        <v>752.28138598229395</v>
+      <c r="B23" s="1">
+        <v>776.78828799999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>721.81264299999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>675.60916999999995</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="8">
         <f>$B$21*$B$32+$B$34*G$12</f>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" ref="H23:I23" si="14">$B$21*$B$32+$B$34*H$12</f>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="14"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" s="6">
         <f>($B$35-B23)/G23</f>
-        <v>0.13264483540915781</v>
+        <v>6.9546212910052918E-2</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" ref="M23:M30" si="15">($B$35-C23)/H23</f>
-        <v>0.11453623011387343</v>
+        <v>6.1661243030303035E-2</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" ref="N23:N30" si="16">($B$35-D23)/I23</f>
-        <v>0.1027483708869783</v>
+        <v>5.6427889136904767E-2</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23" s="4">
         <f>LN(1+(G23*$B$36/($B$35-B23)))/LN(1+$B$36)</f>
-        <v>6.4189842118249105</v>
+        <v>10.716027802394265</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ref="R23:R30" si="17">LN(1+(H23*$B$36/($B$35-C23)))/LN(1+$B$36)</f>
-        <v>7.2480544382870491</v>
+        <v>11.710957052369087</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ref="S23:S30" si="18">LN(1+(I23*$B$36/($B$35-D23)))/LN(1+$B$36)</f>
-        <v>7.9155400971756098</v>
+        <v>12.484633968782891</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" s="5" cm="1">
         <f t="array" ref="V23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G23</f>
-        <v>15773.057605676329</v>
+        <v>5731.2305095489355</v>
       </c>
       <c r="W23" s="5" cm="1">
         <f t="array" ref="W23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H23</f>
-        <v>15371.228317487978</v>
+        <v>4901.1377919622646</v>
       </c>
       <c r="X23" s="5" cm="1">
         <f t="array" ref="X23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I23</f>
-        <v>14927.108216338424</v>
+        <v>4078.4127067993286</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23" s="5" cm="1">
         <f t="array" ref="AA23">SUMPRODUCT(($B$35-B23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G23</f>
-        <v>47195.053310379539</v>
+        <v>26103.872984353766</v>
       </c>
       <c r="AB23" s="5" cm="1">
         <f t="array" ref="AB23">SUMPRODUCT(($B$35-C23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H23</f>
-        <v>48532.904940014996</v>
+        <v>26977.948253972398</v>
       </c>
       <c r="AC23" s="5" cm="1">
         <f t="array" ref="AC23">SUMPRODUCT(($B$35-D23) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I23</f>
-        <v>49543.820993882924</v>
+        <v>27587.466111739996</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24">
-        <v>848.08308659747399</v>
-      </c>
-      <c r="C24">
-        <v>791.15732352216298</v>
-      </c>
-      <c r="D24">
-        <v>743.68165316403599</v>
+      <c r="B24" s="1">
+        <v>771.08653600000002</v>
+      </c>
+      <c r="C24" s="1">
+        <v>715.21237099999996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>668.40436099999999</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" ref="G24:I30" si="19">$B$21*$B$32+$B$34*G$12</f>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="19"/>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="19"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K24">
         <v>10</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" ref="L24:L30" si="20">($B$35-B24)/G24</f>
-        <v>0.13359464444739214</v>
+        <v>7.0149572910052901E-2</v>
       </c>
       <c r="M24" s="6">
         <f t="shared" si="15"/>
-        <v>0.11539947928585743</v>
+        <v>6.2232695151515152E-2</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="16"/>
-        <v>0.10353962530509914</v>
+        <v>5.696396123511905E-2</v>
       </c>
       <c r="P24">
         <v>10</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" ref="Q24:Q30" si="21">LN(1+(G24*$B$36/($B$35-B24)))/LN(1+$B$36)</f>
-        <v>6.3807604615935709</v>
+        <v>10.647026341361451</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="17"/>
-        <v>7.2036319932654322</v>
+        <v>11.632455597415237</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="18"/>
-        <v>7.8668452397101634</v>
+        <v>12.400520346671161</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
       <c r="V24" s="5" cm="1">
         <f t="array" ref="V24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G24</f>
-        <v>15940.721414788413</v>
+        <v>5862.9378571810485</v>
       </c>
       <c r="W24" s="5" cm="1">
         <f t="array" ref="W24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H24</f>
-        <v>15557.475356416082</v>
+        <v>5053.6004593617763</v>
       </c>
       <c r="X24" s="5" cm="1">
         <f t="array" ref="X24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I24</f>
-        <v>15125.757333283105</v>
+        <v>4244.8398477177689</v>
       </c>
       <c r="Z24">
         <v>10</v>
       </c>
       <c r="AA24" s="5" cm="1">
         <f t="array" ref="AA24">SUMPRODUCT(($B$35-B24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G24</f>
-        <v>47587.715668644538</v>
+        <v>26412.326657188321</v>
       </c>
       <c r="AB24" s="5" cm="1">
         <f t="array" ref="AB24">SUMPRODUCT(($B$35-C24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H24</f>
-        <v>48969.088526160842</v>
+        <v>27335.010107961672</v>
       </c>
       <c r="AC24" s="5" cm="1">
         <f t="array" ref="AC24">SUMPRODUCT(($B$35-D24) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I24</f>
-        <v>50009.049782014627</v>
+        <v>27977.232239435747</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25">
-        <v>848.70622853402404</v>
-      </c>
-      <c r="C25">
-        <v>791.99283303668096</v>
-      </c>
-      <c r="D25">
-        <v>744.21830838338099</v>
+      <c r="B25" s="1">
+        <v>773.10004100000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>717.36218499999995</v>
+      </c>
+      <c r="D25" s="1">
+        <v>670.18681700000002</v>
       </c>
       <c r="F25">
         <v>20</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="19"/>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="19"/>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="19"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K25">
         <v>20</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="20"/>
-        <v>0.13351310164566091</v>
+        <v>6.9936503597883601E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="15"/>
-        <v>0.11531002526346817</v>
+        <v>6.2046564069264072E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="16"/>
-        <v>0.10349024809509876</v>
+        <v>5.683133802083333E-2</v>
       </c>
       <c r="P25">
         <v>20</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="21"/>
-        <v>6.3840239671515375</v>
+        <v>10.671288498256121</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="17"/>
-        <v>7.2082095958220513</v>
+        <v>11.657904673555239</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="18"/>
-        <v>7.8698661491302326</v>
+        <v>12.42121977627624</v>
       </c>
       <c r="U25">
         <v>20</v>
       </c>
       <c r="V25" s="5" cm="1">
         <f t="array" ref="V25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G25</f>
-        <v>15926.327177427453</v>
+        <v>5816.4269947314042</v>
       </c>
       <c r="W25" s="5" cm="1">
         <f t="array" ref="W25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H25</f>
-        <v>15538.175544344529</v>
+        <v>5003.9409336857425</v>
       </c>
       <c r="X25" s="5" cm="1">
         <f t="array" ref="X25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I25</f>
-        <v>15113.360891709908</v>
+        <v>4203.6660905934696</v>
       </c>
       <c r="Z25">
         <v>20</v>
       </c>
       <c r="AA25" s="5" cm="1">
         <f t="array" ref="AA25">SUMPRODUCT(($B$35-B25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G25</f>
-        <v>47554.004904124071</v>
+        <v>26303.399960179973</v>
       </c>
       <c r="AB25" s="5" cm="1">
         <f t="array" ref="AB25">SUMPRODUCT(($B$35-C25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H25</f>
-        <v>48923.889089489225</v>
+        <v>27218.709359663408</v>
       </c>
       <c r="AC25" s="5" cm="1">
         <f t="array" ref="AC25">SUMPRODUCT(($B$35-D25) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I25</f>
-        <v>49980.017780367969</v>
+        <v>27880.80484310809</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
-      <c r="B26">
-        <v>855.10775863383697</v>
-      </c>
-      <c r="C26">
-        <v>799.58687820807097</v>
-      </c>
-      <c r="D26">
-        <v>752.59055372453702</v>
+      <c r="B26" s="1">
+        <v>779.99777300000005</v>
+      </c>
+      <c r="C26" s="1">
+        <v>725.50151900000003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>679.12195399999996</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="19"/>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="19"/>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="19"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K26">
         <v>30</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="20"/>
-        <v>0.13267541336135819</v>
+        <v>6.9206584867724866E-2</v>
       </c>
       <c r="M26" s="6">
         <f t="shared" si="15"/>
-        <v>0.11449696703375008</v>
+        <v>6.1341859826839824E-2</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" si="16"/>
-        <v>0.10271992461461611</v>
+        <v>5.6166521279761905E-2</v>
       </c>
       <c r="P26">
         <v>30</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="21"/>
-        <v>6.4177464312030006</v>
+        <v>10.755275630827173</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="17"/>
-        <v>7.2500881170485316</v>
+        <v>11.755312047387029</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="18"/>
-        <v>7.9173021392169218</v>
+        <v>12.526077366353991</v>
       </c>
       <c r="U26">
         <v>30</v>
       </c>
       <c r="V26" s="5" cm="1">
         <f t="array" ref="V26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G26</f>
-        <v>15778.455339046284</v>
+        <v>5657.093164288206</v>
       </c>
       <c r="W26" s="5" cm="1">
         <f t="array" ref="W26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H26</f>
-        <v>15362.757261100669</v>
+        <v>4815.9267772243784</v>
       </c>
       <c r="X26" s="5" cm="1">
         <f t="array" ref="X26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I26</f>
-        <v>14919.966610862728</v>
+        <v>3997.2693207936718</v>
       </c>
       <c r="Z26">
         <v>30</v>
       </c>
       <c r="AA26" s="5" cm="1">
         <f t="array" ref="AA26">SUMPRODUCT(($B$35-B26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G26</f>
-        <v>47207.694599668837</v>
+        <v>25930.246099817676</v>
       </c>
       <c r="AB26" s="5" cm="1">
         <f t="array" ref="AB26">SUMPRODUCT(($B$35-C26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H26</f>
-        <v>48513.066043382212</v>
+        <v>26778.387250471853</v>
       </c>
       <c r="AC26" s="5" cm="1">
         <f t="array" ref="AC26">SUMPRODUCT(($B$35-D26) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I26</f>
-        <v>49527.095621468121</v>
+        <v>27397.431342308701</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
-      <c r="B27">
-        <v>867.22096553860104</v>
-      </c>
-      <c r="C27">
-        <v>813.73079032396697</v>
-      </c>
-      <c r="D27">
-        <v>768.28093879695302</v>
+      <c r="B27" s="1">
+        <v>792.02642900000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>739.501937</v>
+      </c>
+      <c r="D27" s="1">
+        <v>694.646117</v>
       </c>
       <c r="F27">
         <v>40</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="19"/>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="19"/>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="19"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K27">
         <v>40</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="20"/>
-        <v>0.1310903092766719</v>
+        <v>6.7933711216931217E-2</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="15"/>
-        <v>0.11298264576139797</v>
+        <v>6.0129702424242426E-2</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="16"/>
-        <v>0.10127626505298322</v>
+        <v>5.5011449627976189E-2</v>
       </c>
       <c r="P27">
         <v>40</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="21"/>
-        <v>6.48255333411874</v>
+        <v>10.905047886824546</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" si="17"/>
-        <v>7.3294174813984494</v>
+        <v>11.926874926730296</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="18"/>
-        <v>8.007786639465758</v>
+        <v>12.712720334078078</v>
       </c>
       <c r="U27">
         <v>40</v>
       </c>
       <c r="V27" s="5" cm="1">
         <f t="array" ref="V27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G27</f>
-        <v>15498.646895475695</v>
+        <v>5379.2378002984842</v>
       </c>
       <c r="W27" s="5" cm="1">
         <f t="array" ref="W27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H27</f>
-        <v>15036.040639626008</v>
+        <v>4492.5247912171108</v>
       </c>
       <c r="X27" s="5" cm="1">
         <f t="array" ref="X27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I27</f>
-        <v>14557.527311290516</v>
+        <v>3638.6696600334981</v>
       </c>
       <c r="Z27">
         <v>40</v>
       </c>
       <c r="AA27" s="5" cm="1">
         <f t="array" ref="AA27">SUMPRODUCT(($B$35-B27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G27</f>
-        <v>46552.393709770549</v>
+        <v>25279.519249112243</v>
       </c>
       <c r="AB27" s="5" cm="1">
         <f t="array" ref="AB27">SUMPRODUCT(($B$35-C27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H27</f>
-        <v>47747.907958569449</v>
+        <v>26020.991917718173</v>
       </c>
       <c r="AC27" s="5" cm="1">
         <f t="array" ref="AC27">SUMPRODUCT(($B$35-D27) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I27</f>
-        <v>48678.276363146259</v>
+        <v>26557.60437420621</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
-      <c r="B28">
-        <v>884.72312853946801</v>
-      </c>
-      <c r="C28">
-        <v>833.45672586742899</v>
-      </c>
-      <c r="D28">
-        <v>790.03783874614498</v>
+      <c r="B28" s="1">
+        <v>809.40303600000004</v>
+      </c>
+      <c r="C28" s="1">
+        <v>759.07975299999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>716.28548899999998</v>
       </c>
       <c r="F28">
         <v>50</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="19"/>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="19"/>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="19"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K28">
         <v>50</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="20"/>
-        <v>0.12880001981974798</v>
+        <v>6.6094916825396824E-2</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="15"/>
-        <v>0.11087068383984873</v>
+        <v>5.843465341991342E-2</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="16"/>
-        <v>9.9274430394485247E-2</v>
+        <v>5.340137730654762E-2</v>
       </c>
       <c r="P28">
         <v>50</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="21"/>
-        <v>6.578565486282125</v>
+        <v>11.129179236255847</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="17"/>
-        <v>7.4430432922894525</v>
+        <v>12.175702264375257</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="18"/>
-        <v>8.1367962699375393</v>
+        <v>12.982796130939629</v>
       </c>
       <c r="U28">
         <v>50</v>
       </c>
       <c r="V28" s="5" cm="1">
         <f t="array" ref="V28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G28</f>
-        <v>15094.356518295286</v>
+        <v>4977.8476979552615</v>
       </c>
       <c r="W28" s="5" cm="1">
         <f t="array" ref="W28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H28</f>
-        <v>14580.382334952035</v>
+        <v>4040.2879668533697</v>
       </c>
       <c r="X28" s="5" cm="1">
         <f t="array" ref="X28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I28</f>
-        <v>14054.954841459246</v>
+        <v>3138.8120214436967</v>
       </c>
       <c r="Z28">
         <v>50</v>
       </c>
       <c r="AA28" s="5" cm="1">
         <f t="array" ref="AA28">SUMPRODUCT(($B$35-B28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G28</f>
-        <v>45605.560795928192</v>
+        <v>24339.478670259879</v>
       </c>
       <c r="AB28" s="5" cm="1">
         <f t="array" ref="AB28">SUMPRODUCT(($B$35-C28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H28</f>
-        <v>46680.773283389179</v>
+        <v>24961.870221215213</v>
       </c>
       <c r="AC28" s="5" cm="1">
         <f t="array" ref="AC28">SUMPRODUCT(($B$35-D28) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I28</f>
-        <v>47501.270471128824</v>
+        <v>25386.956515226513</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>60</v>
       </c>
-      <c r="B29">
-        <v>906.61297638021199</v>
-      </c>
-      <c r="C29">
-        <v>857.76160515654897</v>
-      </c>
-      <c r="D29">
-        <v>816.43641321394603</v>
+      <c r="B29" s="1">
+        <v>831.19194100000004</v>
+      </c>
+      <c r="C29" s="1">
+        <v>783.21067300000004</v>
+      </c>
+      <c r="D29" s="1">
+        <v>742.50600999999995</v>
       </c>
       <c r="F29">
         <v>60</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="19"/>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="19"/>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="19"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K29">
         <v>60</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="20"/>
-        <v>0.1259355688532679</v>
+        <v>6.3789212592592584E-2</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="15"/>
-        <v>0.10826847623081672</v>
+        <v>5.6345396277056273E-2</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="16"/>
-        <v>9.6845519040938022E-2</v>
+        <v>5.145044568452381E-2</v>
       </c>
       <c r="P29">
         <v>60</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="21"/>
-        <v>6.7027758143446627</v>
+        <v>11.424061247633276</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="17"/>
-        <v>7.5880614862412292</v>
+        <v>12.497683417432581</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="18"/>
-        <v>8.2991291651832597</v>
+        <v>13.326593153055825</v>
       </c>
       <c r="U29">
         <v>60</v>
       </c>
       <c r="V29" s="5" cm="1">
         <f t="array" ref="V29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G29</f>
-        <v>14588.713025001476</v>
+        <v>4474.5359289835287</v>
       </c>
       <c r="W29" s="5" cm="1">
         <f t="array" ref="W29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H29</f>
-        <v>14018.95293821771</v>
+        <v>3482.8769343982985</v>
       </c>
       <c r="X29" s="5" cm="1">
         <f t="array" ref="X29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I29</f>
-        <v>13445.162233078005</v>
+        <v>2533.132350626347</v>
       </c>
       <c r="Z29">
         <v>60</v>
       </c>
       <c r="AA29" s="5" cm="1">
         <f t="array" ref="AA29">SUMPRODUCT(($B$35-B29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G29</f>
-        <v>44421.362682038467</v>
+        <v>23160.741367358401</v>
       </c>
       <c r="AB29" s="5" cm="1">
         <f t="array" ref="AB29">SUMPRODUCT(($B$35-C29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H29</f>
-        <v>45365.926674043563</v>
+        <v>23656.434470436012</v>
       </c>
       <c r="AC29" s="5" cm="1">
         <f t="array" ref="AC29">SUMPRODUCT(($B$35-D29) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I29</f>
-        <v>46073.159032365846</v>
+        <v>23968.477422118711</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>70</v>
       </c>
-      <c r="B30">
-        <v>932.92485462626496</v>
-      </c>
-      <c r="C30">
-        <v>887.20182443517797</v>
-      </c>
-      <c r="D30">
-        <v>848.62098664477401</v>
+      <c r="B30" s="1">
+        <v>856.70851700000003</v>
+      </c>
+      <c r="C30" s="1">
+        <v>811.91684399999997</v>
+      </c>
+      <c r="D30" s="1">
+        <v>773.97229600000003</v>
       </c>
       <c r="F30">
         <v>70</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="19"/>
-        <v>7641.9</v>
+        <v>9450</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="19"/>
-        <v>9340.0999999999985</v>
+        <v>11550</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="19"/>
-        <v>10868.48</v>
+        <v>13440</v>
       </c>
       <c r="K30">
         <v>70</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="20"/>
-        <v>0.12249246200208523</v>
+        <v>6.1089045820105818E-2</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="15"/>
-        <v>0.10511645223978568</v>
+        <v>5.3860013506493512E-2</v>
       </c>
       <c r="N30" s="6">
         <f t="shared" si="16"/>
-        <v>9.3884242631465123E-2</v>
+        <v>4.9109204166666663E-2</v>
       </c>
       <c r="P30">
         <v>70</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="21"/>
-        <v>6.858511484515927</v>
+        <v>11.79067009723674</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="17"/>
-        <v>7.7715992706465009</v>
+        <v>12.904649530983125</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="18"/>
-        <v>8.5062001259894267</v>
+        <v>13.765276478208945</v>
       </c>
       <c r="U30">
         <v>70</v>
       </c>
       <c r="V30" s="5" cm="1">
         <f t="array" ref="V30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G30</f>
-        <v>13980.923051848173</v>
+        <v>3885.1170020268146</v>
       </c>
       <c r="W30" s="5" cm="1">
         <f t="array" ref="W30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H30</f>
-        <v>13338.900000998405</v>
+        <v>2819.7801102845988</v>
       </c>
       <c r="X30" s="5" cm="1">
         <f t="array" ref="X30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I30</f>
-        <v>12701.716218371406</v>
+        <v>1806.2783820753521</v>
       </c>
       <c r="Z30">
         <v>70</v>
       </c>
       <c r="AA30" s="5" cm="1">
         <f t="array" ref="AA30">SUMPRODUCT(($B$35-B30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G30</f>
-        <v>42997.941339936828</v>
+        <v>21780.344327051829</v>
       </c>
       <c r="AB30" s="5" cm="1">
         <f t="array" ref="AB30">SUMPRODUCT(($B$35-C30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H30</f>
-        <v>43773.268177927341</v>
+        <v>22103.486555835952</v>
       </c>
       <c r="AC30" s="5" cm="1">
         <f t="array" ref="AC30">SUMPRODUCT(($B$35-D30) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I30</f>
-        <v>44332.036324231187</v>
+        <v>22266.212664345585</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="3">
-        <f>12500*0.7-0.15*13500</f>
-        <v>6725</v>
+        <f>14500*0.7</f>
+        <v>10150</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3364,8 +3503,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="9">
-        <f>2.426*0.7</f>
-        <v>1.6981999999999999</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3374,7 +3512,7 @@
       </c>
       <c r="B34" s="3">
         <f>B33*1000</f>
-        <v>1698.1999999999998</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3382,7 +3520,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>1869</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3403,7 +3541,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:D10 B13:D20 B23:D30">
+  <conditionalFormatting sqref="B13:E20 B3:D10 B23:D30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3415,8 +3553,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:D20 B23:D30">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="G3:I10">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3427,20 +3565,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:I10">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I21 G23:I30">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="G13:I21 G23:I30 J13:J20">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3452,6 +3578,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:N10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:N30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3463,20 +3601,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:N20">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23:N30">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="L13:O20">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3488,7 +3614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:S10">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3500,7 +3626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:S21 Q23:S30">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3512,7 +3638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23:X30 V13:X20 V3:X10">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3524,7 +3650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AC10 AA13:AC20 AA23:AC30">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
